--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C59E88B-9A40-4E23-85FA-F572F5381A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8F6393-B3B1-4558-93F0-59FBF8250C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33885" yWindow="4440" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
+    <sheet name="BuildingUpgrade" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>索引</t>
   </si>
@@ -69,19 +80,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ColCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级所需时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RowCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ColCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地行大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地列大小</t>
+    <t>占地行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,20 +532,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="34.25" customWidth="1"/>
-    <col min="3" max="3" width="46.125" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="3" max="4" width="34.625" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,13 +557,16 @@
         <v>7</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -522,13 +577,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -544,8 +602,11 @@
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -556,13 +617,16 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -573,9 +637,12 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
@@ -584,4 +651,221 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="34.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <f>B4*100+C4</f>
+        <v>101</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <f t="shared" ref="A5:A7" si="0">B5*100+C5</f>
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <f>B8*100+C8</f>
+        <v>201</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <f t="shared" ref="A9:A11" si="1">B9*100+C9</f>
+        <v>202</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8F6393-B3B1-4558-93F0-59FBF8250C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A051FD2F-4080-4405-9D54-EAD58AC711B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>索引</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>最大等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Wall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,61 +547,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="34.25" customWidth="1"/>
-    <col min="3" max="4" width="34.625" customWidth="1"/>
-    <col min="5" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="5" width="34.625" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -596,8 +617,8 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
@@ -605,44 +626,53 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A051FD2F-4080-4405-9D54-EAD58AC711B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE55696E-47FF-466B-97FF-4B061D065A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>索引</t>
   </si>
@@ -148,6 +148,21 @@
   </si>
   <si>
     <t>Wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayInt</t>
+  </si>
+  <si>
+    <t>额外功能ID列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExtraFuns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,6 +181,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -218,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,9 +247,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +255,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,132 +584,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="34.25" customWidth="1"/>
-    <col min="4" max="5" width="34.625" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="1" max="2" width="9" style="11"/>
+    <col min="3" max="3" width="34.25" style="11" customWidth="1"/>
+    <col min="4" max="5" width="34.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="33" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="H2" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <v>4</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
         <v>1</v>
       </c>
     </row>
@@ -699,19 +750,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -719,16 +770,16 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -763,7 +814,7 @@
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>100</v>
       </c>
     </row>
@@ -778,10 +829,10 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>20</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>200</v>
       </c>
     </row>
@@ -835,7 +886,7 @@
       <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>100</v>
       </c>
     </row>
@@ -850,10 +901,10 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>20</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>200</v>
       </c>
     </row>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE55696E-47FF-466B-97FF-4B061D065A8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E4233-C919-4D30-8573-37E185B85D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E4233-C919-4D30-8573-37E185B85D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B28E18-6FCE-45A9-A390-B91E3053F125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29355" yWindow="1890" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="181">
   <si>
     <t>索引</t>
   </si>
@@ -45,124 +45,694 @@
     <t>String</t>
   </si>
   <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级所需时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RowCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>仓库</t>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库的描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城区的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Durability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级所需时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildingID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地行数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地列数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加资源存储上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采石场</t>
+  </si>
+  <si>
+    <t>金属矿场</t>
+  </si>
+  <si>
+    <t>伐木场</t>
+  </si>
+  <si>
+    <t>牧场</t>
+  </si>
+  <si>
+    <t>增加每小时石头产量</t>
+  </si>
+  <si>
+    <t>增加每小时铁矿产量</t>
+  </si>
+  <si>
+    <t>增加每小时木头产量</t>
+  </si>
+  <si>
+    <t>增加每小时食物产量</t>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄带兵上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reserve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵役所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战略中心</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加本城可部署的部队数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>募兵所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加部队的募兵速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>House</t>
-  </si>
-  <si>
-    <t>Wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加每日黄金税收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵营</t>
+  </si>
+  <si>
+    <t>弓兵营</t>
+  </si>
+  <si>
+    <t>步兵营</t>
+  </si>
+  <si>
+    <t>Rider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infantry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高骑兵四维属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高弓兵四维属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高步兵四维属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高部队行军速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:2000,wood:1000,metal:1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁荣度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级建造消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ArrayInt</t>
-  </si>
-  <si>
-    <t>额外功能ID列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExtraFuns</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>建造前置条件 建筑,Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>增加每小时黄金税收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddValues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DayTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加成类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:1000,stone:1000,wood:1000,metal:1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:5000,stone:5000,wood:5000,metal:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:20000,stone:20000,wood:20000,metal:20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:50000,stone:50000,wood:50000,metal:50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HourTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal:1000</t>
+  </si>
+  <si>
+    <t>metal:2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal:3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal:4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood:1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood:2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood:3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood:4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroopCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroopAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加主城兵役上限值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReserverLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitSecs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributeAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高火系属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高风系属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高水系属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack:1,defense:1,aps:1:brute:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack:2,defense:2,aps:2:brute:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack:3,defense:3,aps:3:brute:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack:4,defense:4,aps:4:brute:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrowTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GangTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range:1,attack:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range:2,attack:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range:3,attack:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range:4,attack:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range:2,attack:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range:4,attack:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range:6,attack:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range:8,attack:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fortress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeployCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以调动部署部队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deploy:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deploy:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deploy:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deploy:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以建造在野外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以建造数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanBuildOutSide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +740,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +762,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -234,7 +811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,15 +822,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -278,6 +846,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,146 +1155,861 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="11"/>
-    <col min="3" max="3" width="34.25" style="11" customWidth="1"/>
-    <col min="4" max="5" width="34.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="11" customWidth="1"/>
-    <col min="8" max="8" width="33" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="3" width="16.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22" style="8" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="27.375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="24.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3</v>
+      </c>
+      <c r="J5" s="8">
+        <v>5</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5</v>
+      </c>
+      <c r="I6" s="8">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8">
+        <v>5</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="8">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5</v>
+      </c>
+      <c r="I11" s="8">
+        <v>5</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8">
+        <v>5</v>
+      </c>
+      <c r="I12" s="8">
+        <v>5</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4</v>
+      </c>
+      <c r="H13" s="8">
+        <v>5</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8">
+        <v>5</v>
+      </c>
+      <c r="I14" s="8">
+        <v>5</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8">
+        <v>5</v>
+      </c>
+      <c r="I15" s="8">
+        <v>5</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="B16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="I16" s="8">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="8">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="I17" s="8">
+        <v>5</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="8">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8">
+        <v>5</v>
+      </c>
+      <c r="I18" s="8">
+        <v>5</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4</v>
+      </c>
+      <c r="H19" s="8">
+        <v>5</v>
+      </c>
+      <c r="I19" s="8">
+        <v>5</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="8">
+        <v>4</v>
+      </c>
+      <c r="H20" s="8">
+        <v>5</v>
+      </c>
+      <c r="I20" s="8">
+        <v>5</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="8">
+        <v>4</v>
+      </c>
+      <c r="H21" s="8">
+        <v>5</v>
+      </c>
+      <c r="I21" s="8">
+        <v>5</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="8">
+        <v>4</v>
+      </c>
+      <c r="H22" s="8">
+        <v>2</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2</v>
+      </c>
+      <c r="J22" s="8">
         <v>10</v>
       </c>
-      <c r="E4" s="11">
-        <v>4</v>
-      </c>
-      <c r="F4" s="11">
-        <v>2</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11">
-        <v>4</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="K22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="8">
+        <v>4</v>
+      </c>
+      <c r="H23" s="8">
+        <v>2</v>
+      </c>
+      <c r="I23" s="8">
+        <v>2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>10</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="8">
+        <v>4</v>
+      </c>
+      <c r="H24" s="8">
+        <v>5</v>
+      </c>
+      <c r="I24" s="8">
+        <v>5</v>
+      </c>
+      <c r="J24" s="8">
+        <v>20</v>
+      </c>
+      <c r="K24" s="8">
         <v>1</v>
       </c>
     </row>
@@ -736,212 +2022,2368 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="21.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24" style="8" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="33" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="59" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
         <f>B4*100+C4</f>
         <v>101</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
         <v>10</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="F4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
         <f t="shared" ref="A5:A7" si="0">B5*100+C5</f>
         <v>102</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
         <v>20</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="F5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
         <v>30</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="F6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
         <v>40</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="F7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
         <f>B8*100+C8</f>
         <v>201</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
         <v>10</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="F8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
         <f t="shared" ref="A9:A11" si="1">B9*100+C9</f>
         <v>202</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
         <v>20</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="F9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
         <v>30</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="F10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
         <v>40</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
         <v>400</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="8">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
+        <f>B12*100+C12</f>
+        <v>301</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>100</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <f t="shared" ref="A13:A15" si="2">B13*100+C13</f>
+        <v>302</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7">
+        <v>200</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>30</v>
+      </c>
+      <c r="E14" s="8">
+        <v>300</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8">
+        <v>40</v>
+      </c>
+      <c r="E15" s="8">
+        <v>400</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <f>B16*100+C16</f>
+        <v>401</v>
+      </c>
+      <c r="B16" s="8">
+        <v>4</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7">
+        <v>100</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <f t="shared" ref="A17:A19" si="3">B17*100+C17</f>
+        <v>402</v>
+      </c>
+      <c r="B17" s="8">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7">
+        <v>200</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <f t="shared" si="3"/>
+        <v>403</v>
+      </c>
+      <c r="B18" s="8">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
+        <v>30</v>
+      </c>
+      <c r="E18" s="8">
+        <v>300</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="8">
+        <v>3</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <f t="shared" si="3"/>
+        <v>404</v>
+      </c>
+      <c r="B19" s="8">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8">
+        <v>40</v>
+      </c>
+      <c r="E19" s="8">
+        <v>400</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="8">
+        <v>4</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <f>B20*100+C20</f>
+        <v>501</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7">
+        <v>100</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <f t="shared" ref="A21:A23" si="4">B21*100+C21</f>
+        <v>502</v>
+      </c>
+      <c r="B21" s="8">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7">
+        <v>200</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="7">
+        <v>2</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <f t="shared" si="4"/>
+        <v>503</v>
+      </c>
+      <c r="B22" s="8">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8">
+        <v>30</v>
+      </c>
+      <c r="E22" s="8">
+        <v>300</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="8">
+        <v>3</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <f t="shared" si="4"/>
+        <v>504</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8">
+        <v>40</v>
+      </c>
+      <c r="E23" s="8">
+        <v>400</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="8">
+        <v>4</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <f>B24*100+C24</f>
+        <v>601</v>
+      </c>
+      <c r="B24" s="8">
+        <v>6</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>10</v>
+      </c>
+      <c r="E24" s="7">
+        <v>100</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <f t="shared" ref="A25:A27" si="5">B25*100+C25</f>
+        <v>602</v>
+      </c>
+      <c r="B25" s="8">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>20</v>
+      </c>
+      <c r="E25" s="7">
+        <v>200</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="7">
+        <v>2</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <f t="shared" si="5"/>
+        <v>603</v>
+      </c>
+      <c r="B26" s="8">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8">
+        <v>30</v>
+      </c>
+      <c r="E26" s="8">
+        <v>300</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="8">
+        <v>3</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <f t="shared" si="5"/>
+        <v>604</v>
+      </c>
+      <c r="B27" s="8">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8">
+        <v>40</v>
+      </c>
+      <c r="E27" s="8">
+        <v>400</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="8">
+        <v>4</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <f>B28*100+C28</f>
+        <v>701</v>
+      </c>
+      <c r="B28" s="8">
+        <v>7</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <v>10</v>
+      </c>
+      <c r="E28" s="7">
+        <v>100</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="8">
+        <f t="shared" ref="A29:A31" si="6">B29*100+C29</f>
+        <v>702</v>
+      </c>
+      <c r="B29" s="8">
+        <v>7</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>20</v>
+      </c>
+      <c r="E29" s="7">
+        <v>200</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="7">
+        <v>2</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <f t="shared" si="6"/>
+        <v>703</v>
+      </c>
+      <c r="B30" s="8">
+        <v>7</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8">
+        <v>30</v>
+      </c>
+      <c r="E30" s="8">
+        <v>300</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="8">
+        <v>3</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
+        <f t="shared" si="6"/>
+        <v>704</v>
+      </c>
+      <c r="B31" s="8">
+        <v>7</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4</v>
+      </c>
+      <c r="D31" s="8">
+        <v>40</v>
+      </c>
+      <c r="E31" s="8">
+        <v>400</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="8">
+        <v>4</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
+        <f>B32*100+C32</f>
+        <v>801</v>
+      </c>
+      <c r="B32" s="8">
+        <v>8</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>10</v>
+      </c>
+      <c r="E32" s="7">
+        <v>100</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <f t="shared" ref="A33:A35" si="7">B33*100+C33</f>
+        <v>802</v>
+      </c>
+      <c r="B33" s="8">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>20</v>
+      </c>
+      <c r="E33" s="7">
+        <v>200</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="7">
+        <v>2</v>
+      </c>
+      <c r="H33" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <f t="shared" si="7"/>
+        <v>803</v>
+      </c>
+      <c r="B34" s="8">
+        <v>8</v>
+      </c>
+      <c r="C34" s="8">
+        <v>3</v>
+      </c>
+      <c r="D34" s="8">
+        <v>30</v>
+      </c>
+      <c r="E34" s="8">
+        <v>300</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="8">
+        <v>3</v>
+      </c>
+      <c r="H34" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
+        <f t="shared" si="7"/>
+        <v>804</v>
+      </c>
+      <c r="B35" s="8">
+        <v>8</v>
+      </c>
+      <c r="C35" s="8">
+        <v>4</v>
+      </c>
+      <c r="D35" s="8">
+        <v>40</v>
+      </c>
+      <c r="E35" s="8">
+        <v>400</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="8">
+        <v>4</v>
+      </c>
+      <c r="H35" s="12">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="8">
+        <f>B36*100+C36</f>
+        <v>901</v>
+      </c>
+      <c r="B36" s="8">
+        <v>9</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <v>10</v>
+      </c>
+      <c r="E36" s="7">
+        <v>100</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
+        <f t="shared" ref="A37:A39" si="8">B37*100+C37</f>
+        <v>902</v>
+      </c>
+      <c r="B37" s="8">
+        <v>9</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>20</v>
+      </c>
+      <c r="E37" s="7">
+        <v>200</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="7">
+        <v>2</v>
+      </c>
+      <c r="H37" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="8">
+        <f t="shared" si="8"/>
+        <v>903</v>
+      </c>
+      <c r="B38" s="8">
+        <v>9</v>
+      </c>
+      <c r="C38" s="8">
+        <v>3</v>
+      </c>
+      <c r="D38" s="8">
+        <v>30</v>
+      </c>
+      <c r="E38" s="8">
+        <v>300</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="8">
+        <v>3</v>
+      </c>
+      <c r="H38" s="12">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="8">
+        <f t="shared" si="8"/>
+        <v>904</v>
+      </c>
+      <c r="B39" s="8">
+        <v>9</v>
+      </c>
+      <c r="C39" s="8">
+        <v>4</v>
+      </c>
+      <c r="D39" s="8">
+        <v>40</v>
+      </c>
+      <c r="E39" s="8">
+        <v>400</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="8">
+        <v>4</v>
+      </c>
+      <c r="H39" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
+        <f>B40*100+C40</f>
+        <v>1001</v>
+      </c>
+      <c r="B40" s="8">
+        <v>10</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8">
+        <v>10</v>
+      </c>
+      <c r="E40" s="7">
+        <v>100</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="8">
+        <f t="shared" ref="A41:A43" si="9">B41*100+C41</f>
+        <v>1002</v>
+      </c>
+      <c r="B41" s="8">
+        <v>10</v>
+      </c>
+      <c r="C41" s="8">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>20</v>
+      </c>
+      <c r="E41" s="7">
+        <v>200</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="7">
+        <v>2</v>
+      </c>
+      <c r="H41" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
+        <f t="shared" si="9"/>
+        <v>1003</v>
+      </c>
+      <c r="B42" s="8">
+        <v>10</v>
+      </c>
+      <c r="C42" s="8">
+        <v>3</v>
+      </c>
+      <c r="D42" s="8">
+        <v>30</v>
+      </c>
+      <c r="E42" s="8">
+        <v>300</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="8">
+        <v>3</v>
+      </c>
+      <c r="H42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <f t="shared" si="9"/>
+        <v>1004</v>
+      </c>
+      <c r="B43" s="8">
+        <v>10</v>
+      </c>
+      <c r="C43" s="8">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8">
+        <v>40</v>
+      </c>
+      <c r="E43" s="8">
+        <v>400</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="8">
+        <v>4</v>
+      </c>
+      <c r="H43" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
+        <f>B44*100+C44</f>
+        <v>1101</v>
+      </c>
+      <c r="B44" s="8">
+        <v>11</v>
+      </c>
+      <c r="C44" s="8">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <v>10</v>
+      </c>
+      <c r="E44" s="7">
+        <v>100</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="8">
+        <f t="shared" ref="A45:A47" si="10">B45*100+C45</f>
+        <v>1102</v>
+      </c>
+      <c r="B45" s="8">
+        <v>11</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>20</v>
+      </c>
+      <c r="E45" s="7">
+        <v>200</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="7">
+        <v>2</v>
+      </c>
+      <c r="H45" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
+        <f t="shared" si="10"/>
+        <v>1103</v>
+      </c>
+      <c r="B46" s="8">
+        <v>11</v>
+      </c>
+      <c r="C46" s="8">
+        <v>3</v>
+      </c>
+      <c r="D46" s="8">
+        <v>30</v>
+      </c>
+      <c r="E46" s="8">
+        <v>300</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="8">
+        <v>3</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="8">
+        <f t="shared" si="10"/>
+        <v>1104</v>
+      </c>
+      <c r="B47" s="8">
+        <v>11</v>
+      </c>
+      <c r="C47" s="8">
+        <v>4</v>
+      </c>
+      <c r="D47" s="8">
+        <v>40</v>
+      </c>
+      <c r="E47" s="8">
+        <v>400</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="8">
+        <v>4</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="8">
+        <f>B48*100+C48</f>
+        <v>1201</v>
+      </c>
+      <c r="B48" s="8">
+        <v>12</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8">
+        <v>10</v>
+      </c>
+      <c r="E48" s="7">
+        <v>100</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="8">
+        <f t="shared" ref="A49:A51" si="11">B49*100+C49</f>
+        <v>1202</v>
+      </c>
+      <c r="B49" s="8">
+        <v>12</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2</v>
+      </c>
+      <c r="D49" s="7">
+        <v>20</v>
+      </c>
+      <c r="E49" s="7">
+        <v>200</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="7">
+        <v>2</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="8">
+        <f t="shared" si="11"/>
+        <v>1203</v>
+      </c>
+      <c r="B50" s="8">
+        <v>12</v>
+      </c>
+      <c r="C50" s="8">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8">
+        <v>30</v>
+      </c>
+      <c r="E50" s="8">
+        <v>300</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="8">
+        <v>3</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="8">
+        <f t="shared" si="11"/>
+        <v>1204</v>
+      </c>
+      <c r="B51" s="8">
+        <v>12</v>
+      </c>
+      <c r="C51" s="8">
+        <v>4</v>
+      </c>
+      <c r="D51" s="8">
+        <v>40</v>
+      </c>
+      <c r="E51" s="8">
+        <v>400</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="8">
+        <v>4</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="8">
+        <f>B52*100+C52</f>
+        <v>1301</v>
+      </c>
+      <c r="B52" s="8">
+        <v>13</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8">
+        <v>10</v>
+      </c>
+      <c r="E52" s="7">
+        <v>100</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="8">
+        <f t="shared" ref="A53:A55" si="12">B53*100+C53</f>
+        <v>1302</v>
+      </c>
+      <c r="B53" s="8">
+        <v>13</v>
+      </c>
+      <c r="C53" s="8">
+        <v>2</v>
+      </c>
+      <c r="D53" s="7">
+        <v>20</v>
+      </c>
+      <c r="E53" s="7">
+        <v>200</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="7">
+        <v>2</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="8">
+        <f t="shared" si="12"/>
+        <v>1303</v>
+      </c>
+      <c r="B54" s="8">
+        <v>13</v>
+      </c>
+      <c r="C54" s="8">
+        <v>3</v>
+      </c>
+      <c r="D54" s="8">
+        <v>30</v>
+      </c>
+      <c r="E54" s="8">
+        <v>300</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="8">
+        <v>3</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="8">
+        <f t="shared" si="12"/>
+        <v>1304</v>
+      </c>
+      <c r="B55" s="8">
+        <v>13</v>
+      </c>
+      <c r="C55" s="8">
+        <v>4</v>
+      </c>
+      <c r="D55" s="8">
+        <v>40</v>
+      </c>
+      <c r="E55" s="8">
+        <v>400</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="8">
+        <v>4</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="8">
+        <f>B56*100+C56</f>
+        <v>1401</v>
+      </c>
+      <c r="B56" s="8">
+        <v>14</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1</v>
+      </c>
+      <c r="D56" s="8">
+        <v>10</v>
+      </c>
+      <c r="E56" s="7">
+        <v>100</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="8">
+        <f t="shared" ref="A57:A59" si="13">B57*100+C57</f>
+        <v>1402</v>
+      </c>
+      <c r="B57" s="8">
+        <v>14</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2</v>
+      </c>
+      <c r="D57" s="7">
+        <v>20</v>
+      </c>
+      <c r="E57" s="7">
+        <v>200</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="7">
+        <v>2</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="8">
+        <f t="shared" si="13"/>
+        <v>1403</v>
+      </c>
+      <c r="B58" s="8">
+        <v>14</v>
+      </c>
+      <c r="C58" s="8">
+        <v>3</v>
+      </c>
+      <c r="D58" s="8">
+        <v>30</v>
+      </c>
+      <c r="E58" s="8">
+        <v>300</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="8">
+        <v>3</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="8">
+        <f t="shared" si="13"/>
+        <v>1404</v>
+      </c>
+      <c r="B59" s="8">
+        <v>14</v>
+      </c>
+      <c r="C59" s="8">
+        <v>4</v>
+      </c>
+      <c r="D59" s="8">
+        <v>40</v>
+      </c>
+      <c r="E59" s="8">
+        <v>400</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="8">
+        <v>4</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="8">
+        <f>B60*100+C60</f>
+        <v>1501</v>
+      </c>
+      <c r="B60" s="8">
+        <v>15</v>
+      </c>
+      <c r="C60" s="8">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8">
+        <v>10</v>
+      </c>
+      <c r="E60" s="7">
+        <v>100</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="8">
+        <f t="shared" ref="A61:A63" si="14">B61*100+C61</f>
+        <v>1502</v>
+      </c>
+      <c r="B61" s="8">
+        <v>15</v>
+      </c>
+      <c r="C61" s="8">
+        <v>2</v>
+      </c>
+      <c r="D61" s="7">
+        <v>20</v>
+      </c>
+      <c r="E61" s="7">
+        <v>200</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="7">
+        <v>2</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="8">
+        <f t="shared" si="14"/>
+        <v>1503</v>
+      </c>
+      <c r="B62" s="8">
+        <v>15</v>
+      </c>
+      <c r="C62" s="8">
+        <v>3</v>
+      </c>
+      <c r="D62" s="8">
+        <v>30</v>
+      </c>
+      <c r="E62" s="8">
+        <v>300</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" s="8">
+        <v>3</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="8">
+        <f t="shared" si="14"/>
+        <v>1504</v>
+      </c>
+      <c r="B63" s="8">
+        <v>15</v>
+      </c>
+      <c r="C63" s="8">
+        <v>4</v>
+      </c>
+      <c r="D63" s="8">
+        <v>40</v>
+      </c>
+      <c r="E63" s="8">
+        <v>400</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="8">
+        <v>4</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="8">
+        <f>B64*100+C64</f>
+        <v>1601</v>
+      </c>
+      <c r="B64" s="8">
+        <v>16</v>
+      </c>
+      <c r="C64" s="8">
+        <v>1</v>
+      </c>
+      <c r="D64" s="8">
+        <v>10</v>
+      </c>
+      <c r="E64" s="7">
+        <v>100</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" s="7">
+        <v>1</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="8">
+        <f t="shared" ref="A65:A67" si="15">B65*100+C65</f>
+        <v>1602</v>
+      </c>
+      <c r="B65" s="8">
+        <v>16</v>
+      </c>
+      <c r="C65" s="8">
+        <v>2</v>
+      </c>
+      <c r="D65" s="7">
+        <v>20</v>
+      </c>
+      <c r="E65" s="7">
+        <v>200</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" s="7">
+        <v>2</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="8">
+        <f t="shared" si="15"/>
+        <v>1603</v>
+      </c>
+      <c r="B66" s="8">
+        <v>16</v>
+      </c>
+      <c r="C66" s="8">
+        <v>3</v>
+      </c>
+      <c r="D66" s="8">
+        <v>30</v>
+      </c>
+      <c r="E66" s="8">
+        <v>300</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="8">
+        <v>3</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="8">
+        <f t="shared" si="15"/>
+        <v>1604</v>
+      </c>
+      <c r="B67" s="8">
+        <v>16</v>
+      </c>
+      <c r="C67" s="8">
+        <v>4</v>
+      </c>
+      <c r="D67" s="8">
+        <v>40</v>
+      </c>
+      <c r="E67" s="8">
+        <v>400</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="8">
+        <v>4</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="8">
+        <f>B68*100+C68</f>
+        <v>1701</v>
+      </c>
+      <c r="B68" s="8">
+        <v>17</v>
+      </c>
+      <c r="C68" s="8">
+        <v>1</v>
+      </c>
+      <c r="D68" s="8">
+        <v>10</v>
+      </c>
+      <c r="E68" s="7">
+        <v>100</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="7">
+        <v>1</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="8">
+        <f t="shared" ref="A69:A71" si="16">B69*100+C69</f>
+        <v>1702</v>
+      </c>
+      <c r="B69" s="8">
+        <v>17</v>
+      </c>
+      <c r="C69" s="8">
+        <v>2</v>
+      </c>
+      <c r="D69" s="7">
+        <v>20</v>
+      </c>
+      <c r="E69" s="7">
+        <v>200</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" s="7">
+        <v>2</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="8">
+        <f t="shared" si="16"/>
+        <v>1703</v>
+      </c>
+      <c r="B70" s="8">
+        <v>17</v>
+      </c>
+      <c r="C70" s="8">
+        <v>3</v>
+      </c>
+      <c r="D70" s="8">
+        <v>30</v>
+      </c>
+      <c r="E70" s="8">
+        <v>300</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="8">
+        <v>3</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="8">
+        <f t="shared" si="16"/>
+        <v>1704</v>
+      </c>
+      <c r="B71" s="8">
+        <v>17</v>
+      </c>
+      <c r="C71" s="8">
+        <v>4</v>
+      </c>
+      <c r="D71" s="8">
+        <v>40</v>
+      </c>
+      <c r="E71" s="8">
+        <v>400</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="8">
+        <v>4</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="8">
+        <f>B72*100+C72</f>
+        <v>1801</v>
+      </c>
+      <c r="B72" s="8">
+        <v>18</v>
+      </c>
+      <c r="C72" s="8">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8">
+        <v>10</v>
+      </c>
+      <c r="E72" s="7">
+        <v>100</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G72" s="7">
+        <v>1</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="8">
+        <f t="shared" ref="A73:A75" si="17">B73*100+C73</f>
+        <v>1802</v>
+      </c>
+      <c r="B73" s="8">
+        <v>18</v>
+      </c>
+      <c r="C73" s="8">
+        <v>2</v>
+      </c>
+      <c r="D73" s="7">
+        <v>20</v>
+      </c>
+      <c r="E73" s="7">
+        <v>200</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="7">
+        <v>2</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="8">
+        <f t="shared" si="17"/>
+        <v>1803</v>
+      </c>
+      <c r="B74" s="8">
+        <v>18</v>
+      </c>
+      <c r="C74" s="8">
+        <v>3</v>
+      </c>
+      <c r="D74" s="8">
+        <v>30</v>
+      </c>
+      <c r="E74" s="8">
+        <v>300</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" s="8">
+        <v>3</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A75" s="8">
+        <f t="shared" si="17"/>
+        <v>1804</v>
+      </c>
+      <c r="B75" s="8">
+        <v>18</v>
+      </c>
+      <c r="C75" s="8">
+        <v>4</v>
+      </c>
+      <c r="D75" s="8">
+        <v>40</v>
+      </c>
+      <c r="E75" s="8">
+        <v>400</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="8">
+        <v>4</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="8">
+        <f>B76*100+C76</f>
+        <v>1901</v>
+      </c>
+      <c r="B76" s="8">
+        <v>19</v>
+      </c>
+      <c r="C76" s="8">
+        <v>1</v>
+      </c>
+      <c r="D76" s="8">
+        <v>10</v>
+      </c>
+      <c r="E76" s="7">
+        <v>100</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="7">
+        <v>1</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A77" s="8">
+        <f t="shared" ref="A77:A79" si="18">B77*100+C77</f>
+        <v>1902</v>
+      </c>
+      <c r="B77" s="8">
+        <v>19</v>
+      </c>
+      <c r="C77" s="8">
+        <v>2</v>
+      </c>
+      <c r="D77" s="7">
+        <v>20</v>
+      </c>
+      <c r="E77" s="7">
+        <v>200</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G77" s="7">
+        <v>2</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="8">
+        <f t="shared" si="18"/>
+        <v>1903</v>
+      </c>
+      <c r="B78" s="8">
+        <v>19</v>
+      </c>
+      <c r="C78" s="8">
+        <v>3</v>
+      </c>
+      <c r="D78" s="8">
+        <v>30</v>
+      </c>
+      <c r="E78" s="8">
+        <v>300</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G78" s="8">
+        <v>3</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="8">
+        <f t="shared" si="18"/>
+        <v>1904</v>
+      </c>
+      <c r="B79" s="8">
+        <v>19</v>
+      </c>
+      <c r="C79" s="8">
+        <v>4</v>
+      </c>
+      <c r="D79" s="8">
+        <v>40</v>
+      </c>
+      <c r="E79" s="8">
+        <v>400</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" s="8">
+        <v>4</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="8">
+        <f>B80*100+C80</f>
+        <v>2001</v>
+      </c>
+      <c r="B80" s="8">
+        <v>20</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1</v>
+      </c>
+      <c r="D80" s="8">
+        <v>10</v>
+      </c>
+      <c r="E80" s="7">
+        <v>100</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G80" s="7">
+        <v>1</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="8">
+        <f t="shared" ref="A81:A83" si="19">B81*100+C81</f>
+        <v>2002</v>
+      </c>
+      <c r="B81" s="8">
+        <v>20</v>
+      </c>
+      <c r="C81" s="8">
+        <v>2</v>
+      </c>
+      <c r="D81" s="7">
+        <v>20</v>
+      </c>
+      <c r="E81" s="7">
+        <v>200</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81" s="7">
+        <v>2</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="8">
+        <f t="shared" si="19"/>
+        <v>2003</v>
+      </c>
+      <c r="B82" s="8">
+        <v>20</v>
+      </c>
+      <c r="C82" s="8">
+        <v>3</v>
+      </c>
+      <c r="D82" s="8">
+        <v>30</v>
+      </c>
+      <c r="E82" s="8">
+        <v>300</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G82" s="8">
+        <v>3</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="8">
+        <f t="shared" si="19"/>
+        <v>2004</v>
+      </c>
+      <c r="B83" s="8">
+        <v>20</v>
+      </c>
+      <c r="C83" s="8">
+        <v>4</v>
+      </c>
+      <c r="D83" s="8">
+        <v>40</v>
+      </c>
+      <c r="E83" s="8">
+        <v>400</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G83" s="8">
+        <v>4</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="8">
+        <f>B84*100+C84</f>
+        <v>2101</v>
+      </c>
+      <c r="B84" s="8">
+        <v>21</v>
+      </c>
+      <c r="C84" s="8">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8">
+        <v>10</v>
+      </c>
+      <c r="E84" s="7">
+        <v>100</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G84" s="7">
+        <v>1</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="8">
+        <f t="shared" ref="A85:A87" si="20">B85*100+C85</f>
+        <v>2102</v>
+      </c>
+      <c r="B85" s="8">
+        <v>21</v>
+      </c>
+      <c r="C85" s="8">
+        <v>2</v>
+      </c>
+      <c r="D85" s="7">
+        <v>20</v>
+      </c>
+      <c r="E85" s="7">
+        <v>200</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G85" s="7">
+        <v>2</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="8">
+        <f t="shared" si="20"/>
+        <v>2103</v>
+      </c>
+      <c r="B86" s="8">
+        <v>21</v>
+      </c>
+      <c r="C86" s="8">
+        <v>3</v>
+      </c>
+      <c r="D86" s="8">
+        <v>30</v>
+      </c>
+      <c r="E86" s="8">
+        <v>300</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G86" s="8">
+        <v>3</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="8">
+        <f t="shared" si="20"/>
+        <v>2104</v>
+      </c>
+      <c r="B87" s="8">
+        <v>21</v>
+      </c>
+      <c r="C87" s="8">
+        <v>4</v>
+      </c>
+      <c r="D87" s="8">
+        <v>40</v>
+      </c>
+      <c r="E87" s="8">
+        <v>400</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G87" s="8">
+        <v>4</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B28E18-6FCE-45A9-A390-B91E3053F125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080EF393-E7FC-4E61-8D76-3352F278C2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29355" yWindow="1890" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="186">
   <si>
     <t>索引</t>
   </si>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NormalCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>House</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加每日黄金税收</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,6 +725,34 @@
   </si>
   <si>
     <t>CanBuildOutSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑内部UI显示ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1183,7 +1203,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1192,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>22</v>
@@ -1204,10 +1224,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1218,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -1227,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
@@ -1239,10 +1259,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1253,7 +1273,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
@@ -1262,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>4</v>
@@ -1285,26 +1305,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8">
         <v>10</v>
       </c>
       <c r="H4" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="8">
         <v>0</v>
@@ -1318,19 +1338,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
@@ -1353,19 +1373,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="8">
         <v>4</v>
@@ -1388,19 +1408,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
@@ -1423,19 +1443,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8" s="8">
         <v>4</v>
@@ -1458,19 +1478,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G9" s="8">
         <v>4</v>
@@ -1493,19 +1513,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" s="8">
         <v>4</v>
@@ -1528,19 +1548,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G11" s="8">
         <v>4</v>
@@ -1563,19 +1583,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
@@ -1598,19 +1618,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G13" s="8">
         <v>4</v>
@@ -1633,19 +1653,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G14" s="8">
         <v>4</v>
@@ -1668,19 +1688,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" s="8">
         <v>4</v>
@@ -1703,19 +1723,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
@@ -1738,19 +1758,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="8">
         <v>4</v>
@@ -1773,19 +1793,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G18" s="8">
         <v>4</v>
@@ -1808,19 +1828,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G19" s="8">
         <v>4</v>
@@ -1843,19 +1863,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
@@ -1878,19 +1898,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G21" s="8">
         <v>4</v>
@@ -1913,19 +1933,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G22" s="8">
         <v>4</v>
@@ -1948,19 +1968,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G23" s="8">
         <v>4</v>
@@ -1983,28 +2003,28 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="F24" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
       </c>
       <c r="H24" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24" s="8">
         <v>20</v>
@@ -2022,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2038,9 +2058,10 @@
     <col min="6" max="6" width="33" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.375" style="8" customWidth="1"/>
     <col min="8" max="8" width="59" style="8" customWidth="1"/>
+    <col min="9" max="9" width="30.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -2057,16 +2078,19 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2083,16 +2107,19 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -2109,16 +2136,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <f>B4*100+C4</f>
         <v>101</v>
@@ -2136,16 +2166,19 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <f t="shared" ref="A5:A7" si="0">B5*100+C5</f>
         <v>102</v>
@@ -2163,16 +2196,19 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -2190,16 +2226,19 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -2217,16 +2256,19 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <f>B8*100+C8</f>
         <v>201</v>
@@ -2244,16 +2286,19 @@
         <v>100</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <f t="shared" ref="A9:A11" si="1">B9*100+C9</f>
         <v>202</v>
@@ -2271,16 +2316,19 @@
         <v>200</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="7">
         <v>2</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <f t="shared" si="1"/>
         <v>203</v>
@@ -2298,16 +2346,19 @@
         <v>300</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="8">
         <v>3</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <f t="shared" si="1"/>
         <v>204</v>
@@ -2325,16 +2376,19 @@
         <v>400</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G11" s="8">
         <v>4</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <f>B12*100+C12</f>
         <v>301</v>
@@ -2352,16 +2406,19 @@
         <v>100</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <f t="shared" ref="A13:A15" si="2">B13*100+C13</f>
         <v>302</v>
@@ -2379,16 +2436,19 @@
         <v>200</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7">
         <v>2</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <f t="shared" si="2"/>
         <v>303</v>
@@ -2406,16 +2466,19 @@
         <v>300</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="8">
         <v>3</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <f t="shared" si="2"/>
         <v>304</v>
@@ -2433,16 +2496,19 @@
         <v>400</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" s="8">
         <v>4</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <f>B16*100+C16</f>
         <v>401</v>
@@ -2460,16 +2526,19 @@
         <v>100</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <f t="shared" ref="A17:A19" si="3">B17*100+C17</f>
         <v>402</v>
@@ -2487,16 +2556,19 @@
         <v>200</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7">
         <v>2</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f t="shared" si="3"/>
         <v>403</v>
@@ -2514,16 +2586,19 @@
         <v>300</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G18" s="8">
         <v>3</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <f t="shared" si="3"/>
         <v>404</v>
@@ -2541,16 +2616,19 @@
         <v>400</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G19" s="8">
         <v>4</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <f>B20*100+C20</f>
         <v>501</v>
@@ -2568,16 +2646,19 @@
         <v>100</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G20" s="7">
         <v>1</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <f t="shared" ref="A21:A23" si="4">B21*100+C21</f>
         <v>502</v>
@@ -2595,16 +2676,19 @@
         <v>200</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G21" s="7">
         <v>2</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <f t="shared" si="4"/>
         <v>503</v>
@@ -2622,16 +2706,19 @@
         <v>300</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G22" s="8">
         <v>3</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <f t="shared" si="4"/>
         <v>504</v>
@@ -2649,16 +2736,19 @@
         <v>400</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G23" s="8">
         <v>4</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <f>B24*100+C24</f>
         <v>601</v>
@@ -2676,16 +2766,19 @@
         <v>100</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7">
         <v>1</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <f t="shared" ref="A25:A27" si="5">B25*100+C25</f>
         <v>602</v>
@@ -2703,16 +2796,19 @@
         <v>200</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G25" s="7">
         <v>2</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <f t="shared" si="5"/>
         <v>603</v>
@@ -2730,16 +2826,19 @@
         <v>300</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G26" s="8">
         <v>3</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <f t="shared" si="5"/>
         <v>604</v>
@@ -2757,16 +2856,19 @@
         <v>400</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G27" s="8">
         <v>4</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <f>B28*100+C28</f>
         <v>701</v>
@@ -2784,16 +2886,19 @@
         <v>100</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G28" s="7">
         <v>1</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <f t="shared" ref="A29:A31" si="6">B29*100+C29</f>
         <v>702</v>
@@ -2811,16 +2916,19 @@
         <v>200</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G29" s="7">
         <v>2</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <f t="shared" si="6"/>
         <v>703</v>
@@ -2838,16 +2946,19 @@
         <v>300</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="8">
         <v>3</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <f t="shared" si="6"/>
         <v>704</v>
@@ -2865,16 +2976,19 @@
         <v>400</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G31" s="8">
         <v>4</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <f>B32*100+C32</f>
         <v>801</v>
@@ -2892,7 +3006,7 @@
         <v>100</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G32" s="7">
         <v>1</v>
@@ -2900,8 +3014,11 @@
       <c r="H32" s="12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <f t="shared" ref="A33:A35" si="7">B33*100+C33</f>
         <v>802</v>
@@ -2919,7 +3036,7 @@
         <v>200</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G33" s="7">
         <v>2</v>
@@ -2927,8 +3044,11 @@
       <c r="H33" s="12">
         <v>5000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I33" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <f t="shared" si="7"/>
         <v>803</v>
@@ -2946,7 +3066,7 @@
         <v>300</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G34" s="8">
         <v>3</v>
@@ -2954,8 +3074,11 @@
       <c r="H34" s="12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I34" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <f t="shared" si="7"/>
         <v>804</v>
@@ -2973,7 +3096,7 @@
         <v>400</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G35" s="8">
         <v>4</v>
@@ -2981,8 +3104,11 @@
       <c r="H35" s="12">
         <v>20000</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I35" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <f>B36*100+C36</f>
         <v>901</v>
@@ -3000,7 +3126,7 @@
         <v>100</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G36" s="7">
         <v>1</v>
@@ -3008,8 +3134,11 @@
       <c r="H36" s="12">
         <v>3000</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <f t="shared" ref="A37:A39" si="8">B37*100+C37</f>
         <v>902</v>
@@ -3027,7 +3156,7 @@
         <v>200</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G37" s="7">
         <v>2</v>
@@ -3035,8 +3164,11 @@
       <c r="H37" s="12">
         <v>5000</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I37" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <f t="shared" si="8"/>
         <v>903</v>
@@ -3054,7 +3186,7 @@
         <v>300</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G38" s="8">
         <v>3</v>
@@ -3062,8 +3194,11 @@
       <c r="H38" s="12">
         <v>8000</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I38" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <f t="shared" si="8"/>
         <v>904</v>
@@ -3081,7 +3216,7 @@
         <v>400</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G39" s="8">
         <v>4</v>
@@ -3089,8 +3224,11 @@
       <c r="H39" s="12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I39" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <f>B40*100+C40</f>
         <v>1001</v>
@@ -3108,7 +3246,7 @@
         <v>100</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G40" s="7">
         <v>1</v>
@@ -3116,8 +3254,11 @@
       <c r="H40" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <f t="shared" ref="A41:A43" si="9">B41*100+C41</f>
         <v>1002</v>
@@ -3135,7 +3276,7 @@
         <v>200</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G41" s="7">
         <v>2</v>
@@ -3143,8 +3284,11 @@
       <c r="H41" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I41" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <f t="shared" si="9"/>
         <v>1003</v>
@@ -3162,7 +3306,7 @@
         <v>300</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G42" s="8">
         <v>3</v>
@@ -3170,8 +3314,11 @@
       <c r="H42" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I42" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <f t="shared" si="9"/>
         <v>1004</v>
@@ -3189,7 +3336,7 @@
         <v>400</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G43" s="8">
         <v>4</v>
@@ -3197,8 +3344,11 @@
       <c r="H43" s="12">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I43" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <f>B44*100+C44</f>
         <v>1101</v>
@@ -3216,7 +3366,7 @@
         <v>100</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G44" s="7">
         <v>1</v>
@@ -3224,8 +3374,11 @@
       <c r="H44" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I44" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <f t="shared" ref="A45:A47" si="10">B45*100+C45</f>
         <v>1102</v>
@@ -3243,7 +3396,7 @@
         <v>200</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G45" s="7">
         <v>2</v>
@@ -3251,8 +3404,11 @@
       <c r="H45" s="12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I45" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <f t="shared" si="10"/>
         <v>1103</v>
@@ -3270,7 +3426,7 @@
         <v>300</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G46" s="8">
         <v>3</v>
@@ -3278,8 +3434,11 @@
       <c r="H46" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I46" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <f t="shared" si="10"/>
         <v>1104</v>
@@ -3297,7 +3456,7 @@
         <v>400</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G47" s="8">
         <v>4</v>
@@ -3305,8 +3464,11 @@
       <c r="H47" s="12">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I47" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <f>B48*100+C48</f>
         <v>1201</v>
@@ -3324,16 +3486,19 @@
         <v>100</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G48" s="7">
         <v>1</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <f t="shared" ref="A49:A51" si="11">B49*100+C49</f>
         <v>1202</v>
@@ -3351,16 +3516,19 @@
         <v>200</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G49" s="7">
         <v>2</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <f t="shared" si="11"/>
         <v>1203</v>
@@ -3378,16 +3546,19 @@
         <v>300</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G50" s="8">
         <v>3</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <f t="shared" si="11"/>
         <v>1204</v>
@@ -3405,16 +3576,19 @@
         <v>400</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G51" s="8">
         <v>4</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
         <f>B52*100+C52</f>
         <v>1301</v>
@@ -3432,16 +3606,19 @@
         <v>100</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G52" s="7">
         <v>1</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="I52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="8">
         <f t="shared" ref="A53:A55" si="12">B53*100+C53</f>
         <v>1302</v>
@@ -3459,16 +3636,19 @@
         <v>200</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G53" s="7">
         <v>2</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="8">
         <f t="shared" si="12"/>
         <v>1303</v>
@@ -3486,16 +3666,19 @@
         <v>300</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G54" s="8">
         <v>3</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8">
         <f t="shared" si="12"/>
         <v>1304</v>
@@ -3513,16 +3696,19 @@
         <v>400</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G55" s="8">
         <v>4</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8">
         <f>B56*100+C56</f>
         <v>1401</v>
@@ -3540,16 +3726,19 @@
         <v>100</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G56" s="7">
         <v>1</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8">
         <f t="shared" ref="A57:A59" si="13">B57*100+C57</f>
         <v>1402</v>
@@ -3567,16 +3756,19 @@
         <v>200</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G57" s="7">
         <v>2</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="8">
         <f t="shared" si="13"/>
         <v>1403</v>
@@ -3594,16 +3786,19 @@
         <v>300</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G58" s="8">
         <v>3</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8">
         <f t="shared" si="13"/>
         <v>1404</v>
@@ -3621,16 +3816,19 @@
         <v>400</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G59" s="8">
         <v>4</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="8">
         <f>B60*100+C60</f>
         <v>1501</v>
@@ -3648,16 +3846,19 @@
         <v>100</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G60" s="7">
         <v>1</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8">
         <f t="shared" ref="A61:A63" si="14">B61*100+C61</f>
         <v>1502</v>
@@ -3675,16 +3876,19 @@
         <v>200</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G61" s="7">
         <v>2</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8">
         <f t="shared" si="14"/>
         <v>1503</v>
@@ -3702,16 +3906,19 @@
         <v>300</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G62" s="8">
         <v>3</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="8">
         <f t="shared" si="14"/>
         <v>1504</v>
@@ -3729,16 +3936,19 @@
         <v>400</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G63" s="8">
         <v>4</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="8">
         <f>B64*100+C64</f>
         <v>1601</v>
@@ -3756,16 +3966,19 @@
         <v>100</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G64" s="7">
         <v>1</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+      <c r="I64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="8">
         <f t="shared" ref="A65:A67" si="15">B65*100+C65</f>
         <v>1602</v>
@@ -3783,16 +3996,19 @@
         <v>200</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G65" s="7">
         <v>2</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="8">
         <f t="shared" si="15"/>
         <v>1603</v>
@@ -3810,16 +4026,19 @@
         <v>300</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G66" s="8">
         <v>3</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8">
         <f t="shared" si="15"/>
         <v>1604</v>
@@ -3837,16 +4056,19 @@
         <v>400</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G67" s="8">
         <v>4</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="8">
         <f>B68*100+C68</f>
         <v>1701</v>
@@ -3864,16 +4086,19 @@
         <v>100</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G68" s="7">
         <v>1</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+      <c r="I68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="8">
         <f t="shared" ref="A69:A71" si="16">B69*100+C69</f>
         <v>1702</v>
@@ -3891,16 +4116,19 @@
         <v>200</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G69" s="7">
         <v>2</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="8">
         <f t="shared" si="16"/>
         <v>1703</v>
@@ -3918,16 +4146,19 @@
         <v>300</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G70" s="8">
         <v>3</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="8">
         <f t="shared" si="16"/>
         <v>1704</v>
@@ -3945,16 +4176,19 @@
         <v>400</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G71" s="8">
         <v>4</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="8">
         <f>B72*100+C72</f>
         <v>1801</v>
@@ -3972,16 +4206,19 @@
         <v>100</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G72" s="7">
         <v>1</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+      <c r="I72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="8">
         <f t="shared" ref="A73:A75" si="17">B73*100+C73</f>
         <v>1802</v>
@@ -3999,16 +4236,19 @@
         <v>200</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G73" s="7">
         <v>2</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="8">
         <f t="shared" si="17"/>
         <v>1803</v>
@@ -4026,16 +4266,19 @@
         <v>300</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G74" s="8">
         <v>3</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="8">
         <f t="shared" si="17"/>
         <v>1804</v>
@@ -4053,16 +4296,19 @@
         <v>400</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G75" s="8">
         <v>4</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="8">
         <f>B76*100+C76</f>
         <v>1901</v>
@@ -4080,16 +4326,19 @@
         <v>100</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G76" s="7">
         <v>1</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="I76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="8">
         <f t="shared" ref="A77:A79" si="18">B77*100+C77</f>
         <v>1902</v>
@@ -4107,16 +4356,19 @@
         <v>200</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G77" s="7">
         <v>2</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="8">
         <f t="shared" si="18"/>
         <v>1903</v>
@@ -4134,16 +4386,19 @@
         <v>300</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G78" s="8">
         <v>3</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8">
         <f t="shared" si="18"/>
         <v>1904</v>
@@ -4161,16 +4416,19 @@
         <v>400</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G79" s="8">
         <v>4</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="8">
         <f>B80*100+C80</f>
         <v>2001</v>
@@ -4188,16 +4446,19 @@
         <v>100</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G80" s="7">
         <v>1</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+      <c r="I80" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="8">
         <f t="shared" ref="A81:A83" si="19">B81*100+C81</f>
         <v>2002</v>
@@ -4215,16 +4476,19 @@
         <v>200</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G81" s="7">
         <v>2</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="8">
         <f t="shared" si="19"/>
         <v>2003</v>
@@ -4242,16 +4506,19 @@
         <v>300</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G82" s="8">
         <v>3</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="8">
         <f t="shared" si="19"/>
         <v>2004</v>
@@ -4269,16 +4536,19 @@
         <v>400</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G83" s="8">
         <v>4</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="8">
         <f>B84*100+C84</f>
         <v>2101</v>
@@ -4296,16 +4566,19 @@
         <v>100</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G84" s="7">
         <v>1</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+      <c r="I84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="8">
         <f t="shared" ref="A85:A87" si="20">B85*100+C85</f>
         <v>2102</v>
@@ -4323,16 +4596,19 @@
         <v>200</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G85" s="7">
         <v>2</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="8">
         <f t="shared" si="20"/>
         <v>2103</v>
@@ -4350,16 +4626,19 @@
         <v>300</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G86" s="8">
         <v>3</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="8">
         <f t="shared" si="20"/>
         <v>2104</v>
@@ -4377,13 +4656,16 @@
         <v>400</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G87" s="8">
         <v>4</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080EF393-E7FC-4E61-8D76-3352F278C2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A59B88-4215-4B48-B622-805B19B64CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="1785" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1321,10 +1321,10 @@
         <v>10</v>
       </c>
       <c r="H4" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" s="8">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>4</v>
       </c>
       <c r="H5" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="8">
         <v>5</v>
@@ -1391,10 +1391,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="8">
         <v>1</v>
@@ -1426,10 +1426,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="8">
         <v>1</v>
@@ -1461,10 +1461,10 @@
         <v>4</v>
       </c>
       <c r="H8" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8" s="8">
         <v>1</v>
@@ -1496,10 +1496,10 @@
         <v>4</v>
       </c>
       <c r="H9" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" s="8">
         <v>1</v>
@@ -1531,10 +1531,10 @@
         <v>4</v>
       </c>
       <c r="H10" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10" s="8">
         <v>1</v>
@@ -1566,10 +1566,10 @@
         <v>4</v>
       </c>
       <c r="H11" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="8">
         <v>1</v>
@@ -1601,10 +1601,10 @@
         <v>4</v>
       </c>
       <c r="H12" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="8">
         <v>1</v>
@@ -1636,10 +1636,10 @@
         <v>4</v>
       </c>
       <c r="H13" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
@@ -1671,10 +1671,10 @@
         <v>4</v>
       </c>
       <c r="H14" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="8">
         <v>1</v>
@@ -1706,10 +1706,10 @@
         <v>4</v>
       </c>
       <c r="H15" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15" s="8">
         <v>1</v>
@@ -1741,10 +1741,10 @@
         <v>4</v>
       </c>
       <c r="H16" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I16" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16" s="8">
         <v>1</v>
@@ -1776,10 +1776,10 @@
         <v>4</v>
       </c>
       <c r="H17" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I17" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17" s="8">
         <v>1</v>
@@ -1811,10 +1811,10 @@
         <v>4</v>
       </c>
       <c r="H18" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="8">
         <v>1</v>
@@ -1846,10 +1846,10 @@
         <v>4</v>
       </c>
       <c r="H19" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="8">
         <v>1</v>
@@ -1881,10 +1881,10 @@
         <v>4</v>
       </c>
       <c r="H20" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I20" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
@@ -1916,10 +1916,10 @@
         <v>4</v>
       </c>
       <c r="H21" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I21" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
@@ -1951,10 +1951,10 @@
         <v>4</v>
       </c>
       <c r="H22" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" s="8">
         <v>10</v>
@@ -1986,10 +1986,10 @@
         <v>4</v>
       </c>
       <c r="H23" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="8">
         <v>10</v>
@@ -2021,10 +2021,10 @@
         <v>4</v>
       </c>
       <c r="H24" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I24" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J24" s="8">
         <v>20</v>
@@ -2044,7 +2044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A59B88-4215-4B48-B622-805B19B64CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7A84E8-A006-4731-AD7C-B41A6D5750B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="1785" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8940" yWindow="5370" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="189">
   <si>
     <t>索引</t>
   </si>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通主城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,10 +712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以建造数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -753,6 +745,26 @@
   </si>
   <si>
     <t>Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarchSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1177,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1203,7 +1215,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1212,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>22</v>
@@ -1224,10 +1236,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1238,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -1247,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
@@ -1259,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1273,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
@@ -1282,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>4</v>
@@ -1305,26 +1317,26 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H4" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="8">
         <v>0</v>
@@ -1338,19 +1350,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
@@ -1373,19 +1385,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="8">
         <v>4</v>
@@ -1408,19 +1420,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
@@ -1443,19 +1455,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="8">
         <v>4</v>
@@ -1478,19 +1490,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="8">
         <v>4</v>
@@ -1513,19 +1525,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="8">
         <v>4</v>
@@ -1548,19 +1560,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" s="8">
         <v>4</v>
@@ -1583,19 +1595,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
@@ -1618,19 +1630,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="8">
         <v>4</v>
@@ -1653,19 +1665,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="8">
         <v>4</v>
@@ -1688,19 +1700,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="8">
         <v>4</v>
@@ -1723,19 +1735,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
@@ -1758,19 +1770,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="8">
         <v>4</v>
@@ -1793,19 +1805,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="8">
         <v>4</v>
@@ -1828,19 +1840,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="8">
         <v>4</v>
@@ -1863,19 +1875,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
@@ -1898,19 +1910,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G21" s="8">
         <v>4</v>
@@ -1933,19 +1945,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="8">
         <v>4</v>
@@ -1968,19 +1980,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="8">
         <v>4</v>
@@ -2003,19 +2015,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
@@ -2042,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2078,16 +2090,16 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2107,16 +2119,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2136,16 +2148,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2166,13 +2178,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -2196,16 +2208,16 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2226,16 +2238,16 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2256,2416 +2268,2446 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
-        <f>B8*100+C8</f>
-        <v>201</v>
+        <f t="shared" ref="A8" si="1">B8*100+C8</f>
+        <v>105</v>
       </c>
       <c r="B8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" s="8">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="8">
+        <v>500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
-        <f t="shared" ref="A9:A11" si="1">B9*100+C9</f>
-        <v>202</v>
+        <f>B9*100+C9</f>
+        <v>201</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="8">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10</v>
       </c>
       <c r="E9" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>182</v>
+        <v>88</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
-        <f t="shared" si="1"/>
-        <v>203</v>
+        <f t="shared" ref="A10:A12" si="2">B10*100+C10</f>
+        <v>202</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
       </c>
       <c r="C10" s="8">
-        <v>3</v>
-      </c>
-      <c r="D10" s="8">
-        <v>30</v>
-      </c>
-      <c r="E10" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7">
+        <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
-        <f t="shared" si="1"/>
-        <v>204</v>
+        <f t="shared" si="2"/>
+        <v>203</v>
       </c>
       <c r="B11" s="8">
         <v>2</v>
       </c>
       <c r="C11" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
-        <f>B12*100+C12</f>
-        <v>301</v>
+        <f t="shared" si="2"/>
+        <v>204</v>
       </c>
       <c r="B12" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" s="8">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E12" s="8">
+        <v>400</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
-        <f t="shared" ref="A13:A15" si="2">B13*100+C13</f>
-        <v>302</v>
+        <f>B13*100+C13</f>
+        <v>301</v>
       </c>
       <c r="B13" s="8">
         <v>3</v>
       </c>
       <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
       </c>
       <c r="E13" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>182</v>
+        <v>94</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
-        <f t="shared" si="2"/>
-        <v>303</v>
+        <f t="shared" ref="A14:A16" si="3">B14*100+C14</f>
+        <v>302</v>
       </c>
       <c r="B14" s="8">
         <v>3</v>
       </c>
       <c r="C14" s="8">
-        <v>3</v>
-      </c>
-      <c r="D14" s="8">
-        <v>30</v>
-      </c>
-      <c r="E14" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7">
+        <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
-        <f t="shared" si="2"/>
-        <v>304</v>
+        <f t="shared" si="3"/>
+        <v>303</v>
       </c>
       <c r="B15" s="8">
         <v>3</v>
       </c>
       <c r="C15" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E15" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
-        <f>B16*100+C16</f>
-        <v>401</v>
+        <f t="shared" si="3"/>
+        <v>304</v>
       </c>
       <c r="B16" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="8">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E16" s="8">
+        <v>400</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
-        <f t="shared" ref="A17:A19" si="3">B17*100+C17</f>
-        <v>402</v>
+        <f>B17*100+C17</f>
+        <v>401</v>
       </c>
       <c r="B17" s="8">
         <v>4</v>
       </c>
       <c r="C17" s="8">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>10</v>
       </c>
       <c r="E17" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>182</v>
+        <v>93</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
-        <f t="shared" si="3"/>
-        <v>403</v>
+        <f t="shared" ref="A18:A20" si="4">B18*100+C18</f>
+        <v>402</v>
       </c>
       <c r="B18" s="8">
         <v>4</v>
       </c>
       <c r="C18" s="8">
-        <v>3</v>
-      </c>
-      <c r="D18" s="8">
-        <v>30</v>
-      </c>
-      <c r="E18" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7">
+        <v>200</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
-        <f t="shared" si="3"/>
-        <v>404</v>
+        <f t="shared" si="4"/>
+        <v>403</v>
       </c>
       <c r="B19" s="8">
         <v>4</v>
       </c>
       <c r="C19" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E19" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
-        <f>B20*100+C20</f>
-        <v>501</v>
+        <f t="shared" si="4"/>
+        <v>404</v>
       </c>
       <c r="B20" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="8">
-        <v>10</v>
-      </c>
-      <c r="E20" s="7">
+        <v>40</v>
+      </c>
+      <c r="E20" s="8">
+        <v>400</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="8">
+        <v>4</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1</v>
+      <c r="I20" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
-        <f t="shared" ref="A21:A23" si="4">B21*100+C21</f>
-        <v>502</v>
+        <f>B21*100+C21</f>
+        <v>501</v>
       </c>
       <c r="B21" s="8">
         <v>5</v>
       </c>
       <c r="C21" s="8">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>10</v>
       </c>
       <c r="E21" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>182</v>
+        <v>105</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
-        <f t="shared" si="4"/>
-        <v>503</v>
+        <f t="shared" ref="A22:A24" si="5">B22*100+C22</f>
+        <v>502</v>
       </c>
       <c r="B22" s="8">
         <v>5</v>
       </c>
       <c r="C22" s="8">
-        <v>3</v>
-      </c>
-      <c r="D22" s="8">
-        <v>30</v>
-      </c>
-      <c r="E22" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>20</v>
+      </c>
+      <c r="E22" s="7">
+        <v>200</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
-        <f t="shared" si="4"/>
-        <v>504</v>
+        <f t="shared" si="5"/>
+        <v>503</v>
       </c>
       <c r="B23" s="8">
         <v>5</v>
       </c>
       <c r="C23" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E23" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
-        <f>B24*100+C24</f>
-        <v>601</v>
+        <f t="shared" si="5"/>
+        <v>504</v>
       </c>
       <c r="B24" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" s="8">
-        <v>10</v>
-      </c>
-      <c r="E24" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E24" s="8">
+        <v>400</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G24" s="8">
+        <v>4</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
-        <f t="shared" ref="A25:A27" si="5">B25*100+C25</f>
-        <v>602</v>
+        <f>B25*100+C25</f>
+        <v>601</v>
       </c>
       <c r="B25" s="8">
         <v>6</v>
       </c>
       <c r="C25" s="8">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>10</v>
       </c>
       <c r="E25" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>182</v>
+        <v>109</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
-        <f t="shared" si="5"/>
-        <v>603</v>
+        <f t="shared" ref="A26:A28" si="6">B26*100+C26</f>
+        <v>602</v>
       </c>
       <c r="B26" s="8">
         <v>6</v>
       </c>
       <c r="C26" s="8">
-        <v>3</v>
-      </c>
-      <c r="D26" s="8">
-        <v>30</v>
-      </c>
-      <c r="E26" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>20</v>
+      </c>
+      <c r="E26" s="7">
+        <v>200</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G26" s="7">
+        <v>2</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
-        <f t="shared" si="5"/>
-        <v>604</v>
+        <f t="shared" si="6"/>
+        <v>603</v>
       </c>
       <c r="B27" s="8">
         <v>6</v>
       </c>
       <c r="C27" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E27" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G27" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
-        <f>B28*100+C28</f>
-        <v>701</v>
+        <f t="shared" si="6"/>
+        <v>604</v>
       </c>
       <c r="B28" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="8">
-        <v>10</v>
-      </c>
-      <c r="E28" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E28" s="8">
+        <v>400</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G28" s="8">
+        <v>4</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
-        <f t="shared" ref="A29:A31" si="6">B29*100+C29</f>
-        <v>702</v>
+        <f>B29*100+C29</f>
+        <v>701</v>
       </c>
       <c r="B29" s="8">
         <v>7</v>
       </c>
       <c r="C29" s="8">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>10</v>
       </c>
       <c r="E29" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>182</v>
+        <v>113</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
-        <f t="shared" si="6"/>
-        <v>703</v>
+        <f t="shared" ref="A30:A32" si="7">B30*100+C30</f>
+        <v>702</v>
       </c>
       <c r="B30" s="8">
         <v>7</v>
       </c>
       <c r="C30" s="8">
-        <v>3</v>
-      </c>
-      <c r="D30" s="8">
-        <v>30</v>
-      </c>
-      <c r="E30" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>20</v>
+      </c>
+      <c r="E30" s="7">
+        <v>200</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G30" s="7">
+        <v>2</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
-        <f t="shared" si="6"/>
-        <v>704</v>
+        <f t="shared" si="7"/>
+        <v>703</v>
       </c>
       <c r="B31" s="8">
         <v>7</v>
       </c>
       <c r="C31" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E31" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
-        <f>B32*100+C32</f>
-        <v>801</v>
+        <f t="shared" si="7"/>
+        <v>704</v>
       </c>
       <c r="B32" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D32" s="8">
-        <v>10</v>
-      </c>
-      <c r="E32" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E32" s="8">
+        <v>400</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
-      <c r="H32" s="12">
-        <v>1000</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G32" s="8">
+        <v>4</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
-        <f t="shared" ref="A33:A35" si="7">B33*100+C33</f>
-        <v>802</v>
+        <f>B33*100+C33</f>
+        <v>801</v>
       </c>
       <c r="B33" s="8">
         <v>8</v>
       </c>
       <c r="C33" s="8">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <v>10</v>
       </c>
       <c r="E33" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G33" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="12">
-        <v>5000</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>182</v>
+        <v>1000</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
-        <f t="shared" si="7"/>
-        <v>803</v>
+        <f t="shared" ref="A34:A36" si="8">B34*100+C34</f>
+        <v>802</v>
       </c>
       <c r="B34" s="8">
         <v>8</v>
       </c>
       <c r="C34" s="8">
-        <v>3</v>
-      </c>
-      <c r="D34" s="8">
-        <v>30</v>
-      </c>
-      <c r="E34" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>20</v>
+      </c>
+      <c r="E34" s="7">
+        <v>200</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G34" s="7">
+        <v>2</v>
       </c>
       <c r="H34" s="12">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
-        <f t="shared" si="7"/>
-        <v>804</v>
+        <f t="shared" si="8"/>
+        <v>803</v>
       </c>
       <c r="B35" s="8">
         <v>8</v>
       </c>
       <c r="C35" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E35" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="12">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
-        <f>B36*100+C36</f>
-        <v>901</v>
+        <f t="shared" si="8"/>
+        <v>804</v>
       </c>
       <c r="B36" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" s="8">
-        <v>10</v>
-      </c>
-      <c r="E36" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E36" s="8">
+        <v>400</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G36" s="8">
+        <v>4</v>
       </c>
       <c r="H36" s="12">
-        <v>3000</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1</v>
+        <v>20000</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
-        <f t="shared" ref="A37:A39" si="8">B37*100+C37</f>
-        <v>902</v>
+        <f>B37*100+C37</f>
+        <v>901</v>
       </c>
       <c r="B37" s="8">
         <v>9</v>
       </c>
       <c r="C37" s="8">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <v>10</v>
       </c>
       <c r="E37" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="12">
-        <v>5000</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>182</v>
+        <v>3000</v>
+      </c>
+      <c r="I37" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
-        <f t="shared" si="8"/>
-        <v>903</v>
+        <f t="shared" ref="A38:A40" si="9">B38*100+C38</f>
+        <v>902</v>
       </c>
       <c r="B38" s="8">
         <v>9</v>
       </c>
       <c r="C38" s="8">
-        <v>3</v>
-      </c>
-      <c r="D38" s="8">
-        <v>30</v>
-      </c>
-      <c r="E38" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>20</v>
+      </c>
+      <c r="E38" s="7">
+        <v>200</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G38" s="7">
+        <v>2</v>
       </c>
       <c r="H38" s="12">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
-        <f t="shared" si="8"/>
-        <v>904</v>
+        <f t="shared" si="9"/>
+        <v>903</v>
       </c>
       <c r="B39" s="8">
         <v>9</v>
       </c>
       <c r="C39" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G39" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="12">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
-        <f>B40*100+C40</f>
-        <v>1001</v>
+        <f t="shared" si="9"/>
+        <v>904</v>
       </c>
       <c r="B40" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D40" s="8">
-        <v>10</v>
-      </c>
-      <c r="E40" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E40" s="8">
+        <v>400</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G40" s="8">
+        <v>4</v>
       </c>
       <c r="H40" s="12">
-        <v>4</v>
-      </c>
-      <c r="I40" s="7">
-        <v>1</v>
+        <v>10000</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
-        <f t="shared" ref="A41:A43" si="9">B41*100+C41</f>
-        <v>1002</v>
+        <f>B41*100+C41</f>
+        <v>1001</v>
       </c>
       <c r="B41" s="8">
         <v>10</v>
       </c>
       <c r="C41" s="8">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>10</v>
       </c>
       <c r="E41" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G41" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="12">
-        <v>8</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>182</v>
+        <v>4</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
-        <f t="shared" si="9"/>
-        <v>1003</v>
+        <f t="shared" ref="A42:A44" si="10">B42*100+C42</f>
+        <v>1002</v>
       </c>
       <c r="B42" s="8">
         <v>10</v>
       </c>
       <c r="C42" s="8">
-        <v>3</v>
-      </c>
-      <c r="D42" s="8">
-        <v>30</v>
-      </c>
-      <c r="E42" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>20</v>
+      </c>
+      <c r="E42" s="7">
+        <v>200</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G42" s="7">
+        <v>2</v>
       </c>
       <c r="H42" s="12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
-        <f t="shared" si="9"/>
-        <v>1004</v>
+        <f t="shared" si="10"/>
+        <v>1003</v>
       </c>
       <c r="B43" s="8">
         <v>10</v>
       </c>
       <c r="C43" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E43" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G43" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
-        <f>B44*100+C44</f>
-        <v>1101</v>
+        <f t="shared" si="10"/>
+        <v>1004</v>
       </c>
       <c r="B44" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44" s="8">
-        <v>10</v>
-      </c>
-      <c r="E44" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E44" s="8">
+        <v>400</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G44" s="8">
+        <v>4</v>
       </c>
       <c r="H44" s="12">
-        <v>1</v>
-      </c>
-      <c r="I44" s="7">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
-        <f t="shared" ref="A45:A47" si="10">B45*100+C45</f>
-        <v>1102</v>
+        <f>B45*100+C45</f>
+        <v>1101</v>
       </c>
       <c r="B45" s="8">
         <v>11</v>
       </c>
       <c r="C45" s="8">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D45" s="8">
+        <v>10</v>
       </c>
       <c r="E45" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G45" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>182</v>
+        <v>1</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
-        <f t="shared" si="10"/>
-        <v>1103</v>
+        <f t="shared" ref="A46:A48" si="11">B46*100+C46</f>
+        <v>1102</v>
       </c>
       <c r="B46" s="8">
         <v>11</v>
       </c>
       <c r="C46" s="8">
-        <v>3</v>
-      </c>
-      <c r="D46" s="8">
-        <v>30</v>
-      </c>
-      <c r="E46" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>20</v>
+      </c>
+      <c r="E46" s="7">
+        <v>200</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G46" s="7">
+        <v>2</v>
       </c>
       <c r="H46" s="12">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
-        <f t="shared" si="10"/>
-        <v>1104</v>
+        <f t="shared" si="11"/>
+        <v>1103</v>
       </c>
       <c r="B47" s="8">
         <v>11</v>
       </c>
       <c r="C47" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E47" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G47" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H47" s="12">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
-        <f>B48*100+C48</f>
-        <v>1201</v>
+        <f t="shared" si="11"/>
+        <v>1104</v>
       </c>
       <c r="B48" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D48" s="8">
-        <v>10</v>
-      </c>
-      <c r="E48" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E48" s="8">
+        <v>400</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G48" s="7">
-        <v>1</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="I48" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G48" s="8">
+        <v>4</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
-        <f t="shared" ref="A49:A51" si="11">B49*100+C49</f>
-        <v>1202</v>
+        <f>B49*100+C49</f>
+        <v>1201</v>
       </c>
       <c r="B49" s="8">
         <v>12</v>
       </c>
       <c r="C49" s="8">
-        <v>2</v>
-      </c>
-      <c r="D49" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D49" s="8">
+        <v>10</v>
       </c>
       <c r="E49" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G49" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>182</v>
+        <v>135</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
-        <f t="shared" si="11"/>
-        <v>1203</v>
+        <f t="shared" ref="A50:A52" si="12">B50*100+C50</f>
+        <v>1202</v>
       </c>
       <c r="B50" s="8">
         <v>12</v>
       </c>
       <c r="C50" s="8">
-        <v>3</v>
-      </c>
-      <c r="D50" s="8">
-        <v>30</v>
-      </c>
-      <c r="E50" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D50" s="7">
+        <v>20</v>
+      </c>
+      <c r="E50" s="7">
+        <v>200</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G50" s="7">
+        <v>2</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
-        <f t="shared" si="11"/>
-        <v>1204</v>
+        <f t="shared" si="12"/>
+        <v>1203</v>
       </c>
       <c r="B51" s="8">
         <v>12</v>
       </c>
       <c r="C51" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E51" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G51" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
-        <f>B52*100+C52</f>
-        <v>1301</v>
+        <f t="shared" si="12"/>
+        <v>1204</v>
       </c>
       <c r="B52" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D52" s="8">
-        <v>10</v>
-      </c>
-      <c r="E52" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E52" s="8">
+        <v>400</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G52" s="8">
+        <v>4</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="I52" s="7">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="8">
-        <f t="shared" ref="A53:A55" si="12">B53*100+C53</f>
-        <v>1302</v>
+        <f>B53*100+C53</f>
+        <v>1301</v>
       </c>
       <c r="B53" s="8">
         <v>13</v>
       </c>
       <c r="C53" s="8">
-        <v>2</v>
-      </c>
-      <c r="D53" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D53" s="8">
+        <v>10</v>
       </c>
       <c r="E53" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G53" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>182</v>
+        <v>137</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="8">
-        <f t="shared" si="12"/>
-        <v>1303</v>
+        <f t="shared" ref="A54:A56" si="13">B54*100+C54</f>
+        <v>1302</v>
       </c>
       <c r="B54" s="8">
         <v>13</v>
       </c>
       <c r="C54" s="8">
-        <v>3</v>
-      </c>
-      <c r="D54" s="8">
-        <v>30</v>
-      </c>
-      <c r="E54" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D54" s="7">
+        <v>20</v>
+      </c>
+      <c r="E54" s="7">
+        <v>200</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G54" s="7">
+        <v>2</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8">
-        <f t="shared" si="12"/>
-        <v>1304</v>
+        <f t="shared" si="13"/>
+        <v>1303</v>
       </c>
       <c r="B55" s="8">
         <v>13</v>
       </c>
       <c r="C55" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E55" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G55" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8">
-        <f>B56*100+C56</f>
-        <v>1401</v>
+        <f t="shared" si="13"/>
+        <v>1304</v>
       </c>
       <c r="B56" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" s="8">
-        <v>10</v>
-      </c>
-      <c r="E56" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E56" s="8">
+        <v>400</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G56" s="8">
+        <v>4</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I56" s="7">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8">
-        <f t="shared" ref="A57:A59" si="13">B57*100+C57</f>
-        <v>1402</v>
+        <f>B57*100+C57</f>
+        <v>1401</v>
       </c>
       <c r="B57" s="8">
         <v>14</v>
       </c>
       <c r="C57" s="8">
-        <v>2</v>
-      </c>
-      <c r="D57" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D57" s="8">
+        <v>10</v>
       </c>
       <c r="E57" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G57" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>182</v>
+        <v>139</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="8">
-        <f t="shared" si="13"/>
-        <v>1403</v>
+        <f t="shared" ref="A58:A60" si="14">B58*100+C58</f>
+        <v>1402</v>
       </c>
       <c r="B58" s="8">
         <v>14</v>
       </c>
       <c r="C58" s="8">
-        <v>3</v>
-      </c>
-      <c r="D58" s="8">
-        <v>30</v>
-      </c>
-      <c r="E58" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D58" s="7">
+        <v>20</v>
+      </c>
+      <c r="E58" s="7">
+        <v>200</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G58" s="7">
+        <v>2</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8">
-        <f t="shared" si="13"/>
-        <v>1404</v>
+        <f t="shared" si="14"/>
+        <v>1403</v>
       </c>
       <c r="B59" s="8">
         <v>14</v>
       </c>
       <c r="C59" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E59" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G59" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="8">
-        <f>B60*100+C60</f>
-        <v>1501</v>
+        <f t="shared" si="14"/>
+        <v>1404</v>
       </c>
       <c r="B60" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D60" s="8">
-        <v>10</v>
-      </c>
-      <c r="E60" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E60" s="8">
+        <v>400</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G60" s="8">
+        <v>4</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I60" s="7">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8">
-        <f t="shared" ref="A61:A63" si="14">B61*100+C61</f>
-        <v>1502</v>
+        <f>B61*100+C61</f>
+        <v>1501</v>
       </c>
       <c r="B61" s="8">
         <v>15</v>
       </c>
       <c r="C61" s="8">
-        <v>2</v>
-      </c>
-      <c r="D61" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D61" s="8">
+        <v>10</v>
       </c>
       <c r="E61" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G61" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>182</v>
+        <v>143</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8">
-        <f t="shared" si="14"/>
-        <v>1503</v>
+        <f t="shared" ref="A62:A64" si="15">B62*100+C62</f>
+        <v>1502</v>
       </c>
       <c r="B62" s="8">
         <v>15</v>
       </c>
       <c r="C62" s="8">
-        <v>3</v>
-      </c>
-      <c r="D62" s="8">
-        <v>30</v>
-      </c>
-      <c r="E62" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D62" s="7">
+        <v>20</v>
+      </c>
+      <c r="E62" s="7">
+        <v>200</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G62" s="7">
+        <v>2</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="8">
-        <f t="shared" si="14"/>
-        <v>1504</v>
+        <f t="shared" si="15"/>
+        <v>1503</v>
       </c>
       <c r="B63" s="8">
         <v>15</v>
       </c>
       <c r="C63" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E63" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G63" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="8">
-        <f>B64*100+C64</f>
-        <v>1601</v>
+        <f t="shared" si="15"/>
+        <v>1504</v>
       </c>
       <c r="B64" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D64" s="8">
-        <v>10</v>
-      </c>
-      <c r="E64" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E64" s="8">
+        <v>400</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G64" s="8">
+        <v>4</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I64" s="7">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="8">
-        <f t="shared" ref="A65:A67" si="15">B65*100+C65</f>
-        <v>1602</v>
+        <f>B65*100+C65</f>
+        <v>1601</v>
       </c>
       <c r="B65" s="8">
         <v>16</v>
       </c>
       <c r="C65" s="8">
-        <v>2</v>
-      </c>
-      <c r="D65" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D65" s="8">
+        <v>10</v>
       </c>
       <c r="E65" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G65" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>182</v>
+        <v>143</v>
+      </c>
+      <c r="I65" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="8">
-        <f t="shared" si="15"/>
-        <v>1603</v>
+        <f t="shared" ref="A66:A68" si="16">B66*100+C66</f>
+        <v>1602</v>
       </c>
       <c r="B66" s="8">
         <v>16</v>
       </c>
       <c r="C66" s="8">
-        <v>3</v>
-      </c>
-      <c r="D66" s="8">
-        <v>30</v>
-      </c>
-      <c r="E66" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D66" s="7">
+        <v>20</v>
+      </c>
+      <c r="E66" s="7">
+        <v>200</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G66" s="7">
+        <v>2</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8">
-        <f t="shared" si="15"/>
-        <v>1604</v>
+        <f t="shared" si="16"/>
+        <v>1603</v>
       </c>
       <c r="B67" s="8">
         <v>16</v>
       </c>
       <c r="C67" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E67" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G67" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="8">
-        <f>B68*100+C68</f>
-        <v>1701</v>
+        <f t="shared" si="16"/>
+        <v>1604</v>
       </c>
       <c r="B68" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C68" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" s="8">
-        <v>10</v>
-      </c>
-      <c r="E68" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E68" s="8">
+        <v>400</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G68" s="8">
+        <v>4</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I68" s="7">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="8">
-        <f t="shared" ref="A69:A71" si="16">B69*100+C69</f>
-        <v>1702</v>
+        <f>B69*100+C69</f>
+        <v>1701</v>
       </c>
       <c r="B69" s="8">
         <v>17</v>
       </c>
       <c r="C69" s="8">
-        <v>2</v>
-      </c>
-      <c r="D69" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D69" s="8">
+        <v>10</v>
       </c>
       <c r="E69" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G69" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>182</v>
+        <v>143</v>
+      </c>
+      <c r="I69" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="8">
-        <f t="shared" si="16"/>
-        <v>1703</v>
+        <f t="shared" ref="A70:A72" si="17">B70*100+C70</f>
+        <v>1702</v>
       </c>
       <c r="B70" s="8">
         <v>17</v>
       </c>
       <c r="C70" s="8">
-        <v>3</v>
-      </c>
-      <c r="D70" s="8">
-        <v>30</v>
-      </c>
-      <c r="E70" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D70" s="7">
+        <v>20</v>
+      </c>
+      <c r="E70" s="7">
+        <v>200</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G70" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G70" s="7">
+        <v>2</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="8">
-        <f t="shared" si="16"/>
-        <v>1704</v>
+        <f t="shared" si="17"/>
+        <v>1703</v>
       </c>
       <c r="B71" s="8">
         <v>17</v>
       </c>
       <c r="C71" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E71" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G71" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="8">
-        <f>B72*100+C72</f>
-        <v>1801</v>
+        <f t="shared" si="17"/>
+        <v>1704</v>
       </c>
       <c r="B72" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C72" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D72" s="8">
-        <v>10</v>
-      </c>
-      <c r="E72" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E72" s="8">
+        <v>400</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G72" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G72" s="8">
+        <v>4</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I72" s="7">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="8">
-        <f t="shared" ref="A73:A75" si="17">B73*100+C73</f>
-        <v>1802</v>
+        <f>B73*100+C73</f>
+        <v>1801</v>
       </c>
       <c r="B73" s="8">
         <v>18</v>
       </c>
       <c r="C73" s="8">
-        <v>2</v>
-      </c>
-      <c r="D73" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D73" s="8">
+        <v>10</v>
       </c>
       <c r="E73" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G73" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>182</v>
+        <v>147</v>
+      </c>
+      <c r="I73" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="8">
-        <f t="shared" si="17"/>
-        <v>1803</v>
+        <f t="shared" ref="A74:A76" si="18">B74*100+C74</f>
+        <v>1802</v>
       </c>
       <c r="B74" s="8">
         <v>18</v>
       </c>
       <c r="C74" s="8">
-        <v>3</v>
-      </c>
-      <c r="D74" s="8">
-        <v>30</v>
-      </c>
-      <c r="E74" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D74" s="7">
+        <v>20</v>
+      </c>
+      <c r="E74" s="7">
+        <v>200</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G74" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G74" s="7">
+        <v>2</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="8">
-        <f t="shared" si="17"/>
-        <v>1804</v>
+        <f t="shared" si="18"/>
+        <v>1803</v>
       </c>
       <c r="B75" s="8">
         <v>18</v>
       </c>
       <c r="C75" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E75" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G75" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="8">
-        <f>B76*100+C76</f>
-        <v>1901</v>
+        <f t="shared" si="18"/>
+        <v>1804</v>
       </c>
       <c r="B76" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" s="8">
-        <v>10</v>
-      </c>
-      <c r="E76" s="7">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="E76" s="8">
+        <v>400</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G76" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G76" s="8">
+        <v>4</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I76" s="7">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="8">
-        <f t="shared" ref="A77:A79" si="18">B77*100+C77</f>
-        <v>1902</v>
+        <f>B77*100+C77</f>
+        <v>1901</v>
       </c>
       <c r="B77" s="8">
         <v>19</v>
       </c>
       <c r="C77" s="8">
-        <v>2</v>
-      </c>
-      <c r="D77" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D77" s="8">
+        <v>10</v>
       </c>
       <c r="E77" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G77" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
+      </c>
+      <c r="I77" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="8">
-        <f t="shared" si="18"/>
-        <v>1903</v>
+        <f t="shared" ref="A78:A80" si="19">B78*100+C78</f>
+        <v>1902</v>
       </c>
       <c r="B78" s="8">
         <v>19</v>
       </c>
       <c r="C78" s="8">
-        <v>3</v>
-      </c>
-      <c r="D78" s="8">
-        <v>30</v>
-      </c>
-      <c r="E78" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D78" s="7">
+        <v>20</v>
+      </c>
+      <c r="E78" s="7">
+        <v>200</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G78" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G78" s="7">
+        <v>2</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="8">
-        <f t="shared" si="18"/>
-        <v>1904</v>
+        <f t="shared" si="19"/>
+        <v>1903</v>
       </c>
       <c r="B79" s="8">
         <v>19</v>
       </c>
       <c r="C79" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" s="8">
+        <v>30</v>
+      </c>
+      <c r="E79" s="8">
+        <v>300</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G79" s="8">
+        <v>3</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="8">
+        <f t="shared" si="19"/>
+        <v>1904</v>
+      </c>
+      <c r="B80" s="8">
+        <v>19</v>
+      </c>
+      <c r="C80" s="8">
+        <v>4</v>
+      </c>
+      <c r="D80" s="8">
         <v>40</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E80" s="8">
         <v>400</v>
       </c>
-      <c r="F79" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G79" s="8">
-        <v>4</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="8">
-        <f>B80*100+C80</f>
-        <v>2001</v>
-      </c>
-      <c r="B80" s="8">
-        <v>20</v>
-      </c>
-      <c r="C80" s="8">
-        <v>1</v>
-      </c>
-      <c r="D80" s="8">
-        <v>10</v>
-      </c>
-      <c r="E80" s="7">
-        <v>100</v>
-      </c>
       <c r="F80" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G80" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G80" s="8">
+        <v>4</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I80" s="7">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="8">
-        <f t="shared" ref="A81:A83" si="19">B81*100+C81</f>
-        <v>2002</v>
+        <f>B81*100+C81</f>
+        <v>2001</v>
       </c>
       <c r="B81" s="8">
         <v>20</v>
       </c>
       <c r="C81" s="8">
-        <v>2</v>
-      </c>
-      <c r="D81" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D81" s="8">
+        <v>10</v>
       </c>
       <c r="E81" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G81" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>182</v>
+        <v>156</v>
+      </c>
+      <c r="I81" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="8">
-        <f t="shared" si="19"/>
-        <v>2003</v>
+        <f t="shared" ref="A82:A84" si="20">B82*100+C82</f>
+        <v>2002</v>
       </c>
       <c r="B82" s="8">
         <v>20</v>
       </c>
       <c r="C82" s="8">
-        <v>3</v>
-      </c>
-      <c r="D82" s="8">
-        <v>30</v>
-      </c>
-      <c r="E82" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D82" s="7">
+        <v>20</v>
+      </c>
+      <c r="E82" s="7">
+        <v>200</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G82" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G82" s="7">
+        <v>2</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="8">
-        <f t="shared" si="19"/>
-        <v>2004</v>
+        <f t="shared" si="20"/>
+        <v>2003</v>
       </c>
       <c r="B83" s="8">
         <v>20</v>
       </c>
       <c r="C83" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" s="8">
+        <v>30</v>
+      </c>
+      <c r="E83" s="8">
+        <v>300</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G83" s="8">
+        <v>3</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="8">
+        <f t="shared" si="20"/>
+        <v>2004</v>
+      </c>
+      <c r="B84" s="8">
+        <v>20</v>
+      </c>
+      <c r="C84" s="8">
+        <v>4</v>
+      </c>
+      <c r="D84" s="8">
         <v>40</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E84" s="8">
         <v>400</v>
       </c>
-      <c r="F83" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G83" s="8">
-        <v>4</v>
-      </c>
-      <c r="H83" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="8">
-        <f>B84*100+C84</f>
-        <v>2101</v>
-      </c>
-      <c r="B84" s="8">
-        <v>21</v>
-      </c>
-      <c r="C84" s="8">
-        <v>1</v>
-      </c>
-      <c r="D84" s="8">
-        <v>10</v>
-      </c>
-      <c r="E84" s="7">
-        <v>100</v>
-      </c>
       <c r="F84" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G84" s="7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="G84" s="8">
+        <v>4</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="I84" s="7">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="8">
-        <f t="shared" ref="A85:A87" si="20">B85*100+C85</f>
-        <v>2102</v>
+        <f>B85*100+C85</f>
+        <v>2101</v>
       </c>
       <c r="B85" s="8">
         <v>21</v>
       </c>
       <c r="C85" s="8">
-        <v>2</v>
-      </c>
-      <c r="D85" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D85" s="8">
+        <v>10</v>
       </c>
       <c r="E85" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G85" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
+      </c>
+      <c r="I85" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="8">
-        <f t="shared" si="20"/>
-        <v>2103</v>
+        <f t="shared" ref="A86:A88" si="21">B86*100+C86</f>
+        <v>2102</v>
       </c>
       <c r="B86" s="8">
         <v>21</v>
       </c>
       <c r="C86" s="8">
-        <v>3</v>
-      </c>
-      <c r="D86" s="8">
-        <v>30</v>
-      </c>
-      <c r="E86" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D86" s="7">
+        <v>20</v>
+      </c>
+      <c r="E86" s="7">
+        <v>200</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G86" s="8">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="G86" s="7">
+        <v>2</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="8">
-        <f t="shared" si="20"/>
-        <v>2104</v>
+        <f t="shared" si="21"/>
+        <v>2103</v>
       </c>
       <c r="B87" s="8">
         <v>21</v>
       </c>
       <c r="C87" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" s="8">
+        <v>30</v>
+      </c>
+      <c r="E87" s="8">
+        <v>300</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="8">
+        <v>3</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="8">
+        <f t="shared" si="21"/>
+        <v>2104</v>
+      </c>
+      <c r="B88" s="8">
+        <v>21</v>
+      </c>
+      <c r="C88" s="8">
+        <v>4</v>
+      </c>
+      <c r="D88" s="8">
         <v>40</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E88" s="8">
         <v>400</v>
       </c>
-      <c r="F87" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G87" s="8">
-        <v>4</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>184</v>
+      <c r="F88" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G88" s="8">
+        <v>4</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7A84E8-A006-4731-AD7C-B41A6D5750B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2648CF-B9E1-43A7-B366-A36679B5AA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="5370" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43920" yWindow="5220" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -289,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stone:2000,wood:1000,metal:1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>繁荣度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,46 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone:2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone:3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone:4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Metal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,50 +392,14 @@
     <t>metal:1000</t>
   </si>
   <si>
-    <t>metal:2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>metal:3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>metal:4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wood:1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wood:2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood:3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood:4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>food:1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>food:2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food:3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food:4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TroopCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -760,11 +680,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold:20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:200:stone:100,wood:100,metal:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal:20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood:20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:20000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1215,7 +1215,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1224,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>22</v>
@@ -1236,10 +1236,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1250,7 +1250,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -1259,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
@@ -1271,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>4</v>
@@ -1317,13 +1317,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>51</v>
@@ -1353,7 +1353,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>25</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
@@ -1385,19 +1385,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="8">
         <v>4</v>
@@ -1423,7 +1423,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>27</v>
@@ -1432,7 +1432,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
@@ -1455,10 +1455,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>28</v>
@@ -1467,7 +1467,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="8">
         <v>4</v>
@@ -1493,7 +1493,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>29</v>
@@ -1502,7 +1502,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="8">
         <v>4</v>
@@ -1528,7 +1528,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>30</v>
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="8">
         <v>4</v>
@@ -1563,7 +1563,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>40</v>
@@ -1572,7 +1572,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="8">
         <v>4</v>
@@ -1598,16 +1598,16 @@
         <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
@@ -1633,7 +1633,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>45</v>
@@ -1642,7 +1642,7 @@
         <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="8">
         <v>4</v>
@@ -1668,7 +1668,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>49</v>
@@ -1677,7 +1677,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="8">
         <v>4</v>
@@ -1703,16 +1703,16 @@
         <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="8">
         <v>4</v>
@@ -1735,19 +1735,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
@@ -1773,16 +1773,16 @@
         <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="8">
         <v>4</v>
@@ -1808,7 +1808,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>55</v>
@@ -1817,7 +1817,7 @@
         <v>61</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18" s="8">
         <v>4</v>
@@ -1843,7 +1843,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>56</v>
@@ -1852,7 +1852,7 @@
         <v>62</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="8">
         <v>4</v>
@@ -1878,7 +1878,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>57</v>
@@ -1887,7 +1887,7 @@
         <v>63</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
@@ -1913,7 +1913,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>64</v>
@@ -1922,7 +1922,7 @@
         <v>66</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" s="8">
         <v>4</v>
@@ -1945,19 +1945,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="8">
         <v>4</v>
@@ -1980,19 +1980,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" s="8">
         <v>4</v>
@@ -2015,19 +2015,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
@@ -2056,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I8:I9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2067,7 +2067,7 @@
     <col min="3" max="3" width="21.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="24" style="8" customWidth="1"/>
     <col min="5" max="5" width="30.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="33" style="8" customWidth="1"/>
+    <col min="6" max="6" width="42.625" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.375" style="8" customWidth="1"/>
     <col min="8" max="8" width="59" style="8" customWidth="1"/>
     <col min="9" max="9" width="30.375" style="8" customWidth="1"/>
@@ -2090,16 +2090,16 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2122,13 +2122,13 @@
         <v>44</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2157,7 +2157,7 @@
         <v>67</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2178,13 +2178,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -2208,16 +2208,16 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2238,16 +2238,16 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2268,16 +2268,16 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2298,16 +2298,16 @@
         <v>500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2328,13 +2328,13 @@
         <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -2358,16 +2358,16 @@
         <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2388,16 +2388,16 @@
         <v>300</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G11" s="8">
         <v>3</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2418,16 +2418,16 @@
         <v>400</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2448,13 +2448,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -2478,16 +2478,16 @@
         <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2508,16 +2508,16 @@
         <v>300</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G15" s="8">
         <v>3</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2538,16 +2538,16 @@
         <v>400</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2568,13 +2568,13 @@
         <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -2598,16 +2598,16 @@
         <v>200</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>98</v>
+        <v>177</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2628,16 +2628,16 @@
         <v>300</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2658,16 +2658,16 @@
         <v>400</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2688,13 +2688,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -2718,16 +2718,16 @@
         <v>200</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G22" s="7">
         <v>2</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2748,16 +2748,16 @@
         <v>300</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G23" s="8">
         <v>3</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2778,16 +2778,16 @@
         <v>400</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2808,13 +2808,13 @@
         <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -2838,16 +2838,16 @@
         <v>200</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7">
         <v>2</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2868,16 +2868,16 @@
         <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G27" s="8">
         <v>3</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2898,16 +2898,16 @@
         <v>400</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2928,13 +2928,13 @@
         <v>100</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -2958,16 +2958,16 @@
         <v>200</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7">
         <v>2</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2988,16 +2988,16 @@
         <v>300</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3018,16 +3018,16 @@
         <v>400</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G32" s="8">
         <v>4</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3048,7 +3048,7 @@
         <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -3078,7 +3078,7 @@
         <v>200</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G34" s="7">
         <v>2</v>
@@ -3087,7 +3087,7 @@
         <v>5000</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3108,7 +3108,7 @@
         <v>300</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
@@ -3117,7 +3117,7 @@
         <v>10000</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3138,7 +3138,7 @@
         <v>400</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
@@ -3147,7 +3147,7 @@
         <v>20000</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3168,7 +3168,7 @@
         <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -3198,7 +3198,7 @@
         <v>200</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
@@ -3207,7 +3207,7 @@
         <v>5000</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3228,7 +3228,7 @@
         <v>300</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -3237,7 +3237,7 @@
         <v>8000</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3258,7 +3258,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -3267,7 +3267,7 @@
         <v>10000</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3288,7 +3288,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
@@ -3318,7 +3318,7 @@
         <v>200</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
@@ -3327,7 +3327,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3348,7 +3348,7 @@
         <v>300</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G43" s="8">
         <v>3</v>
@@ -3357,7 +3357,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3378,7 +3378,7 @@
         <v>400</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G44" s="8">
         <v>4</v>
@@ -3387,7 +3387,7 @@
         <v>32</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3408,7 +3408,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
@@ -3438,7 +3438,7 @@
         <v>200</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
@@ -3447,7 +3447,7 @@
         <v>0.5</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3468,7 +3468,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G47" s="8">
         <v>3</v>
@@ -3477,7 +3477,7 @@
         <v>0.2</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3498,7 +3498,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G48" s="8">
         <v>4</v>
@@ -3507,7 +3507,7 @@
         <v>0.1</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3528,13 +3528,13 @@
         <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -3558,16 +3558,16 @@
         <v>200</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3588,16 +3588,16 @@
         <v>300</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G51" s="8">
         <v>3</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3618,16 +3618,16 @@
         <v>400</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3648,13 +3648,13 @@
         <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -3678,16 +3678,16 @@
         <v>200</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G54" s="7">
         <v>2</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3708,16 +3708,16 @@
         <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G55" s="8">
         <v>3</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3738,16 +3738,16 @@
         <v>400</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G56" s="8">
         <v>4</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3768,13 +3768,13 @@
         <v>100</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -3798,16 +3798,16 @@
         <v>200</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G58" s="7">
         <v>2</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3828,16 +3828,16 @@
         <v>300</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G59" s="8">
         <v>3</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3858,16 +3858,16 @@
         <v>400</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G60" s="8">
         <v>4</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3888,13 +3888,13 @@
         <v>100</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -3918,16 +3918,16 @@
         <v>200</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3948,16 +3948,16 @@
         <v>300</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3978,16 +3978,16 @@
         <v>400</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G64" s="8">
         <v>4</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4008,13 +4008,13 @@
         <v>100</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -4038,16 +4038,16 @@
         <v>200</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G66" s="7">
         <v>2</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4068,16 +4068,16 @@
         <v>300</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G67" s="8">
         <v>3</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4098,16 +4098,16 @@
         <v>400</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G68" s="8">
         <v>4</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4128,13 +4128,13 @@
         <v>100</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -4158,16 +4158,16 @@
         <v>200</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G70" s="7">
         <v>2</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4188,16 +4188,16 @@
         <v>300</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G71" s="8">
         <v>3</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4218,16 +4218,16 @@
         <v>400</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G72" s="8">
         <v>4</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4248,13 +4248,13 @@
         <v>100</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="I73" s="7">
         <v>1</v>
@@ -4278,16 +4278,16 @@
         <v>200</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4308,16 +4308,16 @@
         <v>300</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G75" s="8">
         <v>3</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4338,16 +4338,16 @@
         <v>400</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G76" s="8">
         <v>4</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4368,13 +4368,13 @@
         <v>100</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -4398,16 +4398,16 @@
         <v>200</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G78" s="7">
         <v>2</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4428,16 +4428,16 @@
         <v>300</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G79" s="8">
         <v>3</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4458,16 +4458,16 @@
         <v>400</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G80" s="8">
         <v>4</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4488,13 +4488,13 @@
         <v>100</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -4518,16 +4518,16 @@
         <v>200</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G82" s="7">
         <v>2</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4548,16 +4548,16 @@
         <v>300</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G83" s="8">
         <v>3</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4578,16 +4578,16 @@
         <v>400</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G84" s="8">
         <v>4</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4608,13 +4608,13 @@
         <v>100</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="I85" s="7">
         <v>1</v>
@@ -4638,16 +4638,16 @@
         <v>200</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G86" s="7">
         <v>2</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4668,16 +4668,16 @@
         <v>300</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G87" s="8">
         <v>3</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4698,16 +4698,16 @@
         <v>400</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G88" s="8">
         <v>4</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2648CF-B9E1-43A7-B366-A36679B5AA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1471286-18C8-4F54-94E7-BBCBF064EBE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43920" yWindow="5220" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="4965" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="185">
   <si>
     <t>索引</t>
   </si>
@@ -358,22 +358,6 @@
   </si>
   <si>
     <t>StoreLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food:1000,stone:1000,wood:1000,metal:1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food:5000,stone:5000,wood:5000,metal:5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food:20000,stone:20000,wood:20000,metal:20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food:50000,stone:50000,wood:50000,metal:50000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1190,7 +1174,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1236,10 +1220,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1271,10 +1255,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1317,13 +1301,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>51</v>
@@ -1385,10 +1369,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>52</v>
@@ -1423,7 +1407,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>27</v>
@@ -1455,10 +1439,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>28</v>
@@ -1493,7 +1477,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>29</v>
@@ -1528,7 +1512,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>30</v>
@@ -1563,7 +1547,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>40</v>
@@ -1598,13 +1582,13 @@
         <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>76</v>
@@ -1633,7 +1617,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>45</v>
@@ -1668,7 +1652,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>49</v>
@@ -1703,13 +1687,13 @@
         <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>73</v>
@@ -1735,16 +1719,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>76</v>
@@ -1773,13 +1757,13 @@
         <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>77</v>
@@ -1808,7 +1792,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>55</v>
@@ -1843,7 +1827,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>56</v>
@@ -1878,7 +1862,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>57</v>
@@ -1913,7 +1897,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>64</v>
@@ -1945,16 +1929,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>77</v>
@@ -1980,16 +1964,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>77</v>
@@ -2015,16 +1999,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>77</v>
@@ -2056,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2099,7 +2083,7 @@
         <v>82</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2128,7 +2112,7 @@
         <v>83</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2178,13 +2162,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -2208,16 +2192,16 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2238,16 +2222,16 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="I6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2268,16 +2252,16 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2298,16 +2282,16 @@
         <v>500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2328,13 +2312,13 @@
         <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>87</v>
+      <c r="H9" s="12">
+        <v>10000</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -2358,16 +2342,16 @@
         <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>88</v>
+      <c r="H10" s="12">
+        <v>50000</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2388,16 +2372,16 @@
         <v>300</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G11" s="8">
         <v>3</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>89</v>
+      <c r="H11" s="12">
+        <v>100000</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2418,16 +2402,16 @@
         <v>400</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>90</v>
+      <c r="H12" s="12">
+        <v>200000</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2448,13 +2432,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -2478,16 +2462,16 @@
         <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2508,16 +2492,16 @@
         <v>300</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G15" s="8">
         <v>3</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2538,16 +2522,16 @@
         <v>400</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2568,13 +2552,13 @@
         <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -2598,16 +2582,16 @@
         <v>200</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2628,16 +2612,16 @@
         <v>300</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2658,16 +2642,16 @@
         <v>400</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2688,13 +2672,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -2718,16 +2702,16 @@
         <v>200</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G22" s="7">
         <v>2</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2748,16 +2732,16 @@
         <v>300</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G23" s="8">
         <v>3</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2778,16 +2762,16 @@
         <v>400</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2808,13 +2792,13 @@
         <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -2838,16 +2822,16 @@
         <v>200</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7">
         <v>2</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2868,16 +2852,16 @@
         <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G27" s="8">
         <v>3</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2898,16 +2882,16 @@
         <v>400</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2928,13 +2912,13 @@
         <v>100</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -2958,16 +2942,16 @@
         <v>200</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G30" s="7">
         <v>2</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2988,16 +2972,16 @@
         <v>300</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3018,16 +3002,16 @@
         <v>400</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G32" s="8">
         <v>4</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3048,7 +3032,7 @@
         <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -3078,7 +3062,7 @@
         <v>200</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G34" s="7">
         <v>2</v>
@@ -3087,7 +3071,7 @@
         <v>5000</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3108,7 +3092,7 @@
         <v>300</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
@@ -3117,7 +3101,7 @@
         <v>10000</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3138,7 +3122,7 @@
         <v>400</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
@@ -3147,7 +3131,7 @@
         <v>20000</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3168,7 +3152,7 @@
         <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -3198,7 +3182,7 @@
         <v>200</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
@@ -3207,7 +3191,7 @@
         <v>5000</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3228,7 +3212,7 @@
         <v>300</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -3237,7 +3221,7 @@
         <v>8000</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3258,7 +3242,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -3267,7 +3251,7 @@
         <v>10000</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3288,7 +3272,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
@@ -3318,7 +3302,7 @@
         <v>200</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
@@ -3327,7 +3311,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3348,7 +3332,7 @@
         <v>300</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G43" s="8">
         <v>3</v>
@@ -3357,7 +3341,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3378,7 +3362,7 @@
         <v>400</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G44" s="8">
         <v>4</v>
@@ -3387,7 +3371,7 @@
         <v>32</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3408,7 +3392,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
@@ -3438,7 +3422,7 @@
         <v>200</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
@@ -3447,7 +3431,7 @@
         <v>0.5</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3468,7 +3452,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G47" s="8">
         <v>3</v>
@@ -3477,7 +3461,7 @@
         <v>0.2</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3498,7 +3482,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G48" s="8">
         <v>4</v>
@@ -3507,7 +3491,7 @@
         <v>0.1</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3528,13 +3512,13 @@
         <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -3558,16 +3542,16 @@
         <v>200</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3588,16 +3572,16 @@
         <v>300</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G51" s="8">
         <v>3</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3618,16 +3602,16 @@
         <v>400</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3648,13 +3632,13 @@
         <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -3678,16 +3662,16 @@
         <v>200</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G54" s="7">
         <v>2</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3708,16 +3692,16 @@
         <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G55" s="8">
         <v>3</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3738,16 +3722,16 @@
         <v>400</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G56" s="8">
         <v>4</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3768,13 +3752,13 @@
         <v>100</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -3798,16 +3782,16 @@
         <v>200</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G58" s="7">
         <v>2</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3828,16 +3812,16 @@
         <v>300</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G59" s="8">
         <v>3</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3858,16 +3842,16 @@
         <v>400</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G60" s="8">
         <v>4</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3888,13 +3872,13 @@
         <v>100</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -3918,16 +3902,16 @@
         <v>200</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3948,16 +3932,16 @@
         <v>300</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3978,16 +3962,16 @@
         <v>400</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G64" s="8">
         <v>4</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4008,13 +3992,13 @@
         <v>100</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -4038,16 +4022,16 @@
         <v>200</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G66" s="7">
         <v>2</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4068,16 +4052,16 @@
         <v>300</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G67" s="8">
         <v>3</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4098,16 +4082,16 @@
         <v>400</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G68" s="8">
         <v>4</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4128,13 +4112,13 @@
         <v>100</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -4158,16 +4142,16 @@
         <v>200</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G70" s="7">
         <v>2</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4188,16 +4172,16 @@
         <v>300</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G71" s="8">
         <v>3</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4218,16 +4202,16 @@
         <v>400</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G72" s="8">
         <v>4</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4248,13 +4232,13 @@
         <v>100</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I73" s="7">
         <v>1</v>
@@ -4278,16 +4262,16 @@
         <v>200</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4308,16 +4292,16 @@
         <v>300</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G75" s="8">
         <v>3</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4338,16 +4322,16 @@
         <v>400</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G76" s="8">
         <v>4</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4368,13 +4352,13 @@
         <v>100</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -4398,16 +4382,16 @@
         <v>200</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G78" s="7">
         <v>2</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4428,16 +4412,16 @@
         <v>300</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G79" s="8">
         <v>3</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4458,16 +4442,16 @@
         <v>400</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G80" s="8">
         <v>4</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4488,13 +4472,13 @@
         <v>100</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -4518,16 +4502,16 @@
         <v>200</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G82" s="7">
         <v>2</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4548,16 +4532,16 @@
         <v>300</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G83" s="8">
         <v>3</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4578,16 +4562,16 @@
         <v>400</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G84" s="8">
         <v>4</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4608,13 +4592,13 @@
         <v>100</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I85" s="7">
         <v>1</v>
@@ -4638,16 +4622,16 @@
         <v>200</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G86" s="7">
         <v>2</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4668,16 +4652,16 @@
         <v>300</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G87" s="8">
         <v>3</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4698,16 +4682,16 @@
         <v>400</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G88" s="8">
         <v>4</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1471286-18C8-4F54-94E7-BBCBF064EBE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6273D5C-1393-4F95-A1CA-D51A175A0054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="4965" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8070" yWindow="2670" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="185">
   <si>
     <t>索引</t>
   </si>
@@ -428,98 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提高火系属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高风系属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高水系属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wind:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wind:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wind:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wind:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>water:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>water:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>water:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>water:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack:1,defense:1,aps:1:brute:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack:2,defense:2,aps:2:brute:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack:3,defense:3,aps:3:brute:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack:4,defense:4,aps:4:brute:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ArrowTower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,22 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deploy:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deploy:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deploy:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deploy:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BuildMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -612,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以建造数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -749,6 +637,109 @@
   </si>
   <si>
     <t>food:20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高火属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高风属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高水属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire:6</t>
+  </si>
+  <si>
+    <t>Fire:7</t>
+  </si>
+  <si>
+    <t>Fire:8</t>
+  </si>
+  <si>
+    <t>Wind:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind:6</t>
+  </si>
+  <si>
+    <t>Wind:7</t>
+  </si>
+  <si>
+    <t>Wind:8</t>
+  </si>
+  <si>
+    <t>Water:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water:6</t>
+  </si>
+  <si>
+    <t>Water:7</t>
+  </si>
+  <si>
+    <t>Water:8</t>
+  </si>
+  <si>
+    <t>1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,6 +856,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1220,10 +1229,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1255,10 +1264,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1301,13 +1310,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>51</v>
@@ -1369,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>87</v>
@@ -1693,7 +1702,7 @@
         <v>99</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>73</v>
@@ -1728,7 +1737,7 @@
         <v>101</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>76</v>
@@ -1763,7 +1772,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>77</v>
@@ -1897,7 +1906,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>64</v>
@@ -1929,16 +1938,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>77</v>
@@ -1964,16 +1973,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>77</v>
@@ -1999,16 +2008,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>77</v>
@@ -2040,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2053,7 +2062,7 @@
     <col min="5" max="5" width="30.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="42.625" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="59" style="8" customWidth="1"/>
+    <col min="8" max="8" width="59" style="18" customWidth="1"/>
     <col min="9" max="9" width="30.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2079,11 +2088,11 @@
       <c r="G1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="13" t="s">
         <v>82</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2108,11 +2117,11 @@
       <c r="G2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="14" t="s">
         <v>83</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2137,7 +2146,7 @@
       <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="15" t="s">
         <v>67</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -2162,13 +2171,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>162</v>
+      <c r="H4" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -2192,16 +2201,16 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>169</v>
+      <c r="H5" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2222,16 +2231,16 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>170</v>
+      <c r="H6" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2252,16 +2261,16 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>171</v>
+      <c r="H7" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2282,16 +2291,16 @@
         <v>500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>172</v>
+      <c r="H8" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2312,12 +2321,12 @@
         <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="17">
         <v>10000</v>
       </c>
       <c r="I9" s="7">
@@ -2342,16 +2351,16 @@
         <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="17">
         <v>50000</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2372,16 +2381,16 @@
         <v>300</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G11" s="8">
         <v>3</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="17">
         <v>100000</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2402,16 +2411,16 @@
         <v>400</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="17">
         <v>200000</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2432,13 +2441,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>164</v>
+      <c r="H13" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -2462,16 +2471,16 @@
         <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>165</v>
+      <c r="H14" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2492,16 +2501,16 @@
         <v>300</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G15" s="8">
         <v>3</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>167</v>
+      <c r="H15" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2522,16 +2531,16 @@
         <v>400</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>168</v>
+      <c r="H16" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2552,12 +2561,12 @@
         <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="17" t="s">
         <v>88</v>
       </c>
       <c r="I17" s="7">
@@ -2582,16 +2591,16 @@
         <v>200</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>173</v>
+      <c r="H18" s="17" t="s">
+        <v>145</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2612,16 +2621,16 @@
         <v>300</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>174</v>
+      <c r="H19" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2642,16 +2651,16 @@
         <v>400</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>175</v>
+      <c r="H20" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2672,12 +2681,12 @@
         <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="17" t="s">
         <v>90</v>
       </c>
       <c r="I21" s="7">
@@ -2702,16 +2711,16 @@
         <v>200</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7">
         <v>2</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>176</v>
+      <c r="H22" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2732,16 +2741,16 @@
         <v>300</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G23" s="8">
         <v>3</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>177</v>
+      <c r="H23" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2762,16 +2771,16 @@
         <v>400</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>178</v>
+      <c r="H24" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2792,12 +2801,12 @@
         <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="17" t="s">
         <v>91</v>
       </c>
       <c r="I25" s="7">
@@ -2822,16 +2831,16 @@
         <v>200</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7">
         <v>2</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>179</v>
+      <c r="H26" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2852,16 +2861,16 @@
         <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G27" s="8">
         <v>3</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>180</v>
+      <c r="H27" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2882,16 +2891,16 @@
         <v>400</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>181</v>
+      <c r="H28" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2912,12 +2921,12 @@
         <v>100</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="17" t="s">
         <v>92</v>
       </c>
       <c r="I29" s="7">
@@ -2942,16 +2951,16 @@
         <v>200</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G30" s="7">
         <v>2</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>182</v>
+      <c r="H30" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2972,16 +2981,16 @@
         <v>300</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>183</v>
+      <c r="H31" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3002,16 +3011,16 @@
         <v>400</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G32" s="8">
         <v>4</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>184</v>
+      <c r="H32" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3032,12 +3041,12 @@
         <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="17">
         <v>1000</v>
       </c>
       <c r="I33" s="7">
@@ -3062,16 +3071,16 @@
         <v>200</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G34" s="7">
         <v>2</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="17">
         <v>5000</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3092,16 +3101,16 @@
         <v>300</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="17">
         <v>10000</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3122,16 +3131,16 @@
         <v>400</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="17">
         <v>20000</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3152,12 +3161,12 @@
         <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="17">
         <v>3000</v>
       </c>
       <c r="I37" s="7">
@@ -3182,16 +3191,16 @@
         <v>200</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="17">
         <v>5000</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3212,16 +3221,16 @@
         <v>300</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="17">
         <v>8000</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3242,16 +3251,16 @@
         <v>400</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="17">
         <v>10000</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3272,12 +3281,12 @@
         <v>100</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="17">
         <v>4</v>
       </c>
       <c r="I41" s="7">
@@ -3302,16 +3311,16 @@
         <v>200</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="17">
         <v>8</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3332,16 +3341,16 @@
         <v>300</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G43" s="8">
         <v>3</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="17">
         <v>16</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3362,16 +3371,16 @@
         <v>400</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G44" s="8">
         <v>4</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="17">
         <v>32</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3392,13 +3401,13 @@
         <v>100</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
       </c>
-      <c r="H45" s="12">
-        <v>1</v>
+      <c r="H45" s="17">
+        <v>5</v>
       </c>
       <c r="I45" s="7">
         <v>1</v>
@@ -3422,16 +3431,16 @@
         <v>200</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
       </c>
-      <c r="H46" s="12">
-        <v>0.5</v>
+      <c r="H46" s="17">
+        <v>10</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3452,16 +3461,16 @@
         <v>300</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G47" s="8">
         <v>3</v>
       </c>
-      <c r="H47" s="12">
-        <v>0.2</v>
+      <c r="H47" s="17">
+        <v>15</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3482,16 +3491,16 @@
         <v>400</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G48" s="8">
         <v>4</v>
       </c>
-      <c r="H48" s="12">
-        <v>0.1</v>
+      <c r="H48" s="17">
+        <v>20</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3512,13 +3521,13 @@
         <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>111</v>
+      <c r="H49" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -3542,16 +3551,16 @@
         <v>200</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
-      <c r="H50" s="12" t="s">
-        <v>107</v>
+      <c r="H50" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3572,16 +3581,16 @@
         <v>300</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G51" s="8">
         <v>3</v>
       </c>
-      <c r="H51" s="12" t="s">
-        <v>112</v>
+      <c r="H51" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3602,16 +3611,16 @@
         <v>400</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
       </c>
-      <c r="H52" s="12" t="s">
-        <v>108</v>
+      <c r="H52" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3632,13 +3641,13 @@
         <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
       </c>
-      <c r="H53" s="12" t="s">
-        <v>113</v>
+      <c r="H53" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -3662,16 +3671,16 @@
         <v>200</v>
       </c>
       <c r="F54" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="7">
+        <v>2</v>
+      </c>
+      <c r="H54" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G54" s="7">
-        <v>2</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="I54" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3692,16 +3701,16 @@
         <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G55" s="8">
         <v>3</v>
       </c>
-      <c r="H55" s="12" t="s">
-        <v>114</v>
+      <c r="H55" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3722,16 +3731,16 @@
         <v>400</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G56" s="8">
         <v>4</v>
       </c>
-      <c r="H56" s="12" t="s">
-        <v>110</v>
+      <c r="H56" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3752,13 +3761,13 @@
         <v>100</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
       </c>
-      <c r="H57" s="12" t="s">
-        <v>115</v>
+      <c r="H57" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -3782,16 +3791,16 @@
         <v>200</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G58" s="7">
         <v>2</v>
       </c>
-      <c r="H58" s="12" t="s">
-        <v>116</v>
+      <c r="H58" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3812,16 +3821,16 @@
         <v>300</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G59" s="8">
         <v>3</v>
       </c>
-      <c r="H59" s="12" t="s">
-        <v>117</v>
+      <c r="H59" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3842,16 +3851,16 @@
         <v>400</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G60" s="8">
         <v>4</v>
       </c>
-      <c r="H60" s="12" t="s">
-        <v>118</v>
+      <c r="H60" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3872,13 +3881,13 @@
         <v>100</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
       </c>
-      <c r="H61" s="12" t="s">
-        <v>119</v>
+      <c r="H61" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -3902,16 +3911,16 @@
         <v>200</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
       </c>
-      <c r="H62" s="12" t="s">
-        <v>120</v>
+      <c r="H62" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3932,16 +3941,16 @@
         <v>300</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
       </c>
-      <c r="H63" s="12" t="s">
-        <v>121</v>
+      <c r="H63" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3962,16 +3971,16 @@
         <v>400</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G64" s="8">
         <v>4</v>
       </c>
-      <c r="H64" s="12" t="s">
-        <v>122</v>
+      <c r="H64" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3992,13 +4001,13 @@
         <v>100</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
       </c>
-      <c r="H65" s="12" t="s">
-        <v>119</v>
+      <c r="H65" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -4022,16 +4031,16 @@
         <v>200</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G66" s="7">
         <v>2</v>
       </c>
-      <c r="H66" s="12" t="s">
-        <v>120</v>
+      <c r="H66" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4052,16 +4061,16 @@
         <v>300</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G67" s="8">
         <v>3</v>
       </c>
-      <c r="H67" s="12" t="s">
-        <v>121</v>
+      <c r="H67" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4082,16 +4091,16 @@
         <v>400</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G68" s="8">
         <v>4</v>
       </c>
-      <c r="H68" s="12" t="s">
-        <v>122</v>
+      <c r="H68" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4112,13 +4121,13 @@
         <v>100</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
       </c>
-      <c r="H69" s="12" t="s">
-        <v>119</v>
+      <c r="H69" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -4142,16 +4151,16 @@
         <v>200</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G70" s="7">
         <v>2</v>
       </c>
-      <c r="H70" s="12" t="s">
-        <v>120</v>
+      <c r="H70" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4172,16 +4181,16 @@
         <v>300</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G71" s="8">
         <v>3</v>
       </c>
-      <c r="H71" s="12" t="s">
-        <v>121</v>
+      <c r="H71" s="17" t="s">
+        <v>183</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4202,16 +4211,16 @@
         <v>400</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G72" s="8">
         <v>4</v>
       </c>
-      <c r="H72" s="12" t="s">
-        <v>122</v>
+      <c r="H72" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4232,13 +4241,13 @@
         <v>100</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
       </c>
-      <c r="H73" s="12" t="s">
-        <v>123</v>
+      <c r="H73" s="17">
+        <v>1</v>
       </c>
       <c r="I73" s="7">
         <v>1</v>
@@ -4262,16 +4271,16 @@
         <v>200</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
       </c>
-      <c r="H74" s="12" t="s">
-        <v>124</v>
+      <c r="H74" s="17">
+        <v>2</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4292,16 +4301,16 @@
         <v>300</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G75" s="8">
         <v>3</v>
       </c>
-      <c r="H75" s="12" t="s">
-        <v>125</v>
+      <c r="H75" s="17">
+        <v>3</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4322,16 +4331,16 @@
         <v>400</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G76" s="8">
         <v>4</v>
       </c>
-      <c r="H76" s="12" t="s">
-        <v>126</v>
+      <c r="H76" s="17">
+        <v>4</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4352,13 +4361,13 @@
         <v>100</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
       </c>
-      <c r="H77" s="12" t="s">
-        <v>136</v>
+      <c r="H77" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -4382,16 +4391,16 @@
         <v>200</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G78" s="7">
         <v>2</v>
       </c>
-      <c r="H78" s="12" t="s">
-        <v>137</v>
+      <c r="H78" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4412,16 +4421,16 @@
         <v>300</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G79" s="8">
         <v>3</v>
       </c>
-      <c r="H79" s="12" t="s">
-        <v>138</v>
+      <c r="H79" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4442,16 +4451,16 @@
         <v>400</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G80" s="8">
         <v>4</v>
       </c>
-      <c r="H80" s="12" t="s">
-        <v>139</v>
+      <c r="H80" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4472,13 +4481,13 @@
         <v>100</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
       </c>
-      <c r="H81" s="12" t="s">
-        <v>132</v>
+      <c r="H81" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -4502,16 +4511,16 @@
         <v>200</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G82" s="7">
         <v>2</v>
       </c>
-      <c r="H82" s="12" t="s">
-        <v>133</v>
+      <c r="H82" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4532,16 +4541,16 @@
         <v>300</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G83" s="8">
         <v>3</v>
       </c>
-      <c r="H83" s="12" t="s">
-        <v>134</v>
+      <c r="H83" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4562,16 +4571,16 @@
         <v>400</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G84" s="8">
         <v>4</v>
       </c>
-      <c r="H84" s="12" t="s">
-        <v>135</v>
+      <c r="H84" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4592,13 +4601,13 @@
         <v>100</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
       </c>
-      <c r="H85" s="12" t="s">
-        <v>144</v>
+      <c r="H85" s="17">
+        <v>1</v>
       </c>
       <c r="I85" s="7">
         <v>1</v>
@@ -4622,16 +4631,16 @@
         <v>200</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G86" s="7">
         <v>2</v>
       </c>
-      <c r="H86" s="12" t="s">
-        <v>145</v>
+      <c r="H86" s="17">
+        <v>2</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4652,16 +4661,16 @@
         <v>300</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G87" s="8">
         <v>3</v>
       </c>
-      <c r="H87" s="12" t="s">
-        <v>146</v>
+      <c r="H87" s="17">
+        <v>3</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4682,16 +4691,16 @@
         <v>400</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="G88" s="8">
         <v>4</v>
       </c>
-      <c r="H88" s="12" t="s">
-        <v>147</v>
+      <c r="H88" s="17">
+        <v>4</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6273D5C-1393-4F95-A1CA-D51A175A0054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C543C6-4892-4462-A437-8369994BAA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8070" yWindow="2670" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -388,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TroopAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加主城兵役上限值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,51 +691,55 @@
     <t>Water:8</t>
   </si>
   <si>
-    <t>1:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:4</t>
+    <t>1,Attack:1|Defense:2|AtkSpeed:0.5|Burst:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,Attack:2|Defense:3|AtkSpeed:0.8|Burst:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,Attack:3|Defense:4|AtkSpeed:1.2|Burst:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,Attack:4|Defense:5|AtkSpeed:1.8|Burst:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,Attack:1|Defense:2|AtkSpeed:0.5|Burst:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,Attack:2|Defense:3|AtkSpeed:0.8|Burst:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,Attack:3|Defense:4|AtkSpeed:1.2|Burst:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,Attack:4|Defense:5|AtkSpeed:1.8|Burst:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,Attack:1|Defense:2|AtkSpeed:0.5|Burst:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,Attack:2|Defense:3|AtkSpeed:0.8|Burst:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,Attack:3|Defense:4|AtkSpeed:1.2|Burst:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,Attack:4|Defense:5|AtkSpeed:1.8|Burst:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroMaxBlood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1229,10 +1229,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1264,10 +1264,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1310,13 +1310,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>51</v>
@@ -1378,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>87</v>
@@ -1556,7 +1556,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>40</v>
@@ -1591,13 +1591,13 @@
         <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>76</v>
@@ -1661,7 +1661,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>49</v>
@@ -1696,13 +1696,13 @@
         <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>73</v>
@@ -1728,16 +1728,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>76</v>
@@ -1766,13 +1766,13 @@
         <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>77</v>
@@ -1801,7 +1801,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>55</v>
@@ -1836,7 +1836,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>56</v>
@@ -1871,7 +1871,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>57</v>
@@ -1906,7 +1906,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>64</v>
@@ -1938,16 +1938,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>77</v>
@@ -1973,16 +1973,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>77</v>
@@ -2008,16 +2008,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>77</v>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="B60" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="B73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2092,7 +2092,7 @@
         <v>82</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2121,7 +2121,7 @@
         <v>83</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2171,13 +2171,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -2201,16 +2201,16 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2231,16 +2231,16 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2261,16 +2261,16 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2291,16 +2291,16 @@
         <v>500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2321,7 +2321,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -2351,7 +2351,7 @@
         <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -2360,7 +2360,7 @@
         <v>50000</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2381,7 +2381,7 @@
         <v>300</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="8">
         <v>3</v>
@@ -2390,7 +2390,7 @@
         <v>100000</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2411,7 +2411,7 @@
         <v>400</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
@@ -2420,7 +2420,7 @@
         <v>200000</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2441,13 +2441,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -2471,16 +2471,16 @@
         <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2501,16 +2501,16 @@
         <v>300</v>
       </c>
       <c r="F15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="8">
+        <v>3</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="8">
-        <v>3</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>139</v>
-      </c>
       <c r="I15" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2531,16 +2531,16 @@
         <v>400</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2561,7 +2561,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -2591,16 +2591,16 @@
         <v>200</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2621,16 +2621,16 @@
         <v>300</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2651,16 +2651,16 @@
         <v>400</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2681,7 +2681,7 @@
         <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
@@ -2711,16 +2711,16 @@
         <v>200</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7">
         <v>2</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2741,16 +2741,16 @@
         <v>300</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="8">
         <v>3</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2771,16 +2771,16 @@
         <v>400</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2801,7 +2801,7 @@
         <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -2831,16 +2831,16 @@
         <v>200</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7">
         <v>2</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2861,16 +2861,16 @@
         <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G27" s="8">
         <v>3</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2891,16 +2891,16 @@
         <v>400</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2921,7 +2921,7 @@
         <v>100</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
@@ -2951,16 +2951,16 @@
         <v>200</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G30" s="7">
         <v>2</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2981,16 +2981,16 @@
         <v>300</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3011,16 +3011,16 @@
         <v>400</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G32" s="8">
         <v>4</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3041,7 +3041,7 @@
         <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -3071,7 +3071,7 @@
         <v>200</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G34" s="7">
         <v>2</v>
@@ -3080,7 +3080,7 @@
         <v>5000</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3101,7 +3101,7 @@
         <v>300</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
@@ -3110,7 +3110,7 @@
         <v>10000</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3131,7 +3131,7 @@
         <v>400</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
@@ -3140,7 +3140,7 @@
         <v>20000</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3161,7 +3161,7 @@
         <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -3191,7 +3191,7 @@
         <v>200</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
@@ -3200,7 +3200,7 @@
         <v>5000</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3221,7 +3221,7 @@
         <v>300</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -3230,7 +3230,7 @@
         <v>8000</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3251,7 +3251,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -3260,7 +3260,7 @@
         <v>10000</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3281,7 +3281,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
@@ -3311,7 +3311,7 @@
         <v>200</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
@@ -3320,7 +3320,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3341,7 +3341,7 @@
         <v>300</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G43" s="8">
         <v>3</v>
@@ -3350,7 +3350,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3371,7 +3371,7 @@
         <v>400</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G44" s="8">
         <v>4</v>
@@ -3380,7 +3380,7 @@
         <v>32</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3401,7 +3401,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
@@ -3431,7 +3431,7 @@
         <v>200</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
@@ -3440,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3461,7 +3461,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G47" s="8">
         <v>3</v>
@@ -3470,7 +3470,7 @@
         <v>15</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3491,7 +3491,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G48" s="8">
         <v>4</v>
@@ -3500,7 +3500,7 @@
         <v>20</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3521,13 +3521,13 @@
         <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -3551,16 +3551,16 @@
         <v>200</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3581,16 +3581,16 @@
         <v>300</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G51" s="8">
         <v>3</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3611,16 +3611,16 @@
         <v>400</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3641,13 +3641,13 @@
         <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -3671,16 +3671,16 @@
         <v>200</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G54" s="7">
         <v>2</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3701,16 +3701,16 @@
         <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G55" s="8">
         <v>3</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3731,16 +3731,16 @@
         <v>400</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G56" s="8">
         <v>4</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3761,13 +3761,13 @@
         <v>100</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -3791,16 +3791,16 @@
         <v>200</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G58" s="7">
         <v>2</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3821,16 +3821,16 @@
         <v>300</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G59" s="8">
         <v>3</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3851,16 +3851,16 @@
         <v>400</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G60" s="8">
         <v>4</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3881,13 +3881,13 @@
         <v>100</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -3911,16 +3911,16 @@
         <v>200</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3941,16 +3941,16 @@
         <v>300</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3971,16 +3971,16 @@
         <v>400</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G64" s="8">
         <v>4</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4001,13 +4001,13 @@
         <v>100</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -4031,16 +4031,16 @@
         <v>200</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G66" s="7">
         <v>2</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4061,16 +4061,16 @@
         <v>300</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G67" s="8">
         <v>3</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4091,16 +4091,16 @@
         <v>400</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G68" s="8">
         <v>4</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4121,13 +4121,13 @@
         <v>100</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -4151,16 +4151,16 @@
         <v>200</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G70" s="7">
         <v>2</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4181,16 +4181,16 @@
         <v>300</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G71" s="8">
         <v>3</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4211,16 +4211,16 @@
         <v>400</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G72" s="8">
         <v>4</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4241,7 +4241,7 @@
         <v>100</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>200</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
@@ -4280,7 +4280,7 @@
         <v>2</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4301,7 +4301,7 @@
         <v>300</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G75" s="8">
         <v>3</v>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4331,7 +4331,7 @@
         <v>400</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G76" s="8">
         <v>4</v>
@@ -4340,7 +4340,7 @@
         <v>4</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4361,13 +4361,13 @@
         <v>100</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -4391,16 +4391,16 @@
         <v>200</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G78" s="7">
         <v>2</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4421,16 +4421,16 @@
         <v>300</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G79" s="8">
         <v>3</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4451,16 +4451,16 @@
         <v>400</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G80" s="8">
         <v>4</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4481,13 +4481,13 @@
         <v>100</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -4511,16 +4511,16 @@
         <v>200</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G82" s="7">
         <v>2</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4541,16 +4541,16 @@
         <v>300</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G83" s="8">
         <v>3</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4571,16 +4571,16 @@
         <v>400</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G84" s="8">
         <v>4</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4601,7 +4601,7 @@
         <v>100</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>200</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G86" s="7">
         <v>2</v>
@@ -4640,7 +4640,7 @@
         <v>2</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4661,7 +4661,7 @@
         <v>300</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G87" s="8">
         <v>3</v>
@@ -4670,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4691,7 +4691,7 @@
         <v>400</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G88" s="8">
         <v>4</v>
@@ -4700,7 +4700,7 @@
         <v>4</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C543C6-4892-4462-A437-8369994BAA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E712E8-AB98-4531-832C-A3B801955F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -365,25 +365,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stone:1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Metal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>metal:1000</t>
-  </si>
-  <si>
-    <t>wood:1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food:1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TroopCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,26 +537,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold:2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gold:200:stone:100,wood:100,metal:100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold:6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:8000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gold:30000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,54 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stone:5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone:10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone:20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>metal:5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>metal:10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>metal:20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood:5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood:10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood:20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food:5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food:10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food:20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提高火属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -740,6 +661,86 @@
   </si>
   <si>
     <t>HeroMaxBlood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:2000,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:4000,20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:6000,30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:8000,40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:1000,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:5000,30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:10000,50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:20000,70000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal:1000,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood:1000,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:1000,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal:5000,30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood:5000,30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:5000,30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal:10000,50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood:10000,50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:10000,50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal:20000,70000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood:20000,70000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food:20000,70000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1182,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1229,10 +1230,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1264,10 +1265,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1310,13 +1311,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>51</v>
@@ -1378,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>87</v>
@@ -1448,7 +1449,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>87</v>
@@ -1556,7 +1557,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>40</v>
@@ -1591,13 +1592,13 @@
         <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>76</v>
@@ -1626,7 +1627,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>45</v>
@@ -1661,7 +1662,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>49</v>
@@ -1696,13 +1697,13 @@
         <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>73</v>
@@ -1728,16 +1729,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>76</v>
@@ -1766,13 +1767,13 @@
         <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>77</v>
@@ -1801,7 +1802,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>55</v>
@@ -1836,7 +1837,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>56</v>
@@ -1871,7 +1872,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>57</v>
@@ -1906,7 +1907,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>64</v>
@@ -1938,16 +1939,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>77</v>
@@ -1973,16 +1974,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>77</v>
@@ -2008,16 +2009,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>77</v>
@@ -2049,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="B73" sqref="A73:XFD73"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2092,7 +2093,7 @@
         <v>82</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2121,7 +2122,7 @@
         <v>83</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2171,13 +2172,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -2201,16 +2202,16 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2231,16 +2232,16 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2261,16 +2262,16 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2291,16 +2292,16 @@
         <v>500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2321,7 +2322,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -2351,7 +2352,7 @@
         <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -2360,7 +2361,7 @@
         <v>50000</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2381,7 +2382,7 @@
         <v>300</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G11" s="8">
         <v>3</v>
@@ -2390,7 +2391,7 @@
         <v>100000</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2411,7 +2412,7 @@
         <v>400</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
@@ -2420,7 +2421,7 @@
         <v>200000</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2441,13 +2442,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -2471,16 +2472,16 @@
         <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2501,16 +2502,16 @@
         <v>300</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G15" s="8">
         <v>3</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2531,16 +2532,16 @@
         <v>400</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2561,13 +2562,13 @@
         <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -2591,16 +2592,16 @@
         <v>200</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2621,16 +2622,16 @@
         <v>300</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2651,16 +2652,16 @@
         <v>400</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2681,13 +2682,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -2711,16 +2712,16 @@
         <v>200</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7">
         <v>2</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2741,16 +2742,16 @@
         <v>300</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G23" s="8">
         <v>3</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2771,16 +2772,16 @@
         <v>400</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2801,13 +2802,13 @@
         <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -2831,16 +2832,16 @@
         <v>200</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7">
         <v>2</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2861,16 +2862,16 @@
         <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G27" s="8">
         <v>3</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2891,16 +2892,16 @@
         <v>400</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2921,13 +2922,13 @@
         <v>100</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -2951,16 +2952,16 @@
         <v>200</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G30" s="7">
         <v>2</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2981,16 +2982,16 @@
         <v>300</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3011,16 +3012,16 @@
         <v>400</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G32" s="8">
         <v>4</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3041,7 +3042,7 @@
         <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -3071,7 +3072,7 @@
         <v>200</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G34" s="7">
         <v>2</v>
@@ -3080,7 +3081,7 @@
         <v>5000</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3101,7 +3102,7 @@
         <v>300</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
@@ -3110,7 +3111,7 @@
         <v>10000</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3131,7 +3132,7 @@
         <v>400</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
@@ -3140,7 +3141,7 @@
         <v>20000</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3161,7 +3162,7 @@
         <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -3191,7 +3192,7 @@
         <v>200</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
@@ -3200,7 +3201,7 @@
         <v>5000</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3221,7 +3222,7 @@
         <v>300</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -3230,7 +3231,7 @@
         <v>8000</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3251,7 +3252,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -3260,7 +3261,7 @@
         <v>10000</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3281,7 +3282,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
@@ -3311,7 +3312,7 @@
         <v>200</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
@@ -3320,7 +3321,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3341,7 +3342,7 @@
         <v>300</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G43" s="8">
         <v>3</v>
@@ -3350,7 +3351,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3371,7 +3372,7 @@
         <v>400</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G44" s="8">
         <v>4</v>
@@ -3380,7 +3381,7 @@
         <v>32</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3401,7 +3402,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
@@ -3431,7 +3432,7 @@
         <v>200</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
@@ -3440,7 +3441,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3461,7 +3462,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G47" s="8">
         <v>3</v>
@@ -3470,7 +3471,7 @@
         <v>15</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3491,7 +3492,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G48" s="8">
         <v>4</v>
@@ -3500,7 +3501,7 @@
         <v>20</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3521,13 +3522,13 @@
         <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -3551,16 +3552,16 @@
         <v>200</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3581,16 +3582,16 @@
         <v>300</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G51" s="8">
         <v>3</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3611,16 +3612,16 @@
         <v>400</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3641,13 +3642,13 @@
         <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -3671,16 +3672,16 @@
         <v>200</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G54" s="7">
         <v>2</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3701,16 +3702,16 @@
         <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G55" s="8">
         <v>3</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3731,16 +3732,16 @@
         <v>400</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G56" s="8">
         <v>4</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3761,13 +3762,13 @@
         <v>100</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -3791,16 +3792,16 @@
         <v>200</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G58" s="7">
         <v>2</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3821,16 +3822,16 @@
         <v>300</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G59" s="8">
         <v>3</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3851,16 +3852,16 @@
         <v>400</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G60" s="8">
         <v>4</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3881,13 +3882,13 @@
         <v>100</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -3911,16 +3912,16 @@
         <v>200</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3941,16 +3942,16 @@
         <v>300</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3971,16 +3972,16 @@
         <v>400</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G64" s="8">
         <v>4</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4001,13 +4002,13 @@
         <v>100</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -4031,16 +4032,16 @@
         <v>200</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G66" s="7">
         <v>2</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4061,16 +4062,16 @@
         <v>300</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G67" s="8">
         <v>3</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4091,16 +4092,16 @@
         <v>400</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G68" s="8">
         <v>4</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4121,13 +4122,13 @@
         <v>100</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -4151,16 +4152,16 @@
         <v>200</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G70" s="7">
         <v>2</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4181,16 +4182,16 @@
         <v>300</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G71" s="8">
         <v>3</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4211,16 +4212,16 @@
         <v>400</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G72" s="8">
         <v>4</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4241,7 +4242,7 @@
         <v>100</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
@@ -4271,7 +4272,7 @@
         <v>200</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
@@ -4280,7 +4281,7 @@
         <v>2</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4301,7 +4302,7 @@
         <v>300</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G75" s="8">
         <v>3</v>
@@ -4310,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4331,7 +4332,7 @@
         <v>400</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G76" s="8">
         <v>4</v>
@@ -4340,7 +4341,7 @@
         <v>4</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4361,13 +4362,13 @@
         <v>100</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -4391,16 +4392,16 @@
         <v>200</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G78" s="7">
         <v>2</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4421,16 +4422,16 @@
         <v>300</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G79" s="8">
         <v>3</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4451,16 +4452,16 @@
         <v>400</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G80" s="8">
         <v>4</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4481,13 +4482,13 @@
         <v>100</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -4511,16 +4512,16 @@
         <v>200</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G82" s="7">
         <v>2</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4541,16 +4542,16 @@
         <v>300</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G83" s="8">
         <v>3</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4571,16 +4572,16 @@
         <v>400</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G84" s="8">
         <v>4</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4601,7 +4602,7 @@
         <v>100</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
@@ -4631,7 +4632,7 @@
         <v>200</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G86" s="7">
         <v>2</v>
@@ -4640,7 +4641,7 @@
         <v>2</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4661,7 +4662,7 @@
         <v>300</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G87" s="8">
         <v>3</v>
@@ -4670,7 +4671,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4691,7 +4692,7 @@
         <v>400</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G88" s="8">
         <v>4</v>
@@ -4700,7 +4701,7 @@
         <v>4</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E712E8-AB98-4531-832C-A3B801955F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CEDAE3-C90D-4DC3-AB41-F785589B2CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="195">
   <si>
     <t>索引</t>
   </si>
@@ -341,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影响的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AddValues</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,6 +737,51 @@
   </si>
   <si>
     <t>food:20000,70000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tavern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroRecruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可偶遇英雄并且招募他们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响的值
+22-英灵数量,卡池ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,9 +900,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -876,6 +914,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1209,7 +1250,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1230,10 +1271,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1265,10 +1306,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1311,13 +1352,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>51</v>
@@ -1347,7 +1388,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>25</v>
@@ -1379,10 +1420,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>52</v>
@@ -1417,7 +1458,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>27</v>
@@ -1449,10 +1490,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>28</v>
@@ -1487,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>29</v>
@@ -1522,7 +1563,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>30</v>
@@ -1557,7 +1598,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>40</v>
@@ -1592,13 +1633,13 @@
         <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>76</v>
@@ -1627,7 +1668,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>45</v>
@@ -1662,7 +1703,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>49</v>
@@ -1697,13 +1738,13 @@
         <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>73</v>
@@ -1729,16 +1770,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>76</v>
@@ -1767,13 +1808,13 @@
         <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>77</v>
@@ -1802,7 +1843,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>55</v>
@@ -1837,7 +1878,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>56</v>
@@ -1872,7 +1913,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>57</v>
@@ -1907,7 +1948,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>64</v>
@@ -1939,16 +1980,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>77</v>
@@ -1974,16 +2015,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>77</v>
@@ -2009,16 +2050,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>77</v>
@@ -2037,6 +2078,41 @@
       </c>
       <c r="K24" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" s="8">
+        <v>4</v>
+      </c>
+      <c r="H25" s="8">
+        <v>4</v>
+      </c>
+      <c r="I25" s="8">
+        <v>4</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2048,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2063,11 +2139,11 @@
     <col min="5" max="5" width="30.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="42.625" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="59" style="18" customWidth="1"/>
+    <col min="8" max="8" width="59" style="17" customWidth="1"/>
     <col min="9" max="9" width="30.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -2081,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>70</v>
@@ -2089,11 +2165,11 @@
       <c r="G1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>82</v>
+      <c r="H1" s="18" t="s">
+        <v>190</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2118,11 +2194,11 @@
       <c r="G2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>83</v>
+      <c r="H2" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2147,7 +2223,7 @@
       <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>67</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -2172,13 +2248,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>129</v>
+      <c r="H4" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -2202,16 +2278,16 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>132</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2232,16 +2308,16 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>133</v>
+      <c r="H6" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2262,16 +2338,16 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>134</v>
+      <c r="H7" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2292,16 +2368,16 @@
         <v>500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>135</v>
+      <c r="H8" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2322,12 +2398,12 @@
         <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>10000</v>
       </c>
       <c r="I9" s="7">
@@ -2352,16 +2428,16 @@
         <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>50000</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2382,16 +2458,16 @@
         <v>300</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="8">
         <v>3</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>100000</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2412,16 +2488,16 @@
         <v>400</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>200000</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2442,13 +2518,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>165</v>
+      <c r="H13" s="15" t="s">
+        <v>164</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -2472,16 +2548,16 @@
         <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>166</v>
+      <c r="H14" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2502,16 +2578,16 @@
         <v>300</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" s="8">
         <v>3</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>167</v>
+      <c r="H15" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2532,16 +2608,16 @@
         <v>400</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>168</v>
+      <c r="H16" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2562,13 +2638,13 @@
         <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>169</v>
+      <c r="H17" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -2592,16 +2668,16 @@
         <v>200</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>170</v>
+      <c r="H18" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2622,16 +2698,16 @@
         <v>300</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>171</v>
+      <c r="H19" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2652,16 +2728,16 @@
         <v>400</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>172</v>
+      <c r="H20" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2682,13 +2758,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>173</v>
+      <c r="H21" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -2712,16 +2788,16 @@
         <v>200</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" s="7">
         <v>2</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>176</v>
+      <c r="H22" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2742,16 +2818,16 @@
         <v>300</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G23" s="8">
         <v>3</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>179</v>
+      <c r="H23" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2772,16 +2848,16 @@
         <v>400</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>182</v>
+      <c r="H24" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2802,13 +2878,13 @@
         <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>174</v>
+      <c r="H25" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -2832,16 +2908,16 @@
         <v>200</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7">
         <v>2</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>177</v>
+      <c r="H26" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2862,16 +2938,16 @@
         <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="8">
         <v>3</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>180</v>
+      <c r="H27" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2892,16 +2968,16 @@
         <v>400</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>183</v>
+      <c r="H28" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2922,13 +2998,13 @@
         <v>100</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>175</v>
+      <c r="H29" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -2952,16 +3028,16 @@
         <v>200</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="7">
         <v>2</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>178</v>
+      <c r="H30" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2982,16 +3058,16 @@
         <v>300</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>181</v>
+      <c r="H31" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3012,16 +3088,16 @@
         <v>400</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G32" s="8">
         <v>4</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>184</v>
+      <c r="H32" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3042,12 +3118,12 @@
         <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="16">
         <v>1000</v>
       </c>
       <c r="I33" s="7">
@@ -3072,16 +3148,16 @@
         <v>200</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G34" s="7">
         <v>2</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <v>5000</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3102,16 +3178,16 @@
         <v>300</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="16">
         <v>10000</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3132,16 +3208,16 @@
         <v>400</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="16">
         <v>20000</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3162,12 +3238,12 @@
         <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="16">
         <v>3000</v>
       </c>
       <c r="I37" s="7">
@@ -3192,16 +3268,16 @@
         <v>200</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="16">
         <v>5000</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3222,16 +3298,16 @@
         <v>300</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="16">
         <v>8000</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3252,16 +3328,16 @@
         <v>400</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="16">
         <v>10000</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3282,12 +3358,12 @@
         <v>100</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="16">
         <v>4</v>
       </c>
       <c r="I41" s="7">
@@ -3312,16 +3388,16 @@
         <v>200</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="16">
         <v>8</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3342,16 +3418,16 @@
         <v>300</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G43" s="8">
         <v>3</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="16">
         <v>16</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3372,16 +3448,16 @@
         <v>400</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" s="8">
         <v>4</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="16">
         <v>32</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3402,12 +3478,12 @@
         <v>100</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="16">
         <v>5</v>
       </c>
       <c r="I45" s="7">
@@ -3432,16 +3508,16 @@
         <v>200</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="16">
         <v>10</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3462,16 +3538,16 @@
         <v>300</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G47" s="8">
         <v>3</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="16">
         <v>15</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3492,16 +3568,16 @@
         <v>400</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G48" s="8">
         <v>4</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="16">
         <v>20</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3522,13 +3598,13 @@
         <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
       </c>
-      <c r="H49" s="17" t="s">
-        <v>140</v>
+      <c r="H49" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -3552,16 +3628,16 @@
         <v>200</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
-      <c r="H50" s="17" t="s">
-        <v>141</v>
+      <c r="H50" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3582,16 +3658,16 @@
         <v>300</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G51" s="8">
         <v>3</v>
       </c>
-      <c r="H51" s="17" t="s">
-        <v>142</v>
+      <c r="H51" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3612,16 +3688,16 @@
         <v>400</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
       </c>
-      <c r="H52" s="17" t="s">
-        <v>143</v>
+      <c r="H52" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3642,13 +3718,13 @@
         <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
       </c>
-      <c r="H53" s="17" t="s">
-        <v>144</v>
+      <c r="H53" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -3672,16 +3748,16 @@
         <v>200</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G54" s="7">
         <v>2</v>
       </c>
-      <c r="H54" s="17" t="s">
-        <v>145</v>
+      <c r="H54" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3702,16 +3778,16 @@
         <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G55" s="8">
         <v>3</v>
       </c>
-      <c r="H55" s="17" t="s">
-        <v>146</v>
+      <c r="H55" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3732,16 +3808,16 @@
         <v>400</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G56" s="8">
         <v>4</v>
       </c>
-      <c r="H56" s="17" t="s">
-        <v>147</v>
+      <c r="H56" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3762,13 +3838,13 @@
         <v>100</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
       </c>
-      <c r="H57" s="17" t="s">
-        <v>148</v>
+      <c r="H57" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -3792,16 +3868,16 @@
         <v>200</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G58" s="7">
         <v>2</v>
       </c>
-      <c r="H58" s="17" t="s">
-        <v>149</v>
+      <c r="H58" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3822,16 +3898,16 @@
         <v>300</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G59" s="8">
         <v>3</v>
       </c>
-      <c r="H59" s="17" t="s">
-        <v>150</v>
+      <c r="H59" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3852,16 +3928,16 @@
         <v>400</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G60" s="8">
         <v>4</v>
       </c>
-      <c r="H60" s="17" t="s">
-        <v>151</v>
+      <c r="H60" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3882,13 +3958,13 @@
         <v>100</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
       </c>
-      <c r="H61" s="17" t="s">
-        <v>152</v>
+      <c r="H61" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -3912,16 +3988,16 @@
         <v>200</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
       </c>
-      <c r="H62" s="17" t="s">
-        <v>153</v>
+      <c r="H62" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3942,16 +4018,16 @@
         <v>300</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
       </c>
-      <c r="H63" s="17" t="s">
-        <v>154</v>
+      <c r="H63" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3972,16 +4048,16 @@
         <v>400</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G64" s="8">
         <v>4</v>
       </c>
-      <c r="H64" s="17" t="s">
-        <v>155</v>
+      <c r="H64" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4002,13 +4078,13 @@
         <v>100</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
       </c>
-      <c r="H65" s="17" t="s">
-        <v>156</v>
+      <c r="H65" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -4032,16 +4108,16 @@
         <v>200</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G66" s="7">
         <v>2</v>
       </c>
-      <c r="H66" s="17" t="s">
-        <v>157</v>
+      <c r="H66" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4062,16 +4138,16 @@
         <v>300</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G67" s="8">
         <v>3</v>
       </c>
-      <c r="H67" s="17" t="s">
-        <v>158</v>
+      <c r="H67" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4092,16 +4168,16 @@
         <v>400</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G68" s="8">
         <v>4</v>
       </c>
-      <c r="H68" s="17" t="s">
-        <v>159</v>
+      <c r="H68" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4122,13 +4198,13 @@
         <v>100</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
       </c>
-      <c r="H69" s="17" t="s">
-        <v>160</v>
+      <c r="H69" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -4152,16 +4228,16 @@
         <v>200</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G70" s="7">
         <v>2</v>
       </c>
-      <c r="H70" s="17" t="s">
-        <v>161</v>
+      <c r="H70" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4182,16 +4258,16 @@
         <v>300</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G71" s="8">
         <v>3</v>
       </c>
-      <c r="H71" s="17" t="s">
-        <v>162</v>
+      <c r="H71" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4212,16 +4288,16 @@
         <v>400</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G72" s="8">
         <v>4</v>
       </c>
-      <c r="H72" s="17" t="s">
-        <v>163</v>
+      <c r="H72" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4242,12 +4318,12 @@
         <v>100</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="16">
         <v>1</v>
       </c>
       <c r="I73" s="7">
@@ -4272,16 +4348,16 @@
         <v>200</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H74" s="16">
         <v>2</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4302,16 +4378,16 @@
         <v>300</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G75" s="8">
         <v>3</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H75" s="16">
         <v>3</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4332,16 +4408,16 @@
         <v>400</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G76" s="8">
         <v>4</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H76" s="16">
         <v>4</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4362,13 +4438,13 @@
         <v>100</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
       </c>
-      <c r="H77" s="17" t="s">
-        <v>108</v>
+      <c r="H77" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -4392,16 +4468,16 @@
         <v>200</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G78" s="7">
         <v>2</v>
       </c>
-      <c r="H78" s="17" t="s">
-        <v>109</v>
+      <c r="H78" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4422,16 +4498,16 @@
         <v>300</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G79" s="8">
         <v>3</v>
       </c>
-      <c r="H79" s="17" t="s">
-        <v>110</v>
+      <c r="H79" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4452,16 +4528,16 @@
         <v>400</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G80" s="8">
         <v>4</v>
       </c>
-      <c r="H80" s="17" t="s">
-        <v>111</v>
+      <c r="H80" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4482,13 +4558,13 @@
         <v>100</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
       </c>
-      <c r="H81" s="17" t="s">
-        <v>104</v>
+      <c r="H81" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -4512,16 +4588,16 @@
         <v>200</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G82" s="7">
         <v>2</v>
       </c>
-      <c r="H82" s="17" t="s">
-        <v>105</v>
+      <c r="H82" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4542,16 +4618,16 @@
         <v>300</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G83" s="8">
         <v>3</v>
       </c>
-      <c r="H83" s="17" t="s">
-        <v>106</v>
+      <c r="H83" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4572,16 +4648,16 @@
         <v>400</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G84" s="8">
         <v>4</v>
       </c>
-      <c r="H84" s="17" t="s">
-        <v>107</v>
+      <c r="H84" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4602,12 +4678,12 @@
         <v>100</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H85" s="16">
         <v>1</v>
       </c>
       <c r="I85" s="7">
@@ -4632,16 +4708,16 @@
         <v>200</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G86" s="7">
         <v>2</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H86" s="16">
         <v>2</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4662,16 +4738,16 @@
         <v>300</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G87" s="8">
         <v>3</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H87" s="16">
         <v>3</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4692,16 +4768,136 @@
         <v>400</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G88" s="8">
         <v>4</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="16">
         <v>4</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="8">
+        <f>B89*100+C89</f>
+        <v>2201</v>
+      </c>
+      <c r="B89" s="8">
+        <v>22</v>
+      </c>
+      <c r="C89" s="8">
+        <v>1</v>
+      </c>
+      <c r="D89" s="8">
+        <v>10</v>
+      </c>
+      <c r="E89" s="7">
+        <v>100</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" s="7">
+        <v>1</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A90" s="8">
+        <f t="shared" ref="A90:A92" si="22">B90*100+C90</f>
+        <v>2202</v>
+      </c>
+      <c r="B90" s="8">
+        <v>22</v>
+      </c>
+      <c r="C90" s="8">
+        <v>2</v>
+      </c>
+      <c r="D90" s="7">
+        <v>20</v>
+      </c>
+      <c r="E90" s="7">
+        <v>200</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G90" s="7">
+        <v>2</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A91" s="8">
+        <f t="shared" si="22"/>
+        <v>2203</v>
+      </c>
+      <c r="B91" s="8">
+        <v>22</v>
+      </c>
+      <c r="C91" s="8">
+        <v>3</v>
+      </c>
+      <c r="D91" s="8">
+        <v>30</v>
+      </c>
+      <c r="E91" s="8">
+        <v>300</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G91" s="8">
+        <v>3</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="8">
+        <f t="shared" si="22"/>
+        <v>2204</v>
+      </c>
+      <c r="B92" s="8">
+        <v>22</v>
+      </c>
+      <c r="C92" s="8">
+        <v>4</v>
+      </c>
+      <c r="D92" s="8">
+        <v>40</v>
+      </c>
+      <c r="E92" s="8">
+        <v>400</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G92" s="8">
+        <v>4</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CEDAE3-C90D-4DC3-AB41-F785589B2CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C63A20-8AE3-4462-A361-09F451E98096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -345,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DayTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加成类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,31 +521,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold:10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gold:200:stone:100,wood:100,metal:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:200000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -782,6 +758,30 @@
   </si>
   <si>
     <t>25,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1250,7 +1250,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1271,10 +1271,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1306,10 +1306,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1352,13 +1352,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>51</v>
@@ -1388,7 +1388,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>25</v>
@@ -1420,10 +1420,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>52</v>
@@ -1458,7 +1458,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>27</v>
@@ -1490,10 +1490,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>28</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>29</v>
@@ -1563,7 +1563,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>30</v>
@@ -1598,7 +1598,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>40</v>
@@ -1633,13 +1633,13 @@
         <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>76</v>
@@ -1668,7 +1668,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>45</v>
@@ -1703,7 +1703,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>49</v>
@@ -1738,13 +1738,13 @@
         <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>73</v>
@@ -1770,16 +1770,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>76</v>
@@ -1808,13 +1808,13 @@
         <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>77</v>
@@ -1843,7 +1843,7 @@
         <v>58</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>55</v>
@@ -1878,7 +1878,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>56</v>
@@ -1913,7 +1913,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>57</v>
@@ -1948,7 +1948,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>64</v>
@@ -1980,16 +1980,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>77</v>
@@ -2015,16 +2015,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>77</v>
@@ -2050,16 +2050,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>77</v>
@@ -2085,19 +2085,19 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G25" s="8">
         <v>4</v>
@@ -2126,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2157,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>70</v>
@@ -2166,10 +2166,10 @@
         <v>68</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2198,7 +2198,7 @@
         <v>82</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2248,13 +2248,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2308,16 +2308,16 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2338,16 +2338,16 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2368,16 +2368,16 @@
         <v>500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2398,7 +2398,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -2428,7 +2428,7 @@
         <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -2437,7 +2437,7 @@
         <v>50000</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2458,7 +2458,7 @@
         <v>300</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G11" s="8">
         <v>3</v>
@@ -2467,7 +2467,7 @@
         <v>100000</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2488,7 +2488,7 @@
         <v>400</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
@@ -2497,7 +2497,7 @@
         <v>200000</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2518,13 +2518,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -2548,16 +2548,16 @@
         <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2578,16 +2578,16 @@
         <v>300</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G15" s="8">
         <v>3</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2608,16 +2608,16 @@
         <v>400</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2638,13 +2638,13 @@
         <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -2668,16 +2668,16 @@
         <v>200</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2698,16 +2698,16 @@
         <v>300</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2728,16 +2728,16 @@
         <v>400</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2758,13 +2758,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -2788,16 +2788,16 @@
         <v>200</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7">
         <v>2</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2818,16 +2818,16 @@
         <v>300</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G23" s="8">
         <v>3</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2848,16 +2848,16 @@
         <v>400</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2878,13 +2878,13 @@
         <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -2908,16 +2908,16 @@
         <v>200</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G26" s="7">
         <v>2</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2938,16 +2938,16 @@
         <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G27" s="8">
         <v>3</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2968,16 +2968,16 @@
         <v>400</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2998,13 +2998,13 @@
         <v>100</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -3028,16 +3028,16 @@
         <v>200</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G30" s="7">
         <v>2</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3058,16 +3058,16 @@
         <v>300</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3088,16 +3088,16 @@
         <v>400</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G32" s="8">
         <v>4</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3118,7 +3118,7 @@
         <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -3148,7 +3148,7 @@
         <v>200</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G34" s="7">
         <v>2</v>
@@ -3157,7 +3157,7 @@
         <v>5000</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3178,7 +3178,7 @@
         <v>300</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
@@ -3187,7 +3187,7 @@
         <v>10000</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3208,7 +3208,7 @@
         <v>400</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
@@ -3217,7 +3217,7 @@
         <v>20000</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3238,7 +3238,7 @@
         <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -3268,7 +3268,7 @@
         <v>200</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
@@ -3277,7 +3277,7 @@
         <v>5000</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3298,7 +3298,7 @@
         <v>300</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -3307,7 +3307,7 @@
         <v>8000</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3328,7 +3328,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -3337,7 +3337,7 @@
         <v>10000</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3358,7 +3358,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
@@ -3388,7 +3388,7 @@
         <v>200</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
@@ -3397,7 +3397,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3418,7 +3418,7 @@
         <v>300</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G43" s="8">
         <v>3</v>
@@ -3427,7 +3427,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3448,7 +3448,7 @@
         <v>400</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G44" s="8">
         <v>4</v>
@@ -3457,7 +3457,7 @@
         <v>32</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3478,7 +3478,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
@@ -3508,7 +3508,7 @@
         <v>200</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
@@ -3517,7 +3517,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3538,7 +3538,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G47" s="8">
         <v>3</v>
@@ -3547,7 +3547,7 @@
         <v>15</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3568,7 +3568,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G48" s="8">
         <v>4</v>
@@ -3577,7 +3577,7 @@
         <v>20</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3598,13 +3598,13 @@
         <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -3628,16 +3628,16 @@
         <v>200</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3658,16 +3658,16 @@
         <v>300</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G51" s="8">
         <v>3</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3688,16 +3688,16 @@
         <v>400</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3718,13 +3718,13 @@
         <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -3748,16 +3748,16 @@
         <v>200</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G54" s="7">
         <v>2</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3778,16 +3778,16 @@
         <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G55" s="8">
         <v>3</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3808,16 +3808,16 @@
         <v>400</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G56" s="8">
         <v>4</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3838,13 +3838,13 @@
         <v>100</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -3868,16 +3868,16 @@
         <v>200</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G58" s="7">
         <v>2</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3898,16 +3898,16 @@
         <v>300</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G59" s="8">
         <v>3</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3928,16 +3928,16 @@
         <v>400</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G60" s="8">
         <v>4</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3958,13 +3958,13 @@
         <v>100</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -3988,16 +3988,16 @@
         <v>200</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4018,16 +4018,16 @@
         <v>300</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4048,16 +4048,16 @@
         <v>400</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G64" s="8">
         <v>4</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4078,13 +4078,13 @@
         <v>100</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -4108,16 +4108,16 @@
         <v>200</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" s="7">
         <v>2</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4138,16 +4138,16 @@
         <v>300</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" s="8">
         <v>3</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4168,16 +4168,16 @@
         <v>400</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G68" s="8">
         <v>4</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4198,13 +4198,13 @@
         <v>100</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -4228,16 +4228,16 @@
         <v>200</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G70" s="7">
         <v>2</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4258,16 +4258,16 @@
         <v>300</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G71" s="8">
         <v>3</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4288,16 +4288,16 @@
         <v>400</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G72" s="8">
         <v>4</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4318,7 +4318,7 @@
         <v>100</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>200</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
@@ -4357,7 +4357,7 @@
         <v>2</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4378,7 +4378,7 @@
         <v>300</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G75" s="8">
         <v>3</v>
@@ -4387,7 +4387,7 @@
         <v>3</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4408,7 +4408,7 @@
         <v>400</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G76" s="8">
         <v>4</v>
@@ -4417,7 +4417,7 @@
         <v>4</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4438,13 +4438,13 @@
         <v>100</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -4468,16 +4468,16 @@
         <v>200</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G78" s="7">
         <v>2</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4498,16 +4498,16 @@
         <v>300</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G79" s="8">
         <v>3</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4528,16 +4528,16 @@
         <v>400</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G80" s="8">
         <v>4</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4558,13 +4558,13 @@
         <v>100</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -4588,16 +4588,16 @@
         <v>200</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G82" s="7">
         <v>2</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4618,16 +4618,16 @@
         <v>300</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G83" s="8">
         <v>3</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4648,16 +4648,16 @@
         <v>400</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G84" s="8">
         <v>4</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4678,7 +4678,7 @@
         <v>100</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
@@ -4708,7 +4708,7 @@
         <v>200</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G86" s="7">
         <v>2</v>
@@ -4717,7 +4717,7 @@
         <v>2</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4738,7 +4738,7 @@
         <v>300</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G87" s="8">
         <v>3</v>
@@ -4747,7 +4747,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4768,7 +4768,7 @@
         <v>400</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G88" s="8">
         <v>4</v>
@@ -4777,7 +4777,7 @@
         <v>4</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4798,13 +4798,13 @@
         <v>100</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G89" s="7">
         <v>1</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I89" s="7">
         <v>1</v>
@@ -4828,16 +4828,16 @@
         <v>200</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G90" s="7">
         <v>2</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4858,16 +4858,16 @@
         <v>300</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G91" s="8">
         <v>3</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4888,16 +4888,16 @@
         <v>400</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G92" s="8">
         <v>4</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C63A20-8AE3-4462-A361-09F451E98096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D607529-275F-4588-A22A-1E478E385F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="199">
   <si>
     <t>索引</t>
   </si>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加每日黄金税收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>市场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,10 +518,6 @@
   </si>
   <si>
     <t>主城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:200:stone:100,wood:100,metal:100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -782,6 +774,30 @@
   </si>
   <si>
     <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加城池区大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:200,stone:1000,wood:1000,metal:1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:800,stone:10000,wood:10000,metal:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:1600,stone:20000,wood:20000,metal:20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:3200,stone:40000,wood:40000,metal:40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:400,stone:5000,wood:5000,metal:5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1225,7 +1241,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1250,7 +1266,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1259,7 +1275,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>22</v>
@@ -1271,10 +1287,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1285,7 +1301,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>7</v>
@@ -1294,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>18</v>
@@ -1306,10 +1322,10 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1320,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
@@ -1329,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>4</v>
@@ -1352,16 +1368,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8">
@@ -1388,7 +1404,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>25</v>
@@ -1397,7 +1413,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
@@ -1420,19 +1436,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="8">
         <v>4</v>
@@ -1458,7 +1474,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>27</v>
@@ -1467,7 +1483,7 @@
         <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
@@ -1490,10 +1506,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>28</v>
@@ -1502,7 +1518,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="8">
         <v>4</v>
@@ -1528,7 +1544,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>29</v>
@@ -1537,7 +1553,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="8">
         <v>4</v>
@@ -1563,7 +1579,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>30</v>
@@ -1572,7 +1588,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="8">
         <v>4</v>
@@ -1598,7 +1614,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>40</v>
@@ -1607,7 +1623,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="8">
         <v>4</v>
@@ -1633,16 +1649,16 @@
         <v>42</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
@@ -1668,7 +1684,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>45</v>
@@ -1677,7 +1693,7 @@
         <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="8">
         <v>4</v>
@@ -1703,7 +1719,7 @@
         <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>49</v>
@@ -1712,7 +1728,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="8">
         <v>4</v>
@@ -1735,19 +1751,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="8">
         <v>4</v>
@@ -1770,19 +1786,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
@@ -1805,19 +1821,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="8">
         <v>4</v>
@@ -1840,19 +1856,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="8">
         <v>4</v>
@@ -1875,19 +1891,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="8">
         <v>4</v>
@@ -1910,19 +1926,19 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
@@ -1945,19 +1961,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="8">
         <v>4</v>
@@ -1980,19 +1996,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" s="8">
         <v>4</v>
@@ -2015,19 +2031,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G23" s="8">
         <v>4</v>
@@ -2050,19 +2066,19 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="F24" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
@@ -2085,19 +2101,19 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="G25" s="8">
         <v>4</v>
@@ -2126,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2157,19 +2173,19 @@
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2192,13 +2208,13 @@
         <v>44</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2218,16 +2234,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2248,13 +2264,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -2278,16 +2294,16 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2308,16 +2324,16 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2338,16 +2354,16 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2368,16 +2384,16 @@
         <v>500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2398,7 +2414,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -2428,7 +2444,7 @@
         <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -2437,7 +2453,7 @@
         <v>50000</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2458,7 +2474,7 @@
         <v>300</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G11" s="8">
         <v>3</v>
@@ -2467,7 +2483,7 @@
         <v>100000</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2488,7 +2504,7 @@
         <v>400</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
@@ -2497,7 +2513,7 @@
         <v>200000</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2518,13 +2534,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -2548,16 +2564,16 @@
         <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2578,16 +2594,16 @@
         <v>300</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G15" s="8">
         <v>3</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2608,16 +2624,16 @@
         <v>400</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2638,13 +2654,13 @@
         <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -2668,16 +2684,16 @@
         <v>200</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2698,16 +2714,16 @@
         <v>300</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2728,16 +2744,16 @@
         <v>400</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2758,13 +2774,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -2788,16 +2804,16 @@
         <v>200</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7">
         <v>2</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2818,16 +2834,16 @@
         <v>300</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G23" s="8">
         <v>3</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2848,16 +2864,16 @@
         <v>400</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2878,13 +2894,13 @@
         <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -2908,16 +2924,16 @@
         <v>200</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G26" s="7">
         <v>2</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2938,16 +2954,16 @@
         <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G27" s="8">
         <v>3</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2968,16 +2984,16 @@
         <v>400</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2998,13 +3014,13 @@
         <v>100</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -3028,16 +3044,16 @@
         <v>200</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7">
         <v>2</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3058,16 +3074,16 @@
         <v>300</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3088,16 +3104,16 @@
         <v>400</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G32" s="8">
         <v>4</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3118,7 +3134,7 @@
         <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -3148,7 +3164,7 @@
         <v>200</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G34" s="7">
         <v>2</v>
@@ -3157,7 +3173,7 @@
         <v>5000</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3178,7 +3194,7 @@
         <v>300</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
@@ -3187,7 +3203,7 @@
         <v>10000</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3208,7 +3224,7 @@
         <v>400</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
@@ -3217,7 +3233,7 @@
         <v>20000</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3238,7 +3254,7 @@
         <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -3268,7 +3284,7 @@
         <v>200</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
@@ -3277,7 +3293,7 @@
         <v>5000</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3298,7 +3314,7 @@
         <v>300</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -3307,7 +3323,7 @@
         <v>8000</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3328,7 +3344,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -3337,7 +3353,7 @@
         <v>10000</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3358,7 +3374,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
@@ -3388,7 +3404,7 @@
         <v>200</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
@@ -3397,7 +3413,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3418,7 +3434,7 @@
         <v>300</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G43" s="8">
         <v>3</v>
@@ -3427,7 +3443,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3448,7 +3464,7 @@
         <v>400</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G44" s="8">
         <v>4</v>
@@ -3457,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3478,7 +3494,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
@@ -3508,7 +3524,7 @@
         <v>200</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
@@ -3517,7 +3533,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3538,7 +3554,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G47" s="8">
         <v>3</v>
@@ -3547,7 +3563,7 @@
         <v>15</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3568,7 +3584,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G48" s="8">
         <v>4</v>
@@ -3577,7 +3593,7 @@
         <v>20</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3598,13 +3614,13 @@
         <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -3628,16 +3644,16 @@
         <v>200</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3658,16 +3674,16 @@
         <v>300</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G51" s="8">
         <v>3</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3688,16 +3704,16 @@
         <v>400</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3718,13 +3734,13 @@
         <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -3748,16 +3764,16 @@
         <v>200</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G54" s="7">
         <v>2</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3778,16 +3794,16 @@
         <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G55" s="8">
         <v>3</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3808,16 +3824,16 @@
         <v>400</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G56" s="8">
         <v>4</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3838,13 +3854,13 @@
         <v>100</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -3868,16 +3884,16 @@
         <v>200</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G58" s="7">
         <v>2</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3898,16 +3914,16 @@
         <v>300</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G59" s="8">
         <v>3</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3928,16 +3944,16 @@
         <v>400</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G60" s="8">
         <v>4</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3958,13 +3974,13 @@
         <v>100</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -3988,16 +4004,16 @@
         <v>200</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4018,16 +4034,16 @@
         <v>300</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4048,16 +4064,16 @@
         <v>400</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G64" s="8">
         <v>4</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4078,13 +4094,13 @@
         <v>100</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -4108,16 +4124,16 @@
         <v>200</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G66" s="7">
         <v>2</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4138,16 +4154,16 @@
         <v>300</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G67" s="8">
         <v>3</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4168,16 +4184,16 @@
         <v>400</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G68" s="8">
         <v>4</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4198,13 +4214,13 @@
         <v>100</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -4228,16 +4244,16 @@
         <v>200</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G70" s="7">
         <v>2</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4258,16 +4274,16 @@
         <v>300</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G71" s="8">
         <v>3</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4288,16 +4304,16 @@
         <v>400</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G72" s="8">
         <v>4</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4318,7 +4334,7 @@
         <v>100</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
@@ -4348,7 +4364,7 @@
         <v>200</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
@@ -4357,7 +4373,7 @@
         <v>2</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4378,7 +4394,7 @@
         <v>300</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G75" s="8">
         <v>3</v>
@@ -4387,7 +4403,7 @@
         <v>3</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4408,7 +4424,7 @@
         <v>400</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G76" s="8">
         <v>4</v>
@@ -4417,7 +4433,7 @@
         <v>4</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4438,13 +4454,13 @@
         <v>100</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I77" s="7">
         <v>1</v>
@@ -4468,16 +4484,16 @@
         <v>200</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G78" s="7">
         <v>2</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4498,16 +4514,16 @@
         <v>300</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G79" s="8">
         <v>3</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4528,16 +4544,16 @@
         <v>400</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G80" s="8">
         <v>4</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4558,13 +4574,13 @@
         <v>100</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -4588,16 +4604,16 @@
         <v>200</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G82" s="7">
         <v>2</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4618,16 +4634,16 @@
         <v>300</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G83" s="8">
         <v>3</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4648,16 +4664,16 @@
         <v>400</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G84" s="8">
         <v>4</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4678,7 +4694,7 @@
         <v>100</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
@@ -4708,7 +4724,7 @@
         <v>200</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G86" s="7">
         <v>2</v>
@@ -4717,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4738,7 +4754,7 @@
         <v>300</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G87" s="8">
         <v>3</v>
@@ -4747,7 +4763,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4768,7 +4784,7 @@
         <v>400</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G88" s="8">
         <v>4</v>
@@ -4777,7 +4793,7 @@
         <v>4</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4798,13 +4814,13 @@
         <v>100</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="G89" s="7">
         <v>1</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I89" s="7">
         <v>1</v>
@@ -4828,16 +4844,16 @@
         <v>200</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G90" s="7">
         <v>2</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4858,16 +4874,16 @@
         <v>300</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="G91" s="8">
         <v>3</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4888,16 +4904,16 @@
         <v>400</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="G92" s="8">
         <v>4</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D607529-275F-4588-A22A-1E478E385F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4519E4-55BE-40AF-B709-DCBC7D22E0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="206">
   <si>
     <t>索引</t>
   </si>
@@ -757,26 +757,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加城池区大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -798,6 +778,54 @@
   </si>
   <si>
     <t>gold:400,stone:5000,wood:5000,metal:5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加城市内建筑上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:100,stone:100,wood:100,metal:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1238,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1371,13 +1399,13 @@
         <v>117</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="8">
@@ -2128,6 +2156,39 @@
         <v>1</v>
       </c>
       <c r="K25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>23</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8">
+        <v>5</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8">
+        <v>3</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2140,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2264,14 +2325,12 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>188</v>
-      </c>
+      <c r="H4" s="15"/>
       <c r="I4" s="7">
         <v>1</v>
       </c>
@@ -2294,14 +2353,12 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="15" t="s">
-        <v>190</v>
-      </c>
+      <c r="H5" s="15"/>
       <c r="I5" s="7" t="s">
         <v>120</v>
       </c>
@@ -2324,14 +2381,12 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>189</v>
-      </c>
+      <c r="H6" s="15"/>
       <c r="I6" s="7" t="s">
         <v>121</v>
       </c>
@@ -2354,14 +2409,12 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>191</v>
-      </c>
+      <c r="H7" s="15"/>
       <c r="I7" s="7" t="s">
         <v>122</v>
       </c>
@@ -2384,14 +2437,12 @@
         <v>500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>192</v>
-      </c>
+      <c r="H8" s="15"/>
       <c r="I8" s="7" t="s">
         <v>125</v>
       </c>
@@ -2414,7 +2465,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -2444,7 +2495,7 @@
         <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -2474,7 +2525,7 @@
         <v>300</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G11" s="8">
         <v>3</v>
@@ -2504,7 +2555,7 @@
         <v>400</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
@@ -2534,7 +2585,7 @@
         <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
@@ -2564,7 +2615,7 @@
         <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
@@ -2594,7 +2645,7 @@
         <v>300</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G15" s="8">
         <v>3</v>
@@ -2624,7 +2675,7 @@
         <v>400</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
@@ -2654,7 +2705,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -2684,7 +2735,7 @@
         <v>200</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
@@ -2714,7 +2765,7 @@
         <v>300</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
@@ -2744,7 +2795,7 @@
         <v>400</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
@@ -2774,7 +2825,7 @@
         <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
@@ -2804,7 +2855,7 @@
         <v>200</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7">
         <v>2</v>
@@ -2834,7 +2885,7 @@
         <v>300</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G23" s="8">
         <v>3</v>
@@ -2864,7 +2915,7 @@
         <v>400</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
@@ -2894,7 +2945,7 @@
         <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -2924,7 +2975,7 @@
         <v>200</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G26" s="7">
         <v>2</v>
@@ -2954,7 +3005,7 @@
         <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G27" s="8">
         <v>3</v>
@@ -2984,7 +3035,7 @@
         <v>400</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
@@ -3014,7 +3065,7 @@
         <v>100</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
@@ -3044,7 +3095,7 @@
         <v>200</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7">
         <v>2</v>
@@ -3074,7 +3125,7 @@
         <v>300</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
@@ -3104,7 +3155,7 @@
         <v>400</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G32" s="8">
         <v>4</v>
@@ -3134,7 +3185,7 @@
         <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -3164,7 +3215,7 @@
         <v>200</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G34" s="7">
         <v>2</v>
@@ -3194,7 +3245,7 @@
         <v>300</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
@@ -3224,7 +3275,7 @@
         <v>400</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
@@ -3254,7 +3305,7 @@
         <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -3284,7 +3335,7 @@
         <v>200</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
@@ -3314,7 +3365,7 @@
         <v>300</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -3344,7 +3395,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -3374,7 +3425,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
@@ -3404,7 +3455,7 @@
         <v>200</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
@@ -3434,7 +3485,7 @@
         <v>300</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G43" s="8">
         <v>3</v>
@@ -3464,7 +3515,7 @@
         <v>400</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G44" s="8">
         <v>4</v>
@@ -3494,7 +3545,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
@@ -3524,7 +3575,7 @@
         <v>200</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
@@ -3554,7 +3605,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G47" s="8">
         <v>3</v>
@@ -3584,7 +3635,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G48" s="8">
         <v>4</v>
@@ -3614,7 +3665,7 @@
         <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
@@ -3644,7 +3695,7 @@
         <v>200</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
@@ -3674,7 +3725,7 @@
         <v>300</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G51" s="8">
         <v>3</v>
@@ -3704,7 +3755,7 @@
         <v>400</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
@@ -3734,7 +3785,7 @@
         <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
@@ -3764,7 +3815,7 @@
         <v>200</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G54" s="7">
         <v>2</v>
@@ -3794,7 +3845,7 @@
         <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G55" s="8">
         <v>3</v>
@@ -3824,7 +3875,7 @@
         <v>400</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G56" s="8">
         <v>4</v>
@@ -3854,7 +3905,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
@@ -3884,7 +3935,7 @@
         <v>200</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G58" s="7">
         <v>2</v>
@@ -3914,7 +3965,7 @@
         <v>300</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G59" s="8">
         <v>3</v>
@@ -3944,7 +3995,7 @@
         <v>400</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G60" s="8">
         <v>4</v>
@@ -3974,7 +4025,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
@@ -4004,7 +4055,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
@@ -4034,7 +4085,7 @@
         <v>300</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
@@ -4064,7 +4115,7 @@
         <v>400</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G64" s="8">
         <v>4</v>
@@ -4094,7 +4145,7 @@
         <v>100</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
@@ -4124,7 +4175,7 @@
         <v>200</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G66" s="7">
         <v>2</v>
@@ -4154,7 +4205,7 @@
         <v>300</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G67" s="8">
         <v>3</v>
@@ -4184,7 +4235,7 @@
         <v>400</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G68" s="8">
         <v>4</v>
@@ -4214,7 +4265,7 @@
         <v>100</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
@@ -4244,7 +4295,7 @@
         <v>200</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G70" s="7">
         <v>2</v>
@@ -4274,7 +4325,7 @@
         <v>300</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G71" s="8">
         <v>3</v>
@@ -4304,7 +4355,7 @@
         <v>400</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G72" s="8">
         <v>4</v>
@@ -4334,7 +4385,7 @@
         <v>100</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
@@ -4364,7 +4415,7 @@
         <v>200</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
@@ -4394,7 +4445,7 @@
         <v>300</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G75" s="8">
         <v>3</v>
@@ -4424,7 +4475,7 @@
         <v>400</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G76" s="8">
         <v>4</v>
@@ -4454,7 +4505,7 @@
         <v>100</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
@@ -4484,7 +4535,7 @@
         <v>200</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G78" s="7">
         <v>2</v>
@@ -4514,7 +4565,7 @@
         <v>300</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G79" s="8">
         <v>3</v>
@@ -4544,7 +4595,7 @@
         <v>400</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G80" s="8">
         <v>4</v>
@@ -4574,7 +4625,7 @@
         <v>100</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
@@ -4604,7 +4655,7 @@
         <v>200</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G82" s="7">
         <v>2</v>
@@ -4634,7 +4685,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G83" s="8">
         <v>3</v>
@@ -4664,7 +4715,7 @@
         <v>400</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G84" s="8">
         <v>4</v>
@@ -4694,7 +4745,7 @@
         <v>100</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
@@ -4724,7 +4775,7 @@
         <v>200</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G86" s="7">
         <v>2</v>
@@ -4754,7 +4805,7 @@
         <v>300</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G87" s="8">
         <v>3</v>
@@ -4784,7 +4835,7 @@
         <v>400</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G88" s="8">
         <v>4</v>
@@ -4814,7 +4865,7 @@
         <v>100</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G89" s="7">
         <v>1</v>
@@ -4844,7 +4895,7 @@
         <v>200</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G90" s="7">
         <v>2</v>
@@ -4874,7 +4925,7 @@
         <v>300</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G91" s="8">
         <v>3</v>
@@ -4904,7 +4955,7 @@
         <v>400</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G92" s="8">
         <v>4</v>
@@ -4914,6 +4965,156 @@
       </c>
       <c r="I92" s="7" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A93" s="8">
+        <f>B93*100+C93</f>
+        <v>2301</v>
+      </c>
+      <c r="B93" s="8">
+        <v>23</v>
+      </c>
+      <c r="C93" s="8">
+        <v>1</v>
+      </c>
+      <c r="D93" s="8">
+        <v>10</v>
+      </c>
+      <c r="E93" s="7">
+        <v>100</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G93" s="7">
+        <v>1</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="I93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A94" s="8">
+        <f t="shared" ref="A94:A97" si="23">B94*100+C94</f>
+        <v>2302</v>
+      </c>
+      <c r="B94" s="8">
+        <v>23</v>
+      </c>
+      <c r="C94" s="8">
+        <v>2</v>
+      </c>
+      <c r="D94" s="7">
+        <v>20</v>
+      </c>
+      <c r="E94" s="7">
+        <v>200</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G94" s="7">
+        <v>2</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A95" s="8">
+        <f t="shared" si="23"/>
+        <v>2303</v>
+      </c>
+      <c r="B95" s="8">
+        <v>23</v>
+      </c>
+      <c r="C95" s="8">
+        <v>3</v>
+      </c>
+      <c r="D95" s="8">
+        <v>30</v>
+      </c>
+      <c r="E95" s="8">
+        <v>300</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G95" s="8">
+        <v>3</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A96" s="8">
+        <f t="shared" si="23"/>
+        <v>2304</v>
+      </c>
+      <c r="B96" s="8">
+        <v>23</v>
+      </c>
+      <c r="C96" s="8">
+        <v>4</v>
+      </c>
+      <c r="D96" s="8">
+        <v>40</v>
+      </c>
+      <c r="E96" s="8">
+        <v>400</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G96" s="8">
+        <v>4</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A97" s="8">
+        <f t="shared" si="23"/>
+        <v>2305</v>
+      </c>
+      <c r="B97" s="8">
+        <v>23</v>
+      </c>
+      <c r="C97" s="8">
+        <v>5</v>
+      </c>
+      <c r="D97" s="8">
+        <v>50</v>
+      </c>
+      <c r="E97" s="8">
+        <v>500</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G97" s="8">
+        <v>5</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4519E4-55BE-40AF-B709-DCBC7D22E0A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD83DB1-C977-4431-AF40-54D8E3242F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="206">
   <si>
     <t>索引</t>
   </si>
@@ -149,18 +149,6 @@
     <t>牧场</t>
   </si>
   <si>
-    <t>增加每小时石头产量</t>
-  </si>
-  <si>
-    <t>增加每小时铁矿产量</t>
-  </si>
-  <si>
-    <t>增加每小时木头产量</t>
-  </si>
-  <si>
-    <t>增加每小时食物产量</t>
-  </si>
-  <si>
     <t>Stone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英雄带兵上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reserve</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,17 +185,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战略中心</t>
-  </si>
-  <si>
     <t>Strategy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加本城可部署的部队数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Recruit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,30 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提高骑兵四维属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高弓兵四维属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高步兵四维属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedRoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高部队行军速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ArrayString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TroopCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加主城兵役上限值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,62 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AttributeAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrowTower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箭塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GangTower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炮塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range:1,attack:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range:2,attack:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range:3,attack:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range:4,attack:16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range:2,attack:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range:4,attack:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range:6,attack:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range:8,attack:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fortress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -469,18 +362,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否可以建造在野外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以建造数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CanBuildOutSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MainCity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,10 +394,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MarchSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,10 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御型建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fire:5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -576,54 +453,6 @@
     <t>Water:8</t>
   </si>
   <si>
-    <t>1,Attack:1|Defense:2|AtkSpeed:0.5|Burst:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,Attack:2|Defense:3|AtkSpeed:0.8|Burst:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,Attack:3|Defense:4|AtkSpeed:1.2|Burst:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,Attack:4|Defense:5|AtkSpeed:1.8|Burst:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,Attack:1|Defense:2|AtkSpeed:0.5|Burst:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,Attack:2|Defense:3|AtkSpeed:0.8|Burst:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,Attack:3|Defense:4|AtkSpeed:1.2|Burst:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,Attack:4|Defense:5|AtkSpeed:1.8|Burst:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,Attack:1|Defense:2|AtkSpeed:0.5|Burst:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,Attack:2|Defense:3|AtkSpeed:0.8|Burst:8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,Attack:3|Defense:4|AtkSpeed:1.2|Burst:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,Attack:4|Defense:5|AtkSpeed:1.8|Burst:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HeroMaxBlood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -721,10 +550,6 @@
   </si>
   <si>
     <t>可偶遇英雄并且招募他们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -757,10 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加城池区大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gold:200,stone:1000,wood:1000,metal:1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,6 +647,197 @@
   </si>
   <si>
     <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可招募骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可招募弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可招募步兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗受伤的部队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以购买各种资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工棚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkHouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加可建造升级队列数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResearchSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究各种酷炫的科学技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加城池大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑类型
+1-经济类
+2-军事类
+3-装饰类
+4-城外类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装点城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加每小时石头税收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加每小时铁矿税收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加每小时木头税收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加每小时食物税收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外增加英雄带兵上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除类型
+0-不能
+1-移除返回
+2-移除不返还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,7 +916,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,6 +972,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1266,62 +1281,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A6" sqref="A6:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="3" width="16.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22" style="8" customWidth="1"/>
-    <col min="5" max="5" width="40.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="24.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="22" style="8" customWidth="1"/>
+    <col min="6" max="6" width="40.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="30.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="34.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="18.875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="8" customWidth="1"/>
+    <col min="11" max="11" width="27.375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>82</v>
+      <c r="C1" s="19" t="s">
+        <v>194</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1329,54 +1348,55 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="G2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
+      <c r="C3" s="6"/>
+      <c r="D3" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>71</v>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>4</v>
@@ -1384,33 +1404,36 @@
       <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>2</v>
+      <c r="J3" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>196</v>
+        <v>87</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8">
-        <v>5</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="8">
         <v>5</v>
       </c>
@@ -1418,628 +1441,680 @@
         <v>5</v>
       </c>
       <c r="J4" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>83</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="8">
-        <v>4</v>
+      <c r="G5" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="H5" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="8">
         <v>1</v>
       </c>
       <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
         <v>5</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="8">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="H6" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="8">
         <v>3</v>
       </c>
       <c r="J6" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>84</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="8">
-        <v>4</v>
+        <v>199</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="H7" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" s="8">
         <v>2</v>
       </c>
       <c r="J7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="8">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="H8" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="8">
         <v>2</v>
       </c>
       <c r="J8" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>84</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="8">
-        <v>4</v>
+        <v>201</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="H9" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" s="8">
         <v>2</v>
       </c>
       <c r="J9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="8">
-        <v>4</v>
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="H10" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="8">
         <v>2</v>
       </c>
       <c r="J10" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>155</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="8">
-        <v>4</v>
+        <v>203</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="H11" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="8">
         <v>3</v>
       </c>
       <c r="J11" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="8">
-        <v>4</v>
+        <v>73</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="H12" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="8">
         <v>3</v>
       </c>
       <c r="J12" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>86</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="8">
-        <v>4</v>
+        <v>187</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="H13" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="8">
         <v>3</v>
       </c>
       <c r="J13" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>89</v>
+        <v>41</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="8">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="H14" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="8">
         <v>3</v>
       </c>
       <c r="J14" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>90</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="8">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="H15" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" s="8">
         <v>2</v>
       </c>
       <c r="J15" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="8">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="H16" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="8">
         <v>2</v>
       </c>
       <c r="J16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="8">
-        <v>4</v>
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="H17" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" s="8">
         <v>2</v>
       </c>
       <c r="J17" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>95</v>
+        <v>50</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="8">
-        <v>4</v>
+        <v>160</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="H18" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="8">
         <v>3</v>
       </c>
       <c r="J18" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>95</v>
+        <v>51</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="8">
-        <v>4</v>
-      </c>
       <c r="H19" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="8">
         <v>3</v>
       </c>
       <c r="J19" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>95</v>
+        <v>52</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="8">
-        <v>4</v>
-      </c>
       <c r="H20" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="8">
         <v>3</v>
       </c>
       <c r="J20" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20" s="8">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>124</v>
+        <v>166</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="8">
-        <v>4</v>
+        <v>165</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="H21" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I21" s="8">
         <v>2</v>
       </c>
       <c r="J21" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="8">
-        <v>4</v>
+        <v>178</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="H22" s="8">
         <v>1</v>
@@ -2048,103 +2123,112 @@
         <v>1</v>
       </c>
       <c r="J22" s="8">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8">
         <v>10</v>
       </c>
-      <c r="K22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>97</v>
+        <v>181</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="8">
-        <v>4</v>
+        <v>182</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="H23" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
       </c>
       <c r="J23" s="8">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
         <v>10</v>
       </c>
-      <c r="K23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>110</v>
+        <v>81</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="8">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="H24" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
       </c>
       <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
         <v>20</v>
       </c>
-      <c r="K24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>177</v>
+        <v>132</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="8">
-        <v>4</v>
+        <v>135</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="H25" s="8">
         <v>4</v>
@@ -2153,43 +2237,83 @@
         <v>4</v>
       </c>
       <c r="J25" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>187</v>
+        <v>148</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8">
         <v>5</v>
       </c>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
       <c r="I26" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26" s="8">
         <v>0</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1</v>
+      </c>
+      <c r="J27" s="8">
+        <v>3</v>
+      </c>
+      <c r="K27" s="8">
+        <v>10</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2201,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2234,19 +2358,19 @@
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2266,16 +2390,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2295,16 +2419,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2325,7 +2449,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -2353,14 +2477,14 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2381,14 +2505,14 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2409,14 +2533,14 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2437,14 +2561,14 @@
         <v>500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="7" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2465,7 +2589,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -2495,7 +2619,7 @@
         <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -2504,7 +2628,7 @@
         <v>50000</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2525,7 +2649,7 @@
         <v>300</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G11" s="8">
         <v>3</v>
@@ -2534,7 +2658,7 @@
         <v>100000</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2555,7 +2679,7 @@
         <v>400</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
@@ -2564,7 +2688,7 @@
         <v>200000</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2585,13 +2709,13 @@
         <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="I13" s="7">
         <v>1</v>
@@ -2615,16 +2739,16 @@
         <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2645,16 +2769,16 @@
         <v>300</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G15" s="8">
         <v>3</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2675,16 +2799,16 @@
         <v>400</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2705,13 +2829,13 @@
         <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -2735,16 +2859,16 @@
         <v>200</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2765,16 +2889,16 @@
         <v>300</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2795,16 +2919,16 @@
         <v>400</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2825,13 +2949,13 @@
         <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="I21" s="7">
         <v>1</v>
@@ -2855,16 +2979,16 @@
         <v>200</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7">
         <v>2</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2885,16 +3009,16 @@
         <v>300</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G23" s="8">
         <v>3</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2915,16 +3039,16 @@
         <v>400</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -2945,13 +3069,13 @@
         <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -2975,16 +3099,16 @@
         <v>200</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7">
         <v>2</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3005,16 +3129,16 @@
         <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G27" s="8">
         <v>3</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3035,16 +3159,16 @@
         <v>400</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3065,13 +3189,13 @@
         <v>100</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="I29" s="7">
         <v>1</v>
@@ -3095,16 +3219,16 @@
         <v>200</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G30" s="7">
         <v>2</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3125,16 +3249,16 @@
         <v>300</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3155,16 +3279,16 @@
         <v>400</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G32" s="8">
         <v>4</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3185,7 +3309,7 @@
         <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -3215,7 +3339,7 @@
         <v>200</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G34" s="7">
         <v>2</v>
@@ -3224,7 +3348,7 @@
         <v>5000</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3245,7 +3369,7 @@
         <v>300</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
@@ -3254,7 +3378,7 @@
         <v>10000</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3275,7 +3399,7 @@
         <v>400</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
@@ -3284,7 +3408,7 @@
         <v>20000</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3305,7 +3429,7 @@
         <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -3335,7 +3459,7 @@
         <v>200</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
@@ -3344,7 +3468,7 @@
         <v>5000</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3365,7 +3489,7 @@
         <v>300</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -3374,7 +3498,7 @@
         <v>8000</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3395,7 +3519,7 @@
         <v>400</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -3404,7 +3528,7 @@
         <v>10000</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3425,13 +3549,13 @@
         <v>100</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
       </c>
-      <c r="H41" s="16">
-        <v>4</v>
+      <c r="H41" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="I41" s="7">
         <v>1</v>
@@ -3455,16 +3579,16 @@
         <v>200</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
       </c>
-      <c r="H42" s="16">
-        <v>8</v>
+      <c r="H42" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3485,16 +3609,16 @@
         <v>300</v>
       </c>
       <c r="F43" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="8">
+        <v>3</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="G43" s="8">
-        <v>3</v>
-      </c>
-      <c r="H43" s="16">
-        <v>16</v>
-      </c>
       <c r="I43" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3515,16 +3639,16 @@
         <v>400</v>
       </c>
       <c r="F44" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" s="8">
+        <v>4</v>
+      </c>
+      <c r="H44" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="G44" s="8">
-        <v>4</v>
-      </c>
-      <c r="H44" s="16">
-        <v>32</v>
-      </c>
       <c r="I44" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3545,7 +3669,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
@@ -3575,7 +3699,7 @@
         <v>200</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
@@ -3584,7 +3708,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3605,7 +3729,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G47" s="8">
         <v>3</v>
@@ -3614,7 +3738,7 @@
         <v>15</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3635,7 +3759,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G48" s="8">
         <v>4</v>
@@ -3644,7 +3768,7 @@
         <v>20</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3665,13 +3789,13 @@
         <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="I49" s="7">
         <v>1</v>
@@ -3695,16 +3819,16 @@
         <v>200</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3725,16 +3849,16 @@
         <v>300</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G51" s="8">
         <v>3</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3755,16 +3879,16 @@
         <v>400</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3785,13 +3909,13 @@
         <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="I53" s="7">
         <v>1</v>
@@ -3815,16 +3939,16 @@
         <v>200</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G54" s="7">
         <v>2</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3845,16 +3969,16 @@
         <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G55" s="8">
         <v>3</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3875,16 +3999,16 @@
         <v>400</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G56" s="8">
         <v>4</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3905,13 +4029,13 @@
         <v>100</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="I57" s="7">
         <v>1</v>
@@ -3935,16 +4059,16 @@
         <v>200</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G58" s="7">
         <v>2</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3965,16 +4089,16 @@
         <v>300</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G59" s="8">
         <v>3</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3995,16 +4119,16 @@
         <v>400</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G60" s="8">
         <v>4</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4025,13 +4149,13 @@
         <v>100</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="I61" s="7">
         <v>1</v>
@@ -4055,16 +4179,16 @@
         <v>200</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4085,16 +4209,16 @@
         <v>300</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4115,16 +4239,16 @@
         <v>400</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G64" s="8">
         <v>4</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4145,13 +4269,13 @@
         <v>100</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="I65" s="7">
         <v>1</v>
@@ -4175,16 +4299,16 @@
         <v>200</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G66" s="7">
         <v>2</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4205,16 +4329,16 @@
         <v>300</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G67" s="8">
         <v>3</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4235,16 +4359,16 @@
         <v>400</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G68" s="8">
         <v>4</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4265,13 +4389,13 @@
         <v>100</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="I69" s="7">
         <v>1</v>
@@ -4295,16 +4419,16 @@
         <v>200</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G70" s="7">
         <v>2</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4325,16 +4449,16 @@
         <v>300</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G71" s="8">
         <v>3</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4355,16 +4479,16 @@
         <v>400</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G72" s="8">
         <v>4</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4385,13 +4509,13 @@
         <v>100</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
       </c>
-      <c r="H73" s="16">
-        <v>1</v>
+      <c r="H73" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="I73" s="7">
         <v>1</v>
@@ -4415,16 +4539,16 @@
         <v>200</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
       </c>
-      <c r="H74" s="16">
-        <v>2</v>
+      <c r="H74" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4445,16 +4569,16 @@
         <v>300</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G75" s="8">
         <v>3</v>
       </c>
-      <c r="H75" s="16">
-        <v>3</v>
+      <c r="H75" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4475,16 +4599,16 @@
         <v>400</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G76" s="8">
         <v>4</v>
       </c>
-      <c r="H76" s="16">
-        <v>4</v>
+      <c r="H76" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -4505,115 +4629,113 @@
         <v>100</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
       </c>
-      <c r="H77" s="16" t="s">
-        <v>105</v>
-      </c>
+      <c r="H77" s="16"/>
       <c r="I77" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="8">
-        <f t="shared" ref="A78:A80" si="19">B78*100+C78</f>
-        <v>1902</v>
+        <f>B78*100+C78</f>
+        <v>2001</v>
       </c>
       <c r="B78" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C78" s="8">
-        <v>2</v>
-      </c>
-      <c r="D78" s="7">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D78" s="8">
+        <v>10</v>
       </c>
       <c r="E78" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="G78" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>120</v>
+        <v>183</v>
+      </c>
+      <c r="I78" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="8">
-        <f t="shared" si="19"/>
-        <v>1903</v>
+        <f t="shared" ref="A79:A80" si="19">B79*100+C79</f>
+        <v>2002</v>
       </c>
       <c r="B79" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C79" s="8">
-        <v>3</v>
-      </c>
-      <c r="D79" s="8">
-        <v>30</v>
-      </c>
-      <c r="E79" s="8">
-        <v>300</v>
+        <v>2</v>
+      </c>
+      <c r="D79" s="7">
+        <v>20</v>
+      </c>
+      <c r="E79" s="7">
+        <v>200</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G79" s="8">
-        <v>3</v>
+        <v>147</v>
+      </c>
+      <c r="G79" s="7">
+        <v>2</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="8">
         <f t="shared" si="19"/>
-        <v>1904</v>
+        <v>2003</v>
       </c>
       <c r="B80" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C80" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E80" s="8">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="G80" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="8">
         <f>B81*100+C81</f>
-        <v>2001</v>
+        <v>2101</v>
       </c>
       <c r="B81" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C81" s="8">
         <v>1</v>
@@ -4625,13 +4747,13 @@
         <v>100</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
       </c>
-      <c r="H81" s="16" t="s">
-        <v>101</v>
+      <c r="H81" s="16">
+        <v>1</v>
       </c>
       <c r="I81" s="7">
         <v>1</v>
@@ -4640,10 +4762,10 @@
     <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="8">
         <f t="shared" ref="A82:A84" si="20">B82*100+C82</f>
-        <v>2002</v>
+        <v>2102</v>
       </c>
       <c r="B82" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C82" s="8">
         <v>2</v>
@@ -4655,25 +4777,25 @@
         <v>200</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G82" s="7">
         <v>2</v>
       </c>
-      <c r="H82" s="16" t="s">
-        <v>102</v>
+      <c r="H82" s="16">
+        <v>2</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="8">
         <f t="shared" si="20"/>
-        <v>2003</v>
+        <v>2103</v>
       </c>
       <c r="B83" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C83" s="8">
         <v>3</v>
@@ -4685,25 +4807,25 @@
         <v>300</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G83" s="8">
         <v>3</v>
       </c>
-      <c r="H83" s="16" t="s">
-        <v>103</v>
+      <c r="H83" s="16">
+        <v>3</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8">
         <f t="shared" si="20"/>
-        <v>2004</v>
+        <v>2104</v>
       </c>
       <c r="B84" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C84" s="8">
         <v>4</v>
@@ -4715,25 +4837,25 @@
         <v>400</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G84" s="8">
         <v>4</v>
       </c>
-      <c r="H84" s="16" t="s">
-        <v>104</v>
+      <c r="H84" s="16">
+        <v>4</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="8">
         <f>B85*100+C85</f>
-        <v>2101</v>
+        <v>2201</v>
       </c>
       <c r="B85" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C85" s="8">
         <v>1</v>
@@ -4745,13 +4867,13 @@
         <v>100</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
       </c>
-      <c r="H85" s="16">
-        <v>1</v>
+      <c r="H85" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="I85" s="7">
         <v>1</v>
@@ -4760,10 +4882,10 @@
     <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="8">
         <f t="shared" ref="A86:A88" si="21">B86*100+C86</f>
-        <v>2102</v>
+        <v>2202</v>
       </c>
       <c r="B86" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C86" s="8">
         <v>2</v>
@@ -4775,25 +4897,25 @@
         <v>200</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="G86" s="7">
         <v>2</v>
       </c>
-      <c r="H86" s="16">
-        <v>2</v>
+      <c r="H86" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="8">
         <f t="shared" si="21"/>
-        <v>2103</v>
+        <v>2203</v>
       </c>
       <c r="B87" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C87" s="8">
         <v>3</v>
@@ -4805,25 +4927,25 @@
         <v>300</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="G87" s="8">
         <v>3</v>
       </c>
-      <c r="H87" s="16">
-        <v>3</v>
+      <c r="H87" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="8">
         <f t="shared" si="21"/>
-        <v>2104</v>
+        <v>2204</v>
       </c>
       <c r="B88" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C88" s="8">
         <v>4</v>
@@ -4835,25 +4957,25 @@
         <v>400</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="G88" s="8">
         <v>4</v>
       </c>
-      <c r="H88" s="16">
-        <v>4</v>
+      <c r="H88" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="8">
         <f>B89*100+C89</f>
-        <v>2201</v>
+        <v>2301</v>
       </c>
       <c r="B89" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C89" s="8">
         <v>1</v>
@@ -4865,13 +4987,13 @@
         <v>100</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="G89" s="7">
         <v>1</v>
       </c>
-      <c r="H89" s="16" t="s">
-        <v>183</v>
+      <c r="H89" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="I89" s="7">
         <v>1</v>
@@ -4879,11 +5001,11 @@
     </row>
     <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="8">
-        <f t="shared" ref="A90:A92" si="22">B90*100+C90</f>
-        <v>2202</v>
+        <f t="shared" ref="A90:A93" si="22">B90*100+C90</f>
+        <v>2302</v>
       </c>
       <c r="B90" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C90" s="8">
         <v>2</v>
@@ -4895,25 +5017,25 @@
         <v>200</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="G90" s="7">
         <v>2</v>
       </c>
-      <c r="H90" s="16" t="s">
-        <v>184</v>
+      <c r="H90" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="8">
         <f t="shared" si="22"/>
-        <v>2203</v>
+        <v>2303</v>
       </c>
       <c r="B91" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C91" s="8">
         <v>3</v>
@@ -4925,25 +5047,25 @@
         <v>300</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="G91" s="8">
         <v>3</v>
       </c>
-      <c r="H91" s="16" t="s">
-        <v>185</v>
+      <c r="H91" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="8">
         <f t="shared" si="22"/>
-        <v>2204</v>
+        <v>2304</v>
       </c>
       <c r="B92" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C92" s="8">
         <v>4</v>
@@ -4955,166 +5077,76 @@
         <v>400</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="G92" s="8">
         <v>4</v>
       </c>
-      <c r="H92" s="16" t="s">
-        <v>186</v>
+      <c r="H92" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="8">
-        <f>B93*100+C93</f>
-        <v>2301</v>
+        <f t="shared" si="22"/>
+        <v>2305</v>
       </c>
       <c r="B93" s="8">
         <v>23</v>
       </c>
       <c r="C93" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93" s="8">
-        <v>10</v>
-      </c>
-      <c r="E93" s="7">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="E93" s="8">
+        <v>500</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G93" s="7">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="G93" s="8">
+        <v>5</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="I93" s="7">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="8">
-        <f t="shared" ref="A94:A97" si="23">B94*100+C94</f>
-        <v>2302</v>
+        <f t="shared" ref="A94" si="23">B94*100+C94</f>
+        <v>2401</v>
       </c>
       <c r="B94" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C94" s="8">
-        <v>2</v>
-      </c>
-      <c r="D94" s="7">
-        <v>20</v>
-      </c>
-      <c r="E94" s="7">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="D94" s="8">
+        <v>10</v>
+      </c>
+      <c r="E94" s="8">
+        <v>100</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G94" s="7">
-        <v>2</v>
+        <v>198</v>
+      </c>
+      <c r="G94" s="8">
+        <v>1</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A95" s="8">
-        <f t="shared" si="23"/>
-        <v>2303</v>
-      </c>
-      <c r="B95" s="8">
-        <v>23</v>
-      </c>
-      <c r="C95" s="8">
-        <v>3</v>
-      </c>
-      <c r="D95" s="8">
-        <v>30</v>
-      </c>
-      <c r="E95" s="8">
-        <v>300</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G95" s="8">
-        <v>3</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A96" s="8">
-        <f t="shared" si="23"/>
-        <v>2304</v>
-      </c>
-      <c r="B96" s="8">
-        <v>23</v>
-      </c>
-      <c r="C96" s="8">
-        <v>4</v>
-      </c>
-      <c r="D96" s="8">
-        <v>40</v>
-      </c>
-      <c r="E96" s="8">
-        <v>400</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G96" s="8">
-        <v>4</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A97" s="8">
-        <f t="shared" si="23"/>
-        <v>2305</v>
-      </c>
-      <c r="B97" s="8">
-        <v>23</v>
-      </c>
-      <c r="C97" s="8">
-        <v>5</v>
-      </c>
-      <c r="D97" s="8">
-        <v>50</v>
-      </c>
-      <c r="E97" s="8">
-        <v>500</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G97" s="8">
-        <v>5</v>
-      </c>
-      <c r="H97" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD83DB1-C977-4431-AF40-54D8E3242F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076C6327-43EB-4EB6-986F-E61754C86E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="225">
   <si>
     <t>索引</t>
   </si>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兵役所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,127 +254,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>增加每小时黄金税收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddValues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加成类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HourTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitSecs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fortress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeployCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以调动部署部队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑内部UI显示ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,2</t>
-  </si>
-  <si>
-    <t>建造前置条件 建筑,Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>增加每小时黄金税收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddValues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加成类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoreLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HourTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加主城兵役上限值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReserverLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecruitSecs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火坛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水坛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风坛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fortress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeployCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要塞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以调动部署部队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以建造数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑内部UI显示ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -557,27 +517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>影响的值
-22-英灵数量,卡池ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BuildRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,14 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuildCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加城市内建筑上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,22 +606,6 @@
   </si>
   <si>
     <t>Hospital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -838,6 +753,170 @@
   </si>
   <si>
     <t>RemoveType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造前置条件 建筑|Level|最大数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|3|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|1,1|3|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|5,1|2|10,1|3|15,1|4|20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加城市内建筑上限,提升兵力上限，增加部队队列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityTroop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddDescs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵力上限,部队队列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时{0}产量,{0}最大收取量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源存储上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄带兵上限额外增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁匠部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>募兵速度加快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究速度加快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄{0}属性额外增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院伤员容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑建造升级队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要塞部队数量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄刷新数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市容量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1283,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1293,13 +1372,11 @@
     <col min="2" max="3" width="16.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="26.625" style="8" customWidth="1"/>
     <col min="5" max="5" width="22" style="8" customWidth="1"/>
-    <col min="6" max="6" width="40.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="34.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="18.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="8" customWidth="1"/>
-    <col min="11" max="11" width="27.375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="8" customWidth="1"/>
+    <col min="6" max="7" width="49.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="40.5" style="8" customWidth="1"/>
+    <col min="9" max="9" width="34.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="18.875" style="8" customWidth="1"/>
+    <col min="11" max="12" width="19.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
@@ -1310,10 +1387,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1321,23 +1398,23 @@
       <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>60</v>
+      <c r="G1" s="18" t="s">
+        <v>199</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1348,10 +1425,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
@@ -1359,23 +1436,23 @@
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>57</v>
+      <c r="G2" s="13" t="s">
+        <v>198</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1385,9 +1462,11 @@
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -1395,11 +1474,11 @@
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>58</v>
+      <c r="G3" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>4</v>
@@ -1407,8 +1486,8 @@
       <c r="J3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>2</v>
+      <c r="K3" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>4</v>
@@ -1419,24 +1498,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8">
-        <v>5</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="8">
         <v>5</v>
       </c>
@@ -1444,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="K4" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="8">
         <v>0</v>
@@ -1461,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>25</v>
@@ -1470,19 +1549,19 @@
         <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="8">
-        <v>4</v>
+        <v>202</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I5" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="8">
         <v>1</v>
       </c>
       <c r="K5" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L5" s="8">
         <v>0</v>
@@ -1493,34 +1572,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="8">
-        <v>4</v>
+        <v>201</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I6" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="8">
         <v>3</v>
       </c>
       <c r="K6" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6" s="8">
         <v>0</v>
@@ -1537,28 +1616,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="8">
-        <v>4</v>
+        <v>201</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I7" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="8">
         <v>2</v>
       </c>
       <c r="K7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="8">
         <v>0</v>
@@ -1569,34 +1648,34 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="8">
-        <v>4</v>
+        <v>201</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I8" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="8">
         <v>2</v>
       </c>
       <c r="K8" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="8">
         <v>0</v>
@@ -1613,28 +1692,28 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="8">
-        <v>4</v>
+      <c r="H9" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I9" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="8">
         <v>2</v>
       </c>
       <c r="K9" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="8">
         <v>0</v>
@@ -1651,28 +1730,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="8">
-        <v>4</v>
+        <v>201</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I10" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="8">
         <v>2</v>
       </c>
       <c r="K10" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="8">
         <v>0</v>
@@ -1689,28 +1768,28 @@
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="8">
-        <v>4</v>
+      <c r="H11" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="I11" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="8">
         <v>3</v>
       </c>
       <c r="K11" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" s="8">
         <v>0</v>
@@ -1727,28 +1806,28 @@
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="8">
-        <v>4</v>
+        <v>206</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I12" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="8">
         <v>3</v>
       </c>
       <c r="K12" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12" s="8">
         <v>0</v>
@@ -1759,34 +1838,34 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="8">
-        <v>4</v>
-      </c>
       <c r="I13" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="8">
         <v>3</v>
       </c>
       <c r="K13" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="8">
         <v>0</v>
@@ -1797,34 +1876,34 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="8">
-        <v>4</v>
+        <v>209</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="I14" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="8">
         <v>3</v>
       </c>
       <c r="K14" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" s="8">
         <v>0</v>
@@ -1835,34 +1914,34 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="8">
-        <v>4</v>
+        <v>211</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="I15" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" s="8">
         <v>2</v>
       </c>
       <c r="K15" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="8">
         <v>0</v>
@@ -1873,34 +1952,34 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="8">
-        <v>4</v>
+        <v>211</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="I16" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" s="8">
         <v>2</v>
       </c>
       <c r="K16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="8">
         <v>0</v>
@@ -1911,34 +1990,34 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="8">
-        <v>4</v>
+        <v>211</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="I17" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" s="8">
         <v>2</v>
       </c>
       <c r="K17" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="8">
         <v>0</v>
@@ -1949,34 +2028,34 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="8">
-        <v>4</v>
+        <v>212</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I18" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" s="8">
         <v>3</v>
       </c>
       <c r="K18" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18" s="8">
         <v>0</v>
@@ -1987,34 +2066,34 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="8">
-        <v>4</v>
+        <v>212</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I19" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" s="8">
         <v>3</v>
       </c>
       <c r="K19" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19" s="8">
         <v>0</v>
@@ -2025,34 +2104,34 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="8">
-        <v>4</v>
+        <v>212</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I20" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" s="8">
         <v>3</v>
       </c>
       <c r="K20" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" s="8">
         <v>0</v>
@@ -2063,34 +2142,34 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="8">
-        <v>4</v>
+        <v>213</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="I21" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" s="8">
         <v>2</v>
       </c>
       <c r="K21" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="8">
         <v>0</v>
@@ -2101,23 +2180,21 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="I22" s="8">
         <v>1</v>
@@ -2126,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L22" s="8">
         <v>0</v>
@@ -2137,34 +2214,34 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C23" s="7">
         <v>2</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="8">
-        <v>2</v>
+        <v>218</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="I23" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="8">
         <v>1</v>
       </c>
       <c r="K23" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L23" s="8">
         <v>0</v>
@@ -2175,34 +2252,34 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="8">
-        <v>4</v>
+        <v>219</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="I24" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" s="8">
         <v>1</v>
       </c>
       <c r="K24" s="8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L24" s="8">
         <v>2</v>
@@ -2213,25 +2290,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="8">
-        <v>4</v>
+        <v>223</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="I25" s="8">
         <v>4</v>
@@ -2240,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="K25" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L25" s="8">
         <v>0</v>
@@ -2251,32 +2328,32 @@
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8">
+        <v>171</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8">
         <v>5</v>
       </c>
-      <c r="I26" s="8">
-        <v>1</v>
-      </c>
       <c r="J26" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26" s="8">
         <v>0</v>
@@ -2287,30 +2364,30 @@
         <v>24</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C27" s="7">
         <v>3</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="8">
-        <v>1</v>
+      <c r="H27" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="I27" s="8">
         <v>1</v>
       </c>
       <c r="J27" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K27" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L27" s="8">
         <v>1</v>
@@ -2325,10 +2402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2340,11 +2417,11 @@
     <col min="5" max="5" width="30.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="42.625" style="8" customWidth="1"/>
     <col min="7" max="7" width="30.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="59" style="17" customWidth="1"/>
-    <col min="9" max="9" width="30.375" style="8" customWidth="1"/>
+    <col min="8" max="9" width="59" style="17" customWidth="1"/>
+    <col min="10" max="10" width="30.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -2358,22 +2435,25 @@
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2390,19 +2470,22 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -2419,19 +2502,22 @@
         <v>2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <f>B4*100+C4</f>
         <v>101</v>
@@ -2449,17 +2535,22 @@
         <v>100</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H4" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <f t="shared" ref="A5:A7" si="0">B5*100+C5</f>
         <v>102</v>
@@ -2477,17 +2568,20 @@
         <v>200</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H5" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -2505,17 +2599,20 @@
         <v>300</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H6" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -2533,17 +2630,20 @@
         <v>400</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G7" s="8">
         <v>4</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H7" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <f t="shared" ref="A8" si="1">B8*100+C8</f>
         <v>105</v>
@@ -2561,17 +2661,20 @@
         <v>500</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H8" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <f>B9*100+C9</f>
         <v>201</v>
@@ -2589,7 +2692,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -2597,11 +2700,12 @@
       <c r="H9" s="16">
         <v>10000</v>
       </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I9" s="16"/>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <f t="shared" ref="A10:A12" si="2">B10*100+C10</f>
         <v>202</v>
@@ -2619,7 +2723,7 @@
         <v>200</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7">
         <v>2</v>
@@ -2627,11 +2731,12 @@
       <c r="H10" s="16">
         <v>50000</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I10" s="16"/>
+      <c r="J10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <f t="shared" si="2"/>
         <v>203</v>
@@ -2649,7 +2754,7 @@
         <v>300</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G11" s="8">
         <v>3</v>
@@ -2657,11 +2762,12 @@
       <c r="H11" s="16">
         <v>100000</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I11" s="16"/>
+      <c r="J11" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <f t="shared" si="2"/>
         <v>204</v>
@@ -2679,7 +2785,7 @@
         <v>400</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G12" s="8">
         <v>4</v>
@@ -2687,11 +2793,12 @@
       <c r="H12" s="16">
         <v>200000</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I12" s="16"/>
+      <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <f>B13*100+C13</f>
         <v>301</v>
@@ -2709,19 +2816,20 @@
         <v>100</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <f t="shared" ref="A14:A16" si="3">B14*100+C14</f>
         <v>302</v>
@@ -2739,19 +2847,20 @@
         <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <f t="shared" si="3"/>
         <v>303</v>
@@ -2769,19 +2878,20 @@
         <v>300</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G15" s="8">
         <v>3</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <f t="shared" si="3"/>
         <v>304</v>
@@ -2799,19 +2909,20 @@
         <v>400</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G16" s="8">
         <v>4</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <f>B17*100+C17</f>
         <v>401</v>
@@ -2829,19 +2940,20 @@
         <v>100</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f t="shared" ref="A18:A20" si="4">B18*100+C18</f>
         <v>402</v>
@@ -2859,19 +2971,20 @@
         <v>200</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G18" s="7">
         <v>2</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <f t="shared" si="4"/>
         <v>403</v>
@@ -2889,19 +3002,20 @@
         <v>300</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <f t="shared" si="4"/>
         <v>404</v>
@@ -2919,19 +3033,20 @@
         <v>400</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <f>B21*100+C21</f>
         <v>501</v>
@@ -2949,19 +3064,20 @@
         <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <f t="shared" ref="A22:A24" si="5">B22*100+C22</f>
         <v>502</v>
@@ -2979,19 +3095,20 @@
         <v>200</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7">
         <v>2</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <f t="shared" si="5"/>
         <v>503</v>
@@ -3009,19 +3126,20 @@
         <v>300</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G23" s="8">
         <v>3</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <f t="shared" si="5"/>
         <v>504</v>
@@ -3039,19 +3157,20 @@
         <v>400</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G24" s="8">
         <v>4</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <f>B25*100+C25</f>
         <v>601</v>
@@ -3069,19 +3188,20 @@
         <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <f t="shared" ref="A26:A28" si="6">B26*100+C26</f>
         <v>602</v>
@@ -3099,19 +3219,20 @@
         <v>200</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G26" s="7">
         <v>2</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <f t="shared" si="6"/>
         <v>603</v>
@@ -3129,19 +3250,20 @@
         <v>300</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G27" s="8">
         <v>3</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <f t="shared" si="6"/>
         <v>604</v>
@@ -3159,19 +3281,20 @@
         <v>400</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G28" s="8">
         <v>4</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <f>B29*100+C29</f>
         <v>701</v>
@@ -3189,19 +3312,20 @@
         <v>100</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <f t="shared" ref="A30:A32" si="7">B30*100+C30</f>
         <v>702</v>
@@ -3219,19 +3343,20 @@
         <v>200</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G30" s="7">
         <v>2</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <f t="shared" si="7"/>
         <v>703</v>
@@ -3249,19 +3374,20 @@
         <v>300</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G31" s="8">
         <v>3</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <f t="shared" si="7"/>
         <v>704</v>
@@ -3279,19 +3405,20 @@
         <v>400</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G32" s="8">
         <v>4</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <f>B33*100+C33</f>
         <v>801</v>
@@ -3309,7 +3436,7 @@
         <v>100</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G33" s="7">
         <v>1</v>
@@ -3317,11 +3444,12 @@
       <c r="H33" s="16">
         <v>1000</v>
       </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I33" s="16"/>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <f t="shared" ref="A34:A36" si="8">B34*100+C34</f>
         <v>802</v>
@@ -3339,7 +3467,7 @@
         <v>200</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G34" s="7">
         <v>2</v>
@@ -3347,11 +3475,12 @@
       <c r="H34" s="16">
         <v>5000</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I34" s="16"/>
+      <c r="J34" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <f t="shared" si="8"/>
         <v>803</v>
@@ -3369,7 +3498,7 @@
         <v>300</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G35" s="8">
         <v>3</v>
@@ -3377,11 +3506,12 @@
       <c r="H35" s="16">
         <v>10000</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I35" s="16"/>
+      <c r="J35" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <f t="shared" si="8"/>
         <v>804</v>
@@ -3399,7 +3529,7 @@
         <v>400</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G36" s="8">
         <v>4</v>
@@ -3407,11 +3537,12 @@
       <c r="H36" s="16">
         <v>20000</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I36" s="16"/>
+      <c r="J36" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <f>B37*100+C37</f>
         <v>901</v>
@@ -3429,19 +3560,20 @@
         <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
       </c>
-      <c r="H37" s="16">
-        <v>3000</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H37" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <f t="shared" ref="A38:A40" si="9">B38*100+C38</f>
         <v>902</v>
@@ -3459,19 +3591,20 @@
         <v>200</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
       </c>
-      <c r="H38" s="16">
-        <v>5000</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H38" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <f t="shared" si="9"/>
         <v>903</v>
@@ -3489,19 +3622,20 @@
         <v>300</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
       </c>
-      <c r="H39" s="16">
-        <v>8000</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H39" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <f t="shared" si="9"/>
         <v>904</v>
@@ -3519,19 +3653,20 @@
         <v>400</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
       </c>
-      <c r="H40" s="16">
-        <v>10000</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H40" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <f>B41*100+C41</f>
         <v>1001</v>
@@ -3549,19 +3684,20 @@
         <v>100</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="I41" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <f t="shared" ref="A42:A44" si="10">B42*100+C42</f>
         <v>1002</v>
@@ -3579,19 +3715,20 @@
         <v>200</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G42" s="7">
         <v>2</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="8">
         <f t="shared" si="10"/>
         <v>1003</v>
@@ -3609,19 +3746,20 @@
         <v>300</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G43" s="8">
         <v>3</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="8">
         <f t="shared" si="10"/>
         <v>1004</v>
@@ -3639,19 +3777,20 @@
         <v>400</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G44" s="8">
         <v>4</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+      <c r="I44" s="16"/>
+      <c r="J44" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="8">
         <f>B45*100+C45</f>
         <v>1101</v>
@@ -3669,7 +3808,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G45" s="7">
         <v>1</v>
@@ -3677,11 +3816,12 @@
       <c r="H45" s="16">
         <v>5</v>
       </c>
-      <c r="I45" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I45" s="16"/>
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="8">
         <f t="shared" ref="A46:A48" si="11">B46*100+C46</f>
         <v>1102</v>
@@ -3699,7 +3839,7 @@
         <v>200</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
@@ -3707,11 +3847,12 @@
       <c r="H46" s="16">
         <v>10</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I46" s="16"/>
+      <c r="J46" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="8">
         <f t="shared" si="11"/>
         <v>1103</v>
@@ -3729,7 +3870,7 @@
         <v>300</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G47" s="8">
         <v>3</v>
@@ -3737,11 +3878,12 @@
       <c r="H47" s="16">
         <v>15</v>
       </c>
-      <c r="I47" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I47" s="16"/>
+      <c r="J47" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="8">
         <f t="shared" si="11"/>
         <v>1104</v>
@@ -3759,7 +3901,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G48" s="8">
         <v>4</v>
@@ -3767,11 +3909,12 @@
       <c r="H48" s="16">
         <v>20</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I48" s="16"/>
+      <c r="J48" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="8">
         <f>B49*100+C49</f>
         <v>1201</v>
@@ -3789,19 +3932,20 @@
         <v>100</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G49" s="7">
         <v>1</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I49" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="I49" s="16"/>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8">
         <f t="shared" ref="A50:A52" si="12">B50*100+C50</f>
         <v>1202</v>
@@ -3819,19 +3963,20 @@
         <v>200</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="I50" s="16"/>
+      <c r="J50" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="8">
         <f t="shared" si="12"/>
         <v>1203</v>
@@ -3849,19 +3994,20 @@
         <v>300</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G51" s="8">
         <v>3</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="I51" s="16"/>
+      <c r="J51" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="8">
         <f t="shared" si="12"/>
         <v>1204</v>
@@ -3879,19 +4025,20 @@
         <v>400</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G52" s="8">
         <v>4</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="8">
         <f>B53*100+C53</f>
         <v>1301</v>
@@ -3909,19 +4056,20 @@
         <v>100</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I53" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="I53" s="16"/>
+      <c r="J53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="8">
         <f t="shared" ref="A54:A56" si="13">B54*100+C54</f>
         <v>1302</v>
@@ -3939,19 +4087,20 @@
         <v>200</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G54" s="7">
         <v>2</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="I54" s="16"/>
+      <c r="J54" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8">
         <f t="shared" si="13"/>
         <v>1303</v>
@@ -3969,19 +4118,20 @@
         <v>300</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G55" s="8">
         <v>3</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8">
         <f t="shared" si="13"/>
         <v>1304</v>
@@ -3999,19 +4149,20 @@
         <v>400</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G56" s="8">
         <v>4</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8">
         <f>B57*100+C57</f>
         <v>1401</v>
@@ -4029,19 +4180,20 @@
         <v>100</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G57" s="7">
         <v>1</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I57" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+      <c r="I57" s="16"/>
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="8">
         <f t="shared" ref="A58:A60" si="14">B58*100+C58</f>
         <v>1402</v>
@@ -4059,19 +4211,20 @@
         <v>200</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G58" s="7">
         <v>2</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+      <c r="I58" s="16"/>
+      <c r="J58" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8">
         <f t="shared" si="14"/>
         <v>1403</v>
@@ -4089,19 +4242,20 @@
         <v>300</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G59" s="8">
         <v>3</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+      <c r="I59" s="16"/>
+      <c r="J59" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="8">
         <f t="shared" si="14"/>
         <v>1404</v>
@@ -4119,19 +4273,20 @@
         <v>400</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G60" s="8">
         <v>4</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+      <c r="I60" s="16"/>
+      <c r="J60" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8">
         <f>B61*100+C61</f>
         <v>1501</v>
@@ -4149,19 +4304,20 @@
         <v>100</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I61" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="I61" s="16"/>
+      <c r="J61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8">
         <f t="shared" ref="A62:A64" si="15">B62*100+C62</f>
         <v>1502</v>
@@ -4179,19 +4335,20 @@
         <v>200</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G62" s="7">
         <v>2</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="I62" s="16"/>
+      <c r="J62" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="8">
         <f t="shared" si="15"/>
         <v>1503</v>
@@ -4209,19 +4366,20 @@
         <v>300</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="I63" s="16"/>
+      <c r="J63" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="8">
         <f t="shared" si="15"/>
         <v>1504</v>
@@ -4239,19 +4397,20 @@
         <v>400</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G64" s="8">
         <v>4</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="I64" s="16"/>
+      <c r="J64" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="8">
         <f>B65*100+C65</f>
         <v>1601</v>
@@ -4269,19 +4428,20 @@
         <v>100</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G65" s="7">
         <v>1</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I65" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="I65" s="16"/>
+      <c r="J65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="8">
         <f t="shared" ref="A66:A68" si="16">B66*100+C66</f>
         <v>1602</v>
@@ -4299,19 +4459,20 @@
         <v>200</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G66" s="7">
         <v>2</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="I66" s="16"/>
+      <c r="J66" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8">
         <f t="shared" si="16"/>
         <v>1603</v>
@@ -4329,19 +4490,20 @@
         <v>300</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G67" s="8">
         <v>3</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="I67" s="16"/>
+      <c r="J67" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="8">
         <f t="shared" si="16"/>
         <v>1604</v>
@@ -4359,19 +4521,20 @@
         <v>400</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G68" s="8">
         <v>4</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="I68" s="16"/>
+      <c r="J68" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="8">
         <f>B69*100+C69</f>
         <v>1701</v>
@@ -4389,19 +4552,20 @@
         <v>100</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G69" s="7">
         <v>1</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="I69" s="16"/>
+      <c r="J69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="8">
         <f t="shared" ref="A70:A72" si="17">B70*100+C70</f>
         <v>1702</v>
@@ -4419,19 +4583,20 @@
         <v>200</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G70" s="7">
         <v>2</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="I70" s="16"/>
+      <c r="J70" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="8">
         <f t="shared" si="17"/>
         <v>1703</v>
@@ -4449,19 +4614,20 @@
         <v>300</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G71" s="8">
         <v>3</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="I71" s="16"/>
+      <c r="J71" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="8">
         <f t="shared" si="17"/>
         <v>1704</v>
@@ -4479,19 +4645,20 @@
         <v>400</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G72" s="8">
         <v>4</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="I72" s="16"/>
+      <c r="J72" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="8">
         <f>B73*100+C73</f>
         <v>1801</v>
@@ -4509,19 +4676,20 @@
         <v>100</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G73" s="7">
         <v>1</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="I73" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+      <c r="I73" s="16"/>
+      <c r="J73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="8">
         <f t="shared" ref="A74:A76" si="18">B74*100+C74</f>
         <v>1802</v>
@@ -4539,19 +4707,20 @@
         <v>200</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G74" s="7">
         <v>2</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+      <c r="I74" s="16"/>
+      <c r="J74" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="8">
         <f t="shared" si="18"/>
         <v>1803</v>
@@ -4569,19 +4738,20 @@
         <v>300</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G75" s="8">
         <v>3</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>216</v>
+      </c>
+      <c r="I75" s="16"/>
+      <c r="J75" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="8">
         <f t="shared" si="18"/>
         <v>1804</v>
@@ -4599,19 +4769,20 @@
         <v>400</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G76" s="8">
         <v>4</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>217</v>
+      </c>
+      <c r="I76" s="16"/>
+      <c r="J76" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="8">
         <f>B77*100+C77</f>
         <v>1901</v>
@@ -4629,17 +4800,18 @@
         <v>100</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G77" s="7">
         <v>1</v>
       </c>
       <c r="H77" s="16"/>
-      <c r="I77" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I77" s="16"/>
+      <c r="J77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="8">
         <f>B78*100+C78</f>
         <v>2001</v>
@@ -4657,19 +4829,20 @@
         <v>100</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G78" s="7">
         <v>1</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="I78" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="I78" s="16"/>
+      <c r="J78" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="8">
         <f t="shared" ref="A79:A80" si="19">B79*100+C79</f>
         <v>2002</v>
@@ -4687,19 +4860,20 @@
         <v>200</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G79" s="7">
         <v>2</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+      <c r="I79" s="16"/>
+      <c r="J79" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="8">
         <f t="shared" si="19"/>
         <v>2003</v>
@@ -4717,19 +4891,20 @@
         <v>300</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G80" s="8">
         <v>3</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="8">
         <f>B81*100+C81</f>
         <v>2101</v>
@@ -4747,7 +4922,7 @@
         <v>100</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G81" s="7">
         <v>1</v>
@@ -4755,11 +4930,12 @@
       <c r="H81" s="16">
         <v>1</v>
       </c>
-      <c r="I81" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I81" s="16"/>
+      <c r="J81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="8">
         <f t="shared" ref="A82:A84" si="20">B82*100+C82</f>
         <v>2102</v>
@@ -4777,7 +4953,7 @@
         <v>200</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G82" s="7">
         <v>2</v>
@@ -4785,11 +4961,12 @@
       <c r="H82" s="16">
         <v>2</v>
       </c>
-      <c r="I82" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I82" s="16"/>
+      <c r="J82" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="8">
         <f t="shared" si="20"/>
         <v>2103</v>
@@ -4807,7 +4984,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G83" s="8">
         <v>3</v>
@@ -4815,11 +4992,12 @@
       <c r="H83" s="16">
         <v>3</v>
       </c>
-      <c r="I83" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I83" s="16"/>
+      <c r="J83" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="8">
         <f t="shared" si="20"/>
         <v>2104</v>
@@ -4837,7 +5015,7 @@
         <v>400</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G84" s="8">
         <v>4</v>
@@ -4845,11 +5023,12 @@
       <c r="H84" s="16">
         <v>4</v>
       </c>
-      <c r="I84" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I84" s="16"/>
+      <c r="J84" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="8">
         <f>B85*100+C85</f>
         <v>2201</v>
@@ -4867,19 +5046,20 @@
         <v>100</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G85" s="7">
         <v>1</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="I85" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+      <c r="I85" s="16"/>
+      <c r="J85" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="8">
         <f t="shared" ref="A86:A88" si="21">B86*100+C86</f>
         <v>2202</v>
@@ -4897,19 +5077,20 @@
         <v>200</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G86" s="7">
         <v>2</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="I86" s="16"/>
+      <c r="J86" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="8">
         <f t="shared" si="21"/>
         <v>2203</v>
@@ -4927,19 +5108,20 @@
         <v>300</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G87" s="8">
         <v>3</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>222</v>
+      </c>
+      <c r="I87" s="16"/>
+      <c r="J87" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="8">
         <f t="shared" si="21"/>
         <v>2204</v>
@@ -4957,19 +5139,20 @@
         <v>400</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G88" s="8">
         <v>4</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>220</v>
+      </c>
+      <c r="I88" s="16"/>
+      <c r="J88" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="8">
         <f>B89*100+C89</f>
         <v>2301</v>
@@ -4987,19 +5170,20 @@
         <v>100</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G89" s="7">
         <v>1</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="I89" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+      <c r="I89" s="15"/>
+      <c r="J89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="8">
         <f t="shared" ref="A90:A93" si="22">B90*100+C90</f>
         <v>2302</v>
@@ -5017,19 +5201,20 @@
         <v>200</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G90" s="7">
         <v>2</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="I90" s="15"/>
+      <c r="J90" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="8">
         <f t="shared" si="22"/>
         <v>2303</v>
@@ -5047,19 +5232,20 @@
         <v>300</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G91" s="8">
         <v>3</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="I91" s="15"/>
+      <c r="J91" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="8">
         <f t="shared" si="22"/>
         <v>2304</v>
@@ -5077,19 +5263,20 @@
         <v>400</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G92" s="8">
         <v>4</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="I92" s="15"/>
+      <c r="J92" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="8">
         <f t="shared" si="22"/>
         <v>2305</v>
@@ -5107,19 +5294,20 @@
         <v>500</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="G93" s="8">
         <v>5</v>
       </c>
       <c r="H93" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="I93" s="15"/>
+      <c r="J93" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="8">
         <f t="shared" ref="A94" si="23">B94*100+C94</f>
         <v>2401</v>
@@ -5137,16 +5325,17 @@
         <v>100</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="G94" s="8">
         <v>1</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
+      </c>
+      <c r="I94" s="15"/>
+      <c r="J94" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076C6327-43EB-4EB6-986F-E61754C86E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C8F100-0891-4BAB-8C3B-3BD3A401E857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="240">
   <si>
     <t>索引</t>
   </si>
@@ -433,22 +433,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stone:1000,10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone:5000,30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone:10000,50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone:20000,70000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>metal:1000,10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,22 +594,6 @@
   </si>
   <si>
     <t>RecruitVolume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -917,6 +885,93 @@
   </si>
   <si>
     <t>城市容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,3</t>
+  </si>
+  <si>
+    <t>23,4</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>升级前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:1000,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:5000,30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:10000,50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:20000,60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1362,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1387,7 +1442,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>62</v>
@@ -1399,10 +1454,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>22</v>
@@ -1414,7 +1469,7 @@
         <v>21</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1425,7 +1480,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>59</v>
@@ -1437,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>56</v>
@@ -1452,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1504,16 +1559,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8">
@@ -1549,10 +1604,10 @@
         <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I5" s="8">
         <v>4</v>
@@ -1587,10 +1642,10 @@
         <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I6" s="8">
         <v>4</v>
@@ -1622,13 +1677,13 @@
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I7" s="8">
         <v>4</v>
@@ -1660,13 +1715,13 @@
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I8" s="8">
         <v>4</v>
@@ -1698,13 +1753,13 @@
         <v>29</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I9" s="8">
         <v>4</v>
@@ -1736,13 +1791,13 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I10" s="8">
         <v>4</v>
@@ -1774,13 +1829,13 @@
         <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I11" s="8">
         <v>4</v>
@@ -1806,19 +1861,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I12" s="8">
         <v>4</v>
@@ -1844,19 +1899,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I13" s="8">
         <v>4</v>
@@ -1891,10 +1946,10 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I14" s="8">
         <v>4</v>
@@ -1929,10 +1984,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I15" s="8">
         <v>4</v>
@@ -1967,10 +2022,10 @@
         <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I16" s="8">
         <v>4</v>
@@ -2005,10 +2060,10 @@
         <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I17" s="8">
         <v>4</v>
@@ -2034,19 +2089,19 @@
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I18" s="8">
         <v>4</v>
@@ -2072,19 +2127,19 @@
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I19" s="8">
         <v>4</v>
@@ -2110,19 +2165,19 @@
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I20" s="8">
         <v>4</v>
@@ -2142,25 +2197,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I21" s="8">
         <v>4</v>
@@ -2180,21 +2235,21 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I22" s="8">
         <v>1</v>
@@ -2214,25 +2269,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C23" s="7">
         <v>2</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I23" s="8">
         <v>2</v>
@@ -2267,10 +2322,10 @@
         <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I24" s="8">
         <v>4</v>
@@ -2290,25 +2345,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I25" s="8">
         <v>4</v>
@@ -2328,22 +2383,22 @@
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
@@ -2364,21 +2419,21 @@
         <v>24</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C27" s="7">
         <v>3</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I27" s="8">
         <v>1</v>
@@ -2404,20 +2459,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:XFD89"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="8"/>
     <col min="2" max="2" width="21.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24" style="8" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="42.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="30.375" style="8" customWidth="1"/>
-    <col min="8" max="9" width="59" style="17" customWidth="1"/>
+    <col min="3" max="4" width="21.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="24" style="8" customWidth="1"/>
+    <col min="6" max="6" width="30.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="42.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="30.375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="59" style="17" customWidth="1"/>
     <col min="10" max="10" width="30.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2432,22 +2487,22 @@
         <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>221</v>
-      </c>
       <c r="I1" s="18" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>77</v>
@@ -2464,22 +2519,22 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>198</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>78</v>
@@ -2495,20 +2550,20 @@
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>52</v>
+      <c r="H3" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>52</v>
@@ -2528,23 +2583,20 @@
       <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>10</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>100</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>193</v>
+      <c r="G4" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
@@ -2561,22 +2613,24 @@
       <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="7">
         <v>20</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <v>200</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="I5" s="15"/>
+      <c r="G5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>186</v>
+      </c>
       <c r="J5" s="7" t="s">
         <v>79</v>
       </c>
@@ -2592,22 +2646,24 @@
       <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="8">
         <v>30</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>300</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I6" s="15"/>
+      <c r="G6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="J6" s="7" t="s">
         <v>80</v>
       </c>
@@ -2623,22 +2679,24 @@
       <c r="C7" s="8">
         <v>4</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="8">
         <v>40</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>400</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="8">
-        <v>4</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="I7" s="15"/>
+      <c r="G7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="J7" s="7" t="s">
         <v>81</v>
       </c>
@@ -2654,22 +2712,24 @@
       <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="8">
         <v>50</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>500</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="G8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="8">
         <v>5</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>189</v>
+      </c>
       <c r="J8" s="7" t="s">
         <v>83</v>
       </c>
@@ -2685,22 +2745,21 @@
       <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>10</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>100</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="G9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16">
         <v>10000</v>
       </c>
-      <c r="I9" s="16"/>
       <c r="J9" s="7">
         <v>1</v>
       </c>
@@ -2716,22 +2775,24 @@
       <c r="C10" s="8">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="7">
         <v>20</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <v>200</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="G10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="16">
         <v>50000</v>
       </c>
-      <c r="I10" s="16"/>
       <c r="J10" s="7" t="s">
         <v>79</v>
       </c>
@@ -2747,22 +2808,24 @@
       <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="8">
         <v>30</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>300</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="8">
-        <v>3</v>
-      </c>
-      <c r="H11" s="16">
+      <c r="G11" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3</v>
+      </c>
+      <c r="I11" s="16">
         <v>100000</v>
       </c>
-      <c r="I11" s="16"/>
       <c r="J11" s="7" t="s">
         <v>80</v>
       </c>
@@ -2778,22 +2841,24 @@
       <c r="C12" s="8">
         <v>4</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="8">
         <v>40</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>400</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="8">
-        <v>4</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="G12" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="8">
+        <v>4</v>
+      </c>
+      <c r="I12" s="16">
         <v>200000</v>
       </c>
-      <c r="I12" s="16"/>
       <c r="J12" s="7" t="s">
         <v>81</v>
       </c>
@@ -2809,22 +2874,21 @@
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>10</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <v>100</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="15"/>
       <c r="J13" s="7">
         <v>1</v>
       </c>
@@ -2840,22 +2904,24 @@
       <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="7">
         <v>20</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="7">
         <v>200</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2</v>
-      </c>
-      <c r="H14" s="15" t="s">
+      <c r="G14" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="15"/>
       <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
@@ -2871,22 +2937,24 @@
       <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="8">
         <v>30</v>
       </c>
-      <c r="E15" s="8">
+      <c r="F15" s="8">
         <v>300</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="8">
-        <v>3</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="G15" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="8">
+        <v>3</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="15"/>
       <c r="J15" s="7" t="s">
         <v>80</v>
       </c>
@@ -2902,22 +2970,24 @@
       <c r="C16" s="8">
         <v>4</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="8">
         <v>40</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="8">
         <v>400</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="8">
-        <v>4</v>
-      </c>
-      <c r="H16" s="15" t="s">
+      <c r="G16" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="8">
+        <v>4</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="15"/>
       <c r="J16" s="7" t="s">
         <v>81</v>
       </c>
@@ -2933,22 +3003,21 @@
       <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="8">
+      <c r="E17" s="8">
         <v>10</v>
       </c>
-      <c r="E17" s="7">
+      <c r="F17" s="7">
         <v>100</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="16"/>
+      <c r="G17" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>224</v>
+      </c>
       <c r="J17" s="7">
         <v>1</v>
       </c>
@@ -2964,22 +3033,24 @@
       <c r="C18" s="8">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="7">
         <v>20</v>
       </c>
-      <c r="E18" s="7">
+      <c r="F18" s="7">
         <v>200</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="7">
-        <v>2</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="16"/>
+      <c r="G18" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>225</v>
+      </c>
       <c r="J18" s="7" t="s">
         <v>79</v>
       </c>
@@ -2995,22 +3066,24 @@
       <c r="C19" s="8">
         <v>3</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="8">
         <v>30</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="8">
         <v>300</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="8">
-        <v>3</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="16"/>
+      <c r="G19" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>226</v>
+      </c>
       <c r="J19" s="7" t="s">
         <v>80</v>
       </c>
@@ -3026,22 +3099,24 @@
       <c r="C20" s="8">
         <v>4</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="8">
         <v>40</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="8">
         <v>400</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="8">
-        <v>4</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="16"/>
+      <c r="G20" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="8">
+        <v>4</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>227</v>
+      </c>
       <c r="J20" s="7" t="s">
         <v>81</v>
       </c>
@@ -3057,22 +3132,21 @@
       <c r="C21" s="8">
         <v>1</v>
       </c>
-      <c r="D21" s="8">
+      <c r="E21" s="8">
         <v>10</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="7">
         <v>100</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="16"/>
+      <c r="G21" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="J21" s="7">
         <v>1</v>
       </c>
@@ -3088,22 +3162,24 @@
       <c r="C22" s="8">
         <v>2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="7">
         <v>20</v>
       </c>
-      <c r="E22" s="7">
+      <c r="F22" s="7">
         <v>200</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="7">
-        <v>2</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I22" s="16"/>
+      <c r="G22" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="J22" s="7" t="s">
         <v>79</v>
       </c>
@@ -3119,22 +3195,24 @@
       <c r="C23" s="8">
         <v>3</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" s="8">
         <v>30</v>
       </c>
-      <c r="E23" s="8">
+      <c r="F23" s="8">
         <v>300</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G23" s="8">
-        <v>3</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="16"/>
+      <c r="G23" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="8">
+        <v>3</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>111</v>
+      </c>
       <c r="J23" s="7" t="s">
         <v>80</v>
       </c>
@@ -3150,22 +3228,24 @@
       <c r="C24" s="8">
         <v>4</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="8">
         <v>40</v>
       </c>
-      <c r="E24" s="8">
+      <c r="F24" s="8">
         <v>400</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="8">
-        <v>4</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="16"/>
+      <c r="G24" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="8">
+        <v>4</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="J24" s="7" t="s">
         <v>81</v>
       </c>
@@ -3181,22 +3261,21 @@
       <c r="C25" s="8">
         <v>1</v>
       </c>
-      <c r="D25" s="8">
+      <c r="E25" s="8">
         <v>10</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25" s="7">
         <v>100</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="7">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="16"/>
+      <c r="G25" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="J25" s="7">
         <v>1</v>
       </c>
@@ -3212,22 +3291,24 @@
       <c r="C26" s="8">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="7">
         <v>20</v>
       </c>
-      <c r="E26" s="7">
+      <c r="F26" s="7">
         <v>200</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="7">
-        <v>2</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="16"/>
+      <c r="G26" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="J26" s="7" t="s">
         <v>79</v>
       </c>
@@ -3243,22 +3324,24 @@
       <c r="C27" s="8">
         <v>3</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="8">
         <v>30</v>
       </c>
-      <c r="E27" s="8">
+      <c r="F27" s="8">
         <v>300</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="8">
-        <v>3</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="16"/>
+      <c r="G27" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="8">
+        <v>3</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="J27" s="7" t="s">
         <v>80</v>
       </c>
@@ -3274,22 +3357,24 @@
       <c r="C28" s="8">
         <v>4</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="8">
         <v>40</v>
       </c>
-      <c r="E28" s="8">
+      <c r="F28" s="8">
         <v>400</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="8">
-        <v>4</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="16"/>
+      <c r="G28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="8">
+        <v>4</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="J28" s="7" t="s">
         <v>81</v>
       </c>
@@ -3305,22 +3390,21 @@
       <c r="C29" s="8">
         <v>1</v>
       </c>
-      <c r="D29" s="8">
+      <c r="E29" s="8">
         <v>10</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F29" s="7">
         <v>100</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="16"/>
+      <c r="G29" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="J29" s="7">
         <v>1</v>
       </c>
@@ -3336,22 +3420,24 @@
       <c r="C30" s="8">
         <v>2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="7">
         <v>20</v>
       </c>
-      <c r="E30" s="7">
+      <c r="F30" s="7">
         <v>200</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="7">
-        <v>2</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="I30" s="16"/>
+      <c r="G30" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="J30" s="7" t="s">
         <v>79</v>
       </c>
@@ -3367,22 +3453,24 @@
       <c r="C31" s="8">
         <v>3</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" s="8">
         <v>30</v>
       </c>
-      <c r="E31" s="8">
+      <c r="F31" s="8">
         <v>300</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="8">
-        <v>3</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I31" s="16"/>
+      <c r="G31" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="8">
+        <v>3</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="J31" s="7" t="s">
         <v>80</v>
       </c>
@@ -3398,22 +3486,24 @@
       <c r="C32" s="8">
         <v>4</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="8">
         <v>40</v>
       </c>
-      <c r="E32" s="8">
+      <c r="F32" s="8">
         <v>400</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" s="8">
-        <v>4</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="16"/>
+      <c r="G32" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="8">
+        <v>4</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="J32" s="7" t="s">
         <v>81</v>
       </c>
@@ -3429,22 +3519,21 @@
       <c r="C33" s="8">
         <v>1</v>
       </c>
-      <c r="D33" s="8">
+      <c r="E33" s="8">
         <v>10</v>
       </c>
-      <c r="E33" s="7">
+      <c r="F33" s="7">
         <v>100</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="7">
-        <v>1</v>
-      </c>
-      <c r="H33" s="16">
+      <c r="G33" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="16">
         <v>1000</v>
       </c>
-      <c r="I33" s="16"/>
       <c r="J33" s="7">
         <v>1</v>
       </c>
@@ -3460,22 +3549,24 @@
       <c r="C34" s="8">
         <v>2</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="7">
         <v>20</v>
       </c>
-      <c r="E34" s="7">
+      <c r="F34" s="7">
         <v>200</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="7">
-        <v>2</v>
-      </c>
-      <c r="H34" s="16">
+      <c r="G34" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="16">
         <v>5000</v>
       </c>
-      <c r="I34" s="16"/>
       <c r="J34" s="7" t="s">
         <v>79</v>
       </c>
@@ -3491,22 +3582,24 @@
       <c r="C35" s="8">
         <v>3</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="8">
         <v>30</v>
       </c>
-      <c r="E35" s="8">
+      <c r="F35" s="8">
         <v>300</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="8">
-        <v>3</v>
-      </c>
-      <c r="H35" s="16">
+      <c r="G35" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="8">
+        <v>3</v>
+      </c>
+      <c r="I35" s="16">
         <v>10000</v>
       </c>
-      <c r="I35" s="16"/>
       <c r="J35" s="7" t="s">
         <v>80</v>
       </c>
@@ -3522,22 +3615,24 @@
       <c r="C36" s="8">
         <v>4</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="8">
         <v>40</v>
       </c>
-      <c r="E36" s="8">
+      <c r="F36" s="8">
         <v>400</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="8">
-        <v>4</v>
-      </c>
-      <c r="H36" s="16">
+      <c r="G36" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="8">
+        <v>4</v>
+      </c>
+      <c r="I36" s="16">
         <v>20000</v>
       </c>
-      <c r="I36" s="16"/>
       <c r="J36" s="7" t="s">
         <v>81</v>
       </c>
@@ -3553,22 +3648,21 @@
       <c r="C37" s="8">
         <v>1</v>
       </c>
-      <c r="D37" s="8">
+      <c r="E37" s="8">
         <v>10</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F37" s="7">
         <v>100</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="7">
-        <v>1</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="I37" s="16"/>
+      <c r="G37" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="J37" s="7">
         <v>1</v>
       </c>
@@ -3584,22 +3678,24 @@
       <c r="C38" s="8">
         <v>2</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="7">
         <v>20</v>
       </c>
-      <c r="E38" s="7">
+      <c r="F38" s="7">
         <v>200</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="7">
-        <v>2</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I38" s="16"/>
+      <c r="G38" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="7">
+        <v>2</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="J38" s="7" t="s">
         <v>79</v>
       </c>
@@ -3615,22 +3711,24 @@
       <c r="C39" s="8">
         <v>3</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" s="8">
         <v>30</v>
       </c>
-      <c r="E39" s="8">
+      <c r="F39" s="8">
         <v>300</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G39" s="8">
-        <v>3</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="I39" s="16"/>
+      <c r="G39" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="8">
+        <v>3</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>155</v>
+      </c>
       <c r="J39" s="7" t="s">
         <v>80</v>
       </c>
@@ -3646,22 +3744,24 @@
       <c r="C40" s="8">
         <v>4</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="8">
         <v>40</v>
       </c>
-      <c r="E40" s="8">
+      <c r="F40" s="8">
         <v>400</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="8">
-        <v>4</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I40" s="16"/>
+      <c r="G40" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="8">
+        <v>4</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>200</v>
+      </c>
       <c r="J40" s="7" t="s">
         <v>81</v>
       </c>
@@ -3677,22 +3777,21 @@
       <c r="C41" s="8">
         <v>1</v>
       </c>
-      <c r="D41" s="8">
+      <c r="E41" s="8">
         <v>10</v>
       </c>
-      <c r="E41" s="7">
+      <c r="F41" s="7">
         <v>100</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G41" s="7">
-        <v>1</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="I41" s="16"/>
+      <c r="G41" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="J41" s="7">
         <v>1</v>
       </c>
@@ -3708,22 +3807,24 @@
       <c r="C42" s="8">
         <v>2</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="7">
         <v>20</v>
       </c>
-      <c r="E42" s="7">
+      <c r="F42" s="7">
         <v>200</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="7">
-        <v>2</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="I42" s="16"/>
+      <c r="G42" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>159</v>
+      </c>
       <c r="J42" s="7" t="s">
         <v>79</v>
       </c>
@@ -3739,22 +3840,24 @@
       <c r="C43" s="8">
         <v>3</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="8">
         <v>30</v>
       </c>
-      <c r="E43" s="8">
+      <c r="F43" s="8">
         <v>300</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" s="8">
-        <v>3</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="I43" s="16"/>
+      <c r="G43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="8">
+        <v>3</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>160</v>
+      </c>
       <c r="J43" s="7" t="s">
         <v>80</v>
       </c>
@@ -3770,22 +3873,24 @@
       <c r="C44" s="8">
         <v>4</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="8">
         <v>40</v>
       </c>
-      <c r="E44" s="8">
+      <c r="F44" s="8">
         <v>400</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="8">
-        <v>4</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="I44" s="16"/>
+      <c r="G44" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="8">
+        <v>4</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="J44" s="7" t="s">
         <v>81</v>
       </c>
@@ -3801,22 +3906,21 @@
       <c r="C45" s="8">
         <v>1</v>
       </c>
-      <c r="D45" s="8">
+      <c r="E45" s="8">
         <v>10</v>
       </c>
-      <c r="E45" s="7">
+      <c r="F45" s="7">
         <v>100</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="7">
-        <v>1</v>
-      </c>
-      <c r="H45" s="16">
+      <c r="G45" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="16">
         <v>5</v>
       </c>
-      <c r="I45" s="16"/>
       <c r="J45" s="7">
         <v>1</v>
       </c>
@@ -3832,22 +3936,24 @@
       <c r="C46" s="8">
         <v>2</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="7">
         <v>20</v>
       </c>
-      <c r="E46" s="7">
+      <c r="F46" s="7">
         <v>200</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G46" s="7">
-        <v>2</v>
-      </c>
-      <c r="H46" s="16">
+      <c r="G46" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="7">
+        <v>2</v>
+      </c>
+      <c r="I46" s="16">
         <v>10</v>
       </c>
-      <c r="I46" s="16"/>
       <c r="J46" s="7" t="s">
         <v>79</v>
       </c>
@@ -3863,22 +3969,24 @@
       <c r="C47" s="8">
         <v>3</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" s="8">
         <v>30</v>
       </c>
-      <c r="E47" s="8">
+      <c r="F47" s="8">
         <v>300</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="8">
-        <v>3</v>
-      </c>
-      <c r="H47" s="16">
+      <c r="G47" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H47" s="8">
+        <v>3</v>
+      </c>
+      <c r="I47" s="16">
         <v>15</v>
       </c>
-      <c r="I47" s="16"/>
       <c r="J47" s="7" t="s">
         <v>80</v>
       </c>
@@ -3894,22 +4002,24 @@
       <c r="C48" s="8">
         <v>4</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="8">
         <v>40</v>
       </c>
-      <c r="E48" s="8">
+      <c r="F48" s="8">
         <v>400</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G48" s="8">
-        <v>4</v>
-      </c>
-      <c r="H48" s="16">
+      <c r="G48" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="8">
+        <v>4</v>
+      </c>
+      <c r="I48" s="16">
         <v>20</v>
       </c>
-      <c r="I48" s="16"/>
       <c r="J48" s="7" t="s">
         <v>81</v>
       </c>
@@ -3925,22 +4035,21 @@
       <c r="C49" s="8">
         <v>1</v>
       </c>
-      <c r="D49" s="8">
+      <c r="E49" s="8">
         <v>10</v>
       </c>
-      <c r="E49" s="7">
+      <c r="F49" s="7">
         <v>100</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G49" s="7">
-        <v>1</v>
-      </c>
-      <c r="H49" s="16" t="s">
+      <c r="G49" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1</v>
+      </c>
+      <c r="I49" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="I49" s="16"/>
       <c r="J49" s="7">
         <v>1</v>
       </c>
@@ -3956,22 +4065,24 @@
       <c r="C50" s="8">
         <v>2</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="7">
         <v>20</v>
       </c>
-      <c r="E50" s="7">
+      <c r="F50" s="7">
         <v>200</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G50" s="7">
-        <v>2</v>
-      </c>
-      <c r="H50" s="16" t="s">
+      <c r="G50" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="7">
+        <v>2</v>
+      </c>
+      <c r="I50" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I50" s="16"/>
       <c r="J50" s="7" t="s">
         <v>79</v>
       </c>
@@ -3987,22 +4098,24 @@
       <c r="C51" s="8">
         <v>3</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51" s="8">
         <v>30</v>
       </c>
-      <c r="E51" s="8">
+      <c r="F51" s="8">
         <v>300</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G51" s="8">
-        <v>3</v>
-      </c>
-      <c r="H51" s="16" t="s">
+      <c r="G51" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="8">
+        <v>3</v>
+      </c>
+      <c r="I51" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="I51" s="16"/>
       <c r="J51" s="7" t="s">
         <v>80</v>
       </c>
@@ -4018,22 +4131,24 @@
       <c r="C52" s="8">
         <v>4</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" s="8">
         <v>40</v>
       </c>
-      <c r="E52" s="8">
+      <c r="F52" s="8">
         <v>400</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G52" s="8">
-        <v>4</v>
-      </c>
-      <c r="H52" s="16" t="s">
+      <c r="G52" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="8">
+        <v>4</v>
+      </c>
+      <c r="I52" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I52" s="16"/>
       <c r="J52" s="7" t="s">
         <v>81</v>
       </c>
@@ -4049,22 +4164,21 @@
       <c r="C53" s="8">
         <v>1</v>
       </c>
-      <c r="D53" s="8">
+      <c r="E53" s="8">
         <v>10</v>
       </c>
-      <c r="E53" s="7">
+      <c r="F53" s="7">
         <v>100</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G53" s="7">
-        <v>1</v>
-      </c>
-      <c r="H53" s="16" t="s">
+      <c r="G53" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="7">
+        <v>1</v>
+      </c>
+      <c r="I53" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I53" s="16"/>
       <c r="J53" s="7">
         <v>1</v>
       </c>
@@ -4080,22 +4194,24 @@
       <c r="C54" s="8">
         <v>2</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="7">
         <v>20</v>
       </c>
-      <c r="E54" s="7">
+      <c r="F54" s="7">
         <v>200</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G54" s="7">
-        <v>2</v>
-      </c>
-      <c r="H54" s="16" t="s">
+      <c r="G54" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="7">
+        <v>2</v>
+      </c>
+      <c r="I54" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I54" s="16"/>
       <c r="J54" s="7" t="s">
         <v>79</v>
       </c>
@@ -4111,22 +4227,24 @@
       <c r="C55" s="8">
         <v>3</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="8">
         <v>30</v>
       </c>
-      <c r="E55" s="8">
+      <c r="F55" s="8">
         <v>300</v>
       </c>
-      <c r="F55" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G55" s="8">
-        <v>3</v>
-      </c>
-      <c r="H55" s="16" t="s">
+      <c r="G55" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H55" s="8">
+        <v>3</v>
+      </c>
+      <c r="I55" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I55" s="16"/>
       <c r="J55" s="7" t="s">
         <v>80</v>
       </c>
@@ -4142,22 +4260,24 @@
       <c r="C56" s="8">
         <v>4</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" s="8">
         <v>40</v>
       </c>
-      <c r="E56" s="8">
+      <c r="F56" s="8">
         <v>400</v>
       </c>
-      <c r="F56" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G56" s="8">
-        <v>4</v>
-      </c>
-      <c r="H56" s="16" t="s">
+      <c r="G56" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="8">
+        <v>4</v>
+      </c>
+      <c r="I56" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="I56" s="16"/>
       <c r="J56" s="7" t="s">
         <v>81</v>
       </c>
@@ -4173,22 +4293,21 @@
       <c r="C57" s="8">
         <v>1</v>
       </c>
-      <c r="D57" s="8">
+      <c r="E57" s="8">
         <v>10</v>
       </c>
-      <c r="E57" s="7">
+      <c r="F57" s="7">
         <v>100</v>
       </c>
-      <c r="F57" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G57" s="7">
-        <v>1</v>
-      </c>
-      <c r="H57" s="16" t="s">
+      <c r="G57" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H57" s="7">
+        <v>1</v>
+      </c>
+      <c r="I57" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="I57" s="16"/>
       <c r="J57" s="7">
         <v>1</v>
       </c>
@@ -4204,22 +4323,24 @@
       <c r="C58" s="8">
         <v>2</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="7">
         <v>20</v>
       </c>
-      <c r="E58" s="7">
+      <c r="F58" s="7">
         <v>200</v>
       </c>
-      <c r="F58" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G58" s="7">
-        <v>2</v>
-      </c>
-      <c r="H58" s="16" t="s">
+      <c r="G58" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" s="7">
+        <v>2</v>
+      </c>
+      <c r="I58" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I58" s="16"/>
       <c r="J58" s="7" t="s">
         <v>79</v>
       </c>
@@ -4235,22 +4356,24 @@
       <c r="C59" s="8">
         <v>3</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" s="8">
         <v>30</v>
       </c>
-      <c r="E59" s="8">
+      <c r="F59" s="8">
         <v>300</v>
       </c>
-      <c r="F59" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G59" s="8">
-        <v>3</v>
-      </c>
-      <c r="H59" s="16" t="s">
+      <c r="G59" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H59" s="8">
+        <v>3</v>
+      </c>
+      <c r="I59" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I59" s="16"/>
       <c r="J59" s="7" t="s">
         <v>80</v>
       </c>
@@ -4266,22 +4389,24 @@
       <c r="C60" s="8">
         <v>4</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60" s="8">
         <v>40</v>
       </c>
-      <c r="E60" s="8">
+      <c r="F60" s="8">
         <v>400</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G60" s="8">
-        <v>4</v>
-      </c>
-      <c r="H60" s="16" t="s">
+      <c r="G60" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="8">
+        <v>4</v>
+      </c>
+      <c r="I60" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="I60" s="16"/>
       <c r="J60" s="7" t="s">
         <v>81</v>
       </c>
@@ -4297,22 +4422,21 @@
       <c r="C61" s="8">
         <v>1</v>
       </c>
-      <c r="D61" s="8">
+      <c r="E61" s="8">
         <v>10</v>
       </c>
-      <c r="E61" s="7">
+      <c r="F61" s="7">
         <v>100</v>
       </c>
-      <c r="F61" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G61" s="7">
-        <v>1</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I61" s="16"/>
+      <c r="G61" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" s="7">
+        <v>1</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>228</v>
+      </c>
       <c r="J61" s="7">
         <v>1</v>
       </c>
@@ -4328,22 +4452,24 @@
       <c r="C62" s="8">
         <v>2</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="7">
         <v>20</v>
       </c>
-      <c r="E62" s="7">
+      <c r="F62" s="7">
         <v>200</v>
       </c>
-      <c r="F62" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G62" s="7">
-        <v>2</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="I62" s="16"/>
+      <c r="G62" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62" s="7">
+        <v>2</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>229</v>
+      </c>
       <c r="J62" s="7" t="s">
         <v>79</v>
       </c>
@@ -4359,22 +4485,24 @@
       <c r="C63" s="8">
         <v>3</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="8">
         <v>30</v>
       </c>
-      <c r="E63" s="8">
+      <c r="F63" s="8">
         <v>300</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G63" s="8">
-        <v>3</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="I63" s="16"/>
+      <c r="G63" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H63" s="8">
+        <v>3</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>230</v>
+      </c>
       <c r="J63" s="7" t="s">
         <v>80</v>
       </c>
@@ -4390,22 +4518,24 @@
       <c r="C64" s="8">
         <v>4</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" s="8">
         <v>40</v>
       </c>
-      <c r="E64" s="8">
+      <c r="F64" s="8">
         <v>400</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G64" s="8">
-        <v>4</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="I64" s="16"/>
+      <c r="G64" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H64" s="8">
+        <v>4</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>231</v>
+      </c>
       <c r="J64" s="7" t="s">
         <v>81</v>
       </c>
@@ -4421,22 +4551,21 @@
       <c r="C65" s="8">
         <v>1</v>
       </c>
-      <c r="D65" s="8">
+      <c r="E65" s="8">
         <v>10</v>
       </c>
-      <c r="E65" s="7">
+      <c r="F65" s="7">
         <v>100</v>
       </c>
-      <c r="F65" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G65" s="7">
-        <v>1</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I65" s="16"/>
+      <c r="G65" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H65" s="7">
+        <v>1</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>232</v>
+      </c>
       <c r="J65" s="7">
         <v>1</v>
       </c>
@@ -4452,22 +4581,21 @@
       <c r="C66" s="8">
         <v>2</v>
       </c>
-      <c r="D66" s="7">
+      <c r="E66" s="7">
         <v>20</v>
       </c>
-      <c r="E66" s="7">
+      <c r="F66" s="7">
         <v>200</v>
       </c>
-      <c r="F66" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G66" s="7">
-        <v>2</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="I66" s="16"/>
+      <c r="G66" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H66" s="7">
+        <v>2</v>
+      </c>
+      <c r="I66" s="16" t="s">
+        <v>233</v>
+      </c>
       <c r="J66" s="7" t="s">
         <v>79</v>
       </c>
@@ -4483,22 +4611,21 @@
       <c r="C67" s="8">
         <v>3</v>
       </c>
-      <c r="D67" s="8">
+      <c r="E67" s="8">
         <v>30</v>
       </c>
-      <c r="E67" s="8">
+      <c r="F67" s="8">
         <v>300</v>
       </c>
-      <c r="F67" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G67" s="8">
-        <v>3</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="I67" s="16"/>
+      <c r="G67" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H67" s="8">
+        <v>3</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>234</v>
+      </c>
       <c r="J67" s="7" t="s">
         <v>80</v>
       </c>
@@ -4514,22 +4641,21 @@
       <c r="C68" s="8">
         <v>4</v>
       </c>
-      <c r="D68" s="8">
+      <c r="E68" s="8">
         <v>40</v>
       </c>
-      <c r="E68" s="8">
+      <c r="F68" s="8">
         <v>400</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G68" s="8">
-        <v>4</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="I68" s="16"/>
+      <c r="G68" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H68" s="8">
+        <v>4</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>235</v>
+      </c>
       <c r="J68" s="7" t="s">
         <v>81</v>
       </c>
@@ -4545,22 +4671,21 @@
       <c r="C69" s="8">
         <v>1</v>
       </c>
-      <c r="D69" s="8">
+      <c r="E69" s="8">
         <v>10</v>
       </c>
-      <c r="E69" s="7">
+      <c r="F69" s="7">
         <v>100</v>
       </c>
-      <c r="F69" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G69" s="7">
-        <v>1</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I69" s="16"/>
+      <c r="G69" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" s="7">
+        <v>1</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>236</v>
+      </c>
       <c r="J69" s="7">
         <v>1</v>
       </c>
@@ -4576,22 +4701,21 @@
       <c r="C70" s="8">
         <v>2</v>
       </c>
-      <c r="D70" s="7">
+      <c r="E70" s="7">
         <v>20</v>
       </c>
-      <c r="E70" s="7">
+      <c r="F70" s="7">
         <v>200</v>
       </c>
-      <c r="F70" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G70" s="7">
-        <v>2</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="I70" s="16"/>
+      <c r="G70" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H70" s="7">
+        <v>2</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>237</v>
+      </c>
       <c r="J70" s="7" t="s">
         <v>79</v>
       </c>
@@ -4607,22 +4731,21 @@
       <c r="C71" s="8">
         <v>3</v>
       </c>
-      <c r="D71" s="8">
+      <c r="E71" s="8">
         <v>30</v>
       </c>
-      <c r="E71" s="8">
+      <c r="F71" s="8">
         <v>300</v>
       </c>
-      <c r="F71" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G71" s="8">
-        <v>3</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="I71" s="16"/>
+      <c r="G71" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H71" s="8">
+        <v>3</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>238</v>
+      </c>
       <c r="J71" s="7" t="s">
         <v>80</v>
       </c>
@@ -4638,22 +4761,21 @@
       <c r="C72" s="8">
         <v>4</v>
       </c>
-      <c r="D72" s="8">
+      <c r="E72" s="8">
         <v>40</v>
       </c>
-      <c r="E72" s="8">
+      <c r="F72" s="8">
         <v>400</v>
       </c>
-      <c r="F72" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G72" s="8">
-        <v>4</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="I72" s="16"/>
+      <c r="G72" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H72" s="8">
+        <v>4</v>
+      </c>
+      <c r="I72" s="16" t="s">
+        <v>239</v>
+      </c>
       <c r="J72" s="7" t="s">
         <v>81</v>
       </c>
@@ -4669,22 +4791,21 @@
       <c r="C73" s="8">
         <v>1</v>
       </c>
-      <c r="D73" s="8">
+      <c r="E73" s="8">
         <v>10</v>
       </c>
-      <c r="E73" s="7">
+      <c r="F73" s="7">
         <v>100</v>
       </c>
-      <c r="F73" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G73" s="7">
-        <v>1</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I73" s="16"/>
+      <c r="G73" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H73" s="7">
+        <v>1</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>206</v>
+      </c>
       <c r="J73" s="7">
         <v>1</v>
       </c>
@@ -4700,22 +4821,21 @@
       <c r="C74" s="8">
         <v>2</v>
       </c>
-      <c r="D74" s="7">
+      <c r="E74" s="7">
         <v>20</v>
       </c>
-      <c r="E74" s="7">
+      <c r="F74" s="7">
         <v>200</v>
       </c>
-      <c r="F74" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G74" s="7">
-        <v>2</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="I74" s="16"/>
+      <c r="G74" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H74" s="7">
+        <v>2</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>207</v>
+      </c>
       <c r="J74" s="7" t="s">
         <v>79</v>
       </c>
@@ -4731,22 +4851,21 @@
       <c r="C75" s="8">
         <v>3</v>
       </c>
-      <c r="D75" s="8">
+      <c r="E75" s="8">
         <v>30</v>
       </c>
-      <c r="E75" s="8">
+      <c r="F75" s="8">
         <v>300</v>
       </c>
-      <c r="F75" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G75" s="8">
-        <v>3</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="I75" s="16"/>
+      <c r="G75" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" s="8">
+        <v>3</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>208</v>
+      </c>
       <c r="J75" s="7" t="s">
         <v>80</v>
       </c>
@@ -4762,22 +4881,21 @@
       <c r="C76" s="8">
         <v>4</v>
       </c>
-      <c r="D76" s="8">
+      <c r="E76" s="8">
         <v>40</v>
       </c>
-      <c r="E76" s="8">
+      <c r="F76" s="8">
         <v>400</v>
       </c>
-      <c r="F76" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G76" s="8">
-        <v>4</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="I76" s="16"/>
+      <c r="G76" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" s="8">
+        <v>4</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>209</v>
+      </c>
       <c r="J76" s="7" t="s">
         <v>81</v>
       </c>
@@ -4793,19 +4911,18 @@
       <c r="C77" s="8">
         <v>1</v>
       </c>
-      <c r="D77" s="8">
+      <c r="E77" s="8">
         <v>10</v>
       </c>
-      <c r="E77" s="7">
+      <c r="F77" s="7">
         <v>100</v>
       </c>
-      <c r="F77" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G77" s="7">
-        <v>1</v>
-      </c>
-      <c r="H77" s="16"/>
+      <c r="G77" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H77" s="7">
+        <v>1</v>
+      </c>
       <c r="I77" s="16"/>
       <c r="J77" s="7">
         <v>1</v>
@@ -4822,22 +4939,21 @@
       <c r="C78" s="8">
         <v>1</v>
       </c>
-      <c r="D78" s="8">
+      <c r="E78" s="8">
         <v>10</v>
       </c>
-      <c r="E78" s="7">
+      <c r="F78" s="7">
         <v>100</v>
       </c>
-      <c r="F78" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G78" s="7">
-        <v>1</v>
-      </c>
-      <c r="H78" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="I78" s="16"/>
+      <c r="G78" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" s="7">
+        <v>1</v>
+      </c>
+      <c r="I78" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="J78" s="7">
         <v>1</v>
       </c>
@@ -4853,22 +4969,21 @@
       <c r="C79" s="8">
         <v>2</v>
       </c>
-      <c r="D79" s="7">
+      <c r="E79" s="7">
         <v>20</v>
       </c>
-      <c r="E79" s="7">
+      <c r="F79" s="7">
         <v>200</v>
       </c>
-      <c r="F79" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G79" s="7">
-        <v>2</v>
-      </c>
-      <c r="H79" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I79" s="16"/>
+      <c r="G79" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H79" s="7">
+        <v>2</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="J79" s="7" t="s">
         <v>79</v>
       </c>
@@ -4884,22 +4999,21 @@
       <c r="C80" s="8">
         <v>3</v>
       </c>
-      <c r="D80" s="8">
+      <c r="E80" s="8">
         <v>30</v>
       </c>
-      <c r="E80" s="8">
+      <c r="F80" s="8">
         <v>300</v>
       </c>
-      <c r="F80" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G80" s="8">
-        <v>3</v>
-      </c>
-      <c r="H80" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="I80" s="16"/>
+      <c r="G80" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="8">
+        <v>3</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>155</v>
+      </c>
       <c r="J80" s="7" t="s">
         <v>80</v>
       </c>
@@ -4915,22 +5029,21 @@
       <c r="C81" s="8">
         <v>1</v>
       </c>
-      <c r="D81" s="8">
+      <c r="E81" s="8">
         <v>10</v>
       </c>
-      <c r="E81" s="7">
+      <c r="F81" s="7">
         <v>100</v>
       </c>
-      <c r="F81" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G81" s="7">
-        <v>1</v>
-      </c>
-      <c r="H81" s="16">
-        <v>1</v>
-      </c>
-      <c r="I81" s="16"/>
+      <c r="G81" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H81" s="7">
+        <v>1</v>
+      </c>
+      <c r="I81" s="16">
+        <v>1</v>
+      </c>
       <c r="J81" s="7">
         <v>1</v>
       </c>
@@ -4946,22 +5059,21 @@
       <c r="C82" s="8">
         <v>2</v>
       </c>
-      <c r="D82" s="7">
+      <c r="E82" s="7">
         <v>20</v>
       </c>
-      <c r="E82" s="7">
+      <c r="F82" s="7">
         <v>200</v>
       </c>
-      <c r="F82" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G82" s="7">
-        <v>2</v>
-      </c>
-      <c r="H82" s="16">
-        <v>2</v>
-      </c>
-      <c r="I82" s="16"/>
+      <c r="G82" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H82" s="7">
+        <v>2</v>
+      </c>
+      <c r="I82" s="16">
+        <v>2</v>
+      </c>
       <c r="J82" s="7" t="s">
         <v>79</v>
       </c>
@@ -4977,22 +5089,21 @@
       <c r="C83" s="8">
         <v>3</v>
       </c>
-      <c r="D83" s="8">
+      <c r="E83" s="8">
         <v>30</v>
       </c>
-      <c r="E83" s="8">
+      <c r="F83" s="8">
         <v>300</v>
       </c>
-      <c r="F83" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G83" s="8">
-        <v>3</v>
-      </c>
-      <c r="H83" s="16">
-        <v>3</v>
-      </c>
-      <c r="I83" s="16"/>
+      <c r="G83" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H83" s="8">
+        <v>3</v>
+      </c>
+      <c r="I83" s="16">
+        <v>3</v>
+      </c>
       <c r="J83" s="7" t="s">
         <v>80</v>
       </c>
@@ -5008,22 +5119,21 @@
       <c r="C84" s="8">
         <v>4</v>
       </c>
-      <c r="D84" s="8">
+      <c r="E84" s="8">
         <v>40</v>
       </c>
-      <c r="E84" s="8">
+      <c r="F84" s="8">
         <v>400</v>
       </c>
-      <c r="F84" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G84" s="8">
-        <v>4</v>
-      </c>
-      <c r="H84" s="16">
-        <v>4</v>
-      </c>
-      <c r="I84" s="16"/>
+      <c r="G84" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H84" s="8">
+        <v>4</v>
+      </c>
+      <c r="I84" s="16">
+        <v>4</v>
+      </c>
       <c r="J84" s="7" t="s">
         <v>81</v>
       </c>
@@ -5039,22 +5149,21 @@
       <c r="C85" s="8">
         <v>1</v>
       </c>
-      <c r="D85" s="8">
+      <c r="E85" s="8">
         <v>10</v>
       </c>
-      <c r="E85" s="7">
+      <c r="F85" s="7">
         <v>100</v>
       </c>
-      <c r="F85" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G85" s="7">
-        <v>1</v>
-      </c>
-      <c r="H85" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I85" s="16"/>
+      <c r="G85" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H85" s="7">
+        <v>1</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="J85" s="7">
         <v>1</v>
       </c>
@@ -5070,22 +5179,21 @@
       <c r="C86" s="8">
         <v>2</v>
       </c>
-      <c r="D86" s="7">
+      <c r="E86" s="7">
         <v>20</v>
       </c>
-      <c r="E86" s="7">
+      <c r="F86" s="7">
         <v>200</v>
       </c>
-      <c r="F86" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G86" s="7">
-        <v>2</v>
-      </c>
-      <c r="H86" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="I86" s="16"/>
+      <c r="G86" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H86" s="7">
+        <v>2</v>
+      </c>
+      <c r="I86" s="16" t="s">
+        <v>160</v>
+      </c>
       <c r="J86" s="7" t="s">
         <v>79</v>
       </c>
@@ -5101,22 +5209,21 @@
       <c r="C87" s="8">
         <v>3</v>
       </c>
-      <c r="D87" s="8">
+      <c r="E87" s="8">
         <v>30</v>
       </c>
-      <c r="E87" s="8">
+      <c r="F87" s="8">
         <v>300</v>
       </c>
-      <c r="F87" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G87" s="8">
-        <v>3</v>
-      </c>
-      <c r="H87" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="I87" s="16"/>
+      <c r="G87" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H87" s="8">
+        <v>3</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>214</v>
+      </c>
       <c r="J87" s="7" t="s">
         <v>80</v>
       </c>
@@ -5132,22 +5239,21 @@
       <c r="C88" s="8">
         <v>4</v>
       </c>
-      <c r="D88" s="8">
+      <c r="E88" s="8">
         <v>40</v>
       </c>
-      <c r="E88" s="8">
+      <c r="F88" s="8">
         <v>400</v>
       </c>
-      <c r="F88" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G88" s="8">
-        <v>4</v>
-      </c>
-      <c r="H88" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="I88" s="16"/>
+      <c r="G88" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H88" s="8">
+        <v>4</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>212</v>
+      </c>
       <c r="J88" s="7" t="s">
         <v>81</v>
       </c>
@@ -5163,22 +5269,21 @@
       <c r="C89" s="8">
         <v>1</v>
       </c>
-      <c r="D89" s="8">
+      <c r="E89" s="8">
         <v>10</v>
       </c>
-      <c r="E89" s="7">
+      <c r="F89" s="7">
         <v>100</v>
       </c>
-      <c r="F89" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G89" s="7">
-        <v>1</v>
-      </c>
-      <c r="H89" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I89" s="15"/>
+      <c r="G89" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H89" s="7">
+        <v>1</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="J89" s="7">
         <v>1</v>
       </c>
@@ -5194,22 +5299,21 @@
       <c r="C90" s="8">
         <v>2</v>
       </c>
-      <c r="D90" s="7">
+      <c r="E90" s="7">
         <v>20</v>
       </c>
-      <c r="E90" s="7">
+      <c r="F90" s="7">
         <v>200</v>
       </c>
-      <c r="F90" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G90" s="7">
-        <v>2</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="I90" s="15"/>
+      <c r="G90" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H90" s="7">
+        <v>2</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>134</v>
+      </c>
       <c r="J90" s="7" t="s">
         <v>80</v>
       </c>
@@ -5225,22 +5329,21 @@
       <c r="C91" s="8">
         <v>3</v>
       </c>
-      <c r="D91" s="8">
+      <c r="E91" s="8">
         <v>30</v>
       </c>
-      <c r="E91" s="8">
+      <c r="F91" s="8">
         <v>300</v>
       </c>
-      <c r="F91" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G91" s="8">
-        <v>3</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="I91" s="15"/>
+      <c r="G91" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H91" s="8">
+        <v>3</v>
+      </c>
+      <c r="I91" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="J91" s="7" t="s">
         <v>83</v>
       </c>
@@ -5256,24 +5359,23 @@
       <c r="C92" s="8">
         <v>4</v>
       </c>
-      <c r="D92" s="8">
+      <c r="E92" s="8">
         <v>40</v>
       </c>
-      <c r="E92" s="8">
+      <c r="F92" s="8">
         <v>400</v>
       </c>
-      <c r="F92" s="12" t="s">
+      <c r="G92" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H92" s="8">
+        <v>4</v>
+      </c>
+      <c r="I92" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G92" s="8">
-        <v>4</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I92" s="15"/>
       <c r="J92" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5287,24 +5389,23 @@
       <c r="C93" s="8">
         <v>5</v>
       </c>
-      <c r="D93" s="8">
+      <c r="E93" s="8">
         <v>50</v>
       </c>
-      <c r="E93" s="8">
+      <c r="F93" s="8">
         <v>500</v>
       </c>
-      <c r="F93" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G93" s="8">
+      <c r="G93" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H93" s="8">
         <v>5</v>
       </c>
-      <c r="H93" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I93" s="15"/>
+      <c r="I93" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="J93" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5318,24 +5419,23 @@
       <c r="C94" s="8">
         <v>1</v>
       </c>
-      <c r="D94" s="8">
+      <c r="E94" s="8">
         <v>10</v>
       </c>
-      <c r="E94" s="8">
+      <c r="F94" s="8">
         <v>100</v>
       </c>
-      <c r="F94" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G94" s="8">
-        <v>1</v>
-      </c>
-      <c r="H94" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="I94" s="15"/>
+      <c r="G94" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H94" s="8">
+        <v>1</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="J94" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C8F100-0891-4BAB-8C3B-3BD3A401E857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B44F441-EBC3-4093-8C57-A6719FB0808D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Tavern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HeroRecruit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -713,265 +709,269 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RemoveType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造前置条件 建筑|Level|最大数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|3|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|1,1|3|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|5,1|2|10,1|3|15,1|4|20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加城市内建筑上限,提升兵力上限，增加部队队列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityTroop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddDescs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵力上限,部队队列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每小时{0}产量,{0}最大收取量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源存储上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄带兵上限额外增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁匠部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>募兵速度加快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究速度加快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄{0}属性额外增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院伤员容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑建造升级队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要塞部队数量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄刷新数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,3</t>
+  </si>
+  <si>
+    <t>23,4</t>
+  </si>
+  <si>
+    <t>23,5</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>升级前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:1000,10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:5000,30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:10000,50000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone:20000,60000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tavern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>移除类型
 0-不能
-1-移除返回
+1-移除返还资源
 2-移除不返还</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RemoveType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|2|1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造前置条件 建筑|Level|最大数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|3|1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|1,1|3|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|5,1|2|10,1|3|15,1|4|20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|1|10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加城市内建筑上限,提升兵力上限，增加部队队列数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityTroop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddDescs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵力上限,部队队列数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每小时{0}产量,{0}最大收取量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源存储上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄带兵上限额外增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁匠部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>募兵速度加快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究速度加快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄{0}属性额外增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练容量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院伤员容量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑建造升级队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>要塞部队数量上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄刷新数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市容量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23,3</t>
-  </si>
-  <si>
-    <t>23,4</t>
-  </si>
-  <si>
-    <t>23,5</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>升级前置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone:1000,10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone:5000,30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone:10000,50000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone:20000,60000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1417,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1442,7 +1442,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>62</v>
@@ -1454,10 +1454,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>22</v>
@@ -1469,7 +1469,7 @@
         <v>21</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1480,7 +1480,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>59</v>
@@ -1492,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>56</v>
@@ -1507,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1559,16 +1559,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8">
@@ -1604,10 +1604,10 @@
         <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I5" s="8">
         <v>4</v>
@@ -1642,10 +1642,10 @@
         <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I6" s="8">
         <v>4</v>
@@ -1677,13 +1677,13 @@
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I7" s="8">
         <v>4</v>
@@ -1715,13 +1715,13 @@
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I8" s="8">
         <v>4</v>
@@ -1753,13 +1753,13 @@
         <v>29</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I9" s="8">
         <v>4</v>
@@ -1791,13 +1791,13 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I10" s="8">
         <v>4</v>
@@ -1829,13 +1829,13 @@
         <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I11" s="8">
         <v>4</v>
@@ -1861,19 +1861,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="H12" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I12" s="8">
         <v>4</v>
@@ -1899,19 +1899,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I13" s="8">
         <v>4</v>
@@ -1946,10 +1946,10 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I14" s="8">
         <v>4</v>
@@ -1984,10 +1984,10 @@
         <v>85</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I15" s="8">
         <v>4</v>
@@ -2022,10 +2022,10 @@
         <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I16" s="8">
         <v>4</v>
@@ -2060,10 +2060,10 @@
         <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I17" s="8">
         <v>4</v>
@@ -2089,19 +2089,19 @@
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I18" s="8">
         <v>4</v>
@@ -2127,19 +2127,19 @@
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I19" s="8">
         <v>4</v>
@@ -2165,19 +2165,19 @@
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I20" s="8">
         <v>4</v>
@@ -2197,25 +2197,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I21" s="8">
         <v>4</v>
@@ -2235,21 +2235,21 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I22" s="8">
         <v>1</v>
@@ -2269,25 +2269,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I23" s="8">
         <v>2</v>
@@ -2322,10 +2322,10 @@
         <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I24" s="8">
         <v>4</v>
@@ -2345,25 +2345,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I25" s="8">
         <v>4</v>
@@ -2383,22 +2383,22 @@
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="7">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
@@ -2419,21 +2419,21 @@
         <v>24</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="7">
         <v>3</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I27" s="8">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" s="8">
         <v>1</v>
@@ -2459,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2487,13 +2487,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>55</v>
@@ -2502,7 +2502,7 @@
         <v>53</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>77</v>
@@ -2590,13 +2590,13 @@
         <v>100</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
@@ -2614,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E5" s="7">
         <v>20</v>
@@ -2623,13 +2623,13 @@
         <v>200</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>79</v>
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E6" s="8">
         <v>30</v>
@@ -2656,13 +2656,13 @@
         <v>300</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" s="8">
         <v>3</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>80</v>
@@ -2680,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E7" s="8">
         <v>40</v>
@@ -2689,13 +2689,13 @@
         <v>400</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="8">
         <v>4</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>81</v>
@@ -2713,7 +2713,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E8" s="8">
         <v>50</v>
@@ -2722,13 +2722,13 @@
         <v>500</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H8" s="8">
         <v>5</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>83</v>
@@ -2752,7 +2752,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2785,7 +2785,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2809,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E11" s="8">
         <v>30</v>
@@ -2818,7 +2818,7 @@
         <v>300</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H11" s="8">
         <v>3</v>
@@ -2842,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E12" s="8">
         <v>40</v>
@@ -2851,7 +2851,7 @@
         <v>400</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="8">
         <v>4</v>
@@ -2881,7 +2881,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2914,7 +2914,7 @@
         <v>200</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2938,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E15" s="8">
         <v>30</v>
@@ -2947,7 +2947,7 @@
         <v>300</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="8">
         <v>3</v>
@@ -2971,7 +2971,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E16" s="8">
         <v>40</v>
@@ -2980,7 +2980,7 @@
         <v>400</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" s="8">
         <v>4</v>
@@ -3010,13 +3010,13 @@
         <v>100</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J17" s="7">
         <v>1</v>
@@ -3043,13 +3043,13 @@
         <v>200</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>79</v>
@@ -3067,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E19" s="8">
         <v>30</v>
@@ -3076,13 +3076,13 @@
         <v>300</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" s="8">
         <v>3</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>80</v>
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E20" s="8">
         <v>40</v>
@@ -3109,13 +3109,13 @@
         <v>400</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" s="8">
         <v>4</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>81</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="8">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F21" s="7">
         <v>100</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>200</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3196,7 +3196,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E23" s="8">
         <v>30</v>
@@ -3205,7 +3205,7 @@
         <v>300</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H23" s="8">
         <v>3</v>
@@ -3229,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E24" s="8">
         <v>40</v>
@@ -3238,7 +3238,7 @@
         <v>400</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H24" s="8">
         <v>4</v>
@@ -3268,7 +3268,7 @@
         <v>100</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>200</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3325,7 +3325,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E27" s="8">
         <v>30</v>
@@ -3334,7 +3334,7 @@
         <v>300</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H27" s="8">
         <v>3</v>
@@ -3358,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E28" s="8">
         <v>40</v>
@@ -3367,7 +3367,7 @@
         <v>400</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H28" s="8">
         <v>4</v>
@@ -3397,7 +3397,7 @@
         <v>100</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3430,7 +3430,7 @@
         <v>200</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -3454,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E31" s="8">
         <v>30</v>
@@ -3463,7 +3463,7 @@
         <v>300</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H31" s="8">
         <v>3</v>
@@ -3487,7 +3487,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E32" s="8">
         <v>40</v>
@@ -3496,7 +3496,7 @@
         <v>400</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" s="8">
         <v>4</v>
@@ -3526,7 +3526,7 @@
         <v>100</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -3559,7 +3559,7 @@
         <v>200</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E35" s="8">
         <v>30</v>
@@ -3592,7 +3592,7 @@
         <v>300</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H35" s="8">
         <v>3</v>
@@ -3616,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E36" s="8">
         <v>40</v>
@@ -3625,7 +3625,7 @@
         <v>400</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H36" s="8">
         <v>4</v>
@@ -3655,13 +3655,13 @@
         <v>100</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J37" s="7">
         <v>1</v>
@@ -3688,13 +3688,13 @@
         <v>200</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>79</v>
@@ -3712,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E39" s="8">
         <v>30</v>
@@ -3721,13 +3721,13 @@
         <v>300</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H39" s="8">
         <v>3</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>80</v>
@@ -3745,7 +3745,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E40" s="8">
         <v>40</v>
@@ -3754,13 +3754,13 @@
         <v>400</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H40" s="8">
         <v>4</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>81</v>
@@ -3784,13 +3784,13 @@
         <v>100</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J41" s="7">
         <v>1</v>
@@ -3817,13 +3817,13 @@
         <v>200</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>79</v>
@@ -3841,7 +3841,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E43" s="8">
         <v>30</v>
@@ -3850,13 +3850,13 @@
         <v>300</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H43" s="8">
         <v>3</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>80</v>
@@ -3874,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E44" s="8">
         <v>40</v>
@@ -3883,13 +3883,13 @@
         <v>400</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H44" s="8">
         <v>4</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>81</v>
@@ -3913,7 +3913,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -3946,7 +3946,7 @@
         <v>200</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -3970,7 +3970,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E47" s="8">
         <v>30</v>
@@ -3979,7 +3979,7 @@
         <v>300</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H47" s="8">
         <v>3</v>
@@ -4003,7 +4003,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E48" s="8">
         <v>40</v>
@@ -4012,7 +4012,7 @@
         <v>400</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H48" s="8">
         <v>4</v>
@@ -4042,7 +4042,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -4075,7 +4075,7 @@
         <v>200</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
@@ -4099,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E51" s="8">
         <v>30</v>
@@ -4108,7 +4108,7 @@
         <v>300</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H51" s="8">
         <v>3</v>
@@ -4132,7 +4132,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E52" s="8">
         <v>40</v>
@@ -4141,7 +4141,7 @@
         <v>400</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H52" s="8">
         <v>4</v>
@@ -4171,7 +4171,7 @@
         <v>100</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -4204,7 +4204,7 @@
         <v>200</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H54" s="7">
         <v>2</v>
@@ -4228,7 +4228,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E55" s="8">
         <v>30</v>
@@ -4237,7 +4237,7 @@
         <v>300</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H55" s="8">
         <v>3</v>
@@ -4261,7 +4261,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E56" s="8">
         <v>40</v>
@@ -4270,7 +4270,7 @@
         <v>400</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H56" s="8">
         <v>4</v>
@@ -4300,7 +4300,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
@@ -4333,7 +4333,7 @@
         <v>200</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -4357,7 +4357,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E59" s="8">
         <v>30</v>
@@ -4366,7 +4366,7 @@
         <v>300</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H59" s="8">
         <v>3</v>
@@ -4390,7 +4390,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E60" s="8">
         <v>40</v>
@@ -4399,7 +4399,7 @@
         <v>400</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H60" s="8">
         <v>4</v>
@@ -4429,13 +4429,13 @@
         <v>100</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J61" s="7">
         <v>1</v>
@@ -4462,13 +4462,13 @@
         <v>200</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H62" s="7">
         <v>2</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>79</v>
@@ -4486,7 +4486,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E63" s="8">
         <v>30</v>
@@ -4495,13 +4495,13 @@
         <v>300</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H63" s="8">
         <v>3</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>80</v>
@@ -4519,7 +4519,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E64" s="8">
         <v>40</v>
@@ -4528,13 +4528,13 @@
         <v>400</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H64" s="8">
         <v>4</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>81</v>
@@ -4558,13 +4558,13 @@
         <v>100</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J65" s="7">
         <v>1</v>
@@ -4588,13 +4588,13 @@
         <v>200</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>79</v>
@@ -4618,13 +4618,13 @@
         <v>300</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H67" s="8">
         <v>3</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>80</v>
@@ -4648,13 +4648,13 @@
         <v>400</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H68" s="8">
         <v>4</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>81</v>
@@ -4678,13 +4678,13 @@
         <v>100</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J69" s="7">
         <v>1</v>
@@ -4708,13 +4708,13 @@
         <v>200</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>79</v>
@@ -4738,13 +4738,13 @@
         <v>300</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H71" s="8">
         <v>3</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>80</v>
@@ -4768,13 +4768,13 @@
         <v>400</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H72" s="8">
         <v>4</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>81</v>
@@ -4798,13 +4798,13 @@
         <v>100</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J73" s="7">
         <v>1</v>
@@ -4828,13 +4828,13 @@
         <v>200</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>79</v>
@@ -4858,13 +4858,13 @@
         <v>300</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H75" s="8">
         <v>3</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>80</v>
@@ -4888,13 +4888,13 @@
         <v>400</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H76" s="8">
         <v>4</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>81</v>
@@ -4918,7 +4918,7 @@
         <v>100</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -4946,13 +4946,13 @@
         <v>100</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J78" s="7">
         <v>1</v>
@@ -4976,13 +4976,13 @@
         <v>200</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H79" s="7">
         <v>2</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>79</v>
@@ -5006,13 +5006,13 @@
         <v>300</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H80" s="8">
         <v>3</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>80</v>
@@ -5036,7 +5036,7 @@
         <v>100</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
@@ -5066,7 +5066,7 @@
         <v>200</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H82" s="7">
         <v>2</v>
@@ -5096,7 +5096,7 @@
         <v>300</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H83" s="8">
         <v>3</v>
@@ -5126,7 +5126,7 @@
         <v>400</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H84" s="8">
         <v>4</v>
@@ -5156,13 +5156,13 @@
         <v>100</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H85" s="7">
         <v>1</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J85" s="7">
         <v>1</v>
@@ -5186,13 +5186,13 @@
         <v>200</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H86" s="7">
         <v>2</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>79</v>
@@ -5216,13 +5216,13 @@
         <v>300</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H87" s="8">
         <v>3</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>80</v>
@@ -5246,13 +5246,13 @@
         <v>400</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H88" s="8">
         <v>4</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>81</v>
@@ -5276,13 +5276,13 @@
         <v>100</v>
       </c>
       <c r="G89" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H89" s="7">
+        <v>1</v>
+      </c>
+      <c r="I89" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="H89" s="7">
-        <v>1</v>
-      </c>
-      <c r="I89" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="J89" s="7">
         <v>1</v>
@@ -5306,13 +5306,13 @@
         <v>200</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H90" s="7">
         <v>2</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J90" s="7" t="s">
         <v>80</v>
@@ -5336,13 +5336,13 @@
         <v>300</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H91" s="8">
         <v>3</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>83</v>
@@ -5366,16 +5366,16 @@
         <v>400</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H92" s="8">
         <v>4</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5396,16 +5396,16 @@
         <v>500</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H93" s="8">
         <v>5</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5426,16 +5426,16 @@
         <v>100</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H94" s="8">
         <v>1</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B44F441-EBC3-4093-8C57-A6719FB0808D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B4702-412A-49BF-903E-1541E225B94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -869,10 +869,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英雄刷新数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>城市容量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -972,6 +968,10 @@
 0-不能
 1-移除返还资源
 2-移除不返还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒馆英雄刷新数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1469,7 +1469,7 @@
         <v>21</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2345,7 +2345,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2360,7 +2360,7 @@
         <v>119</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>177</v>
@@ -2398,7 +2398,7 @@
         <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
@@ -2459,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2487,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
@@ -2614,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E5" s="7">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" s="8">
         <v>30</v>
@@ -2680,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E7" s="8">
         <v>40</v>
@@ -2713,7 +2713,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8" s="8">
         <v>50</v>
@@ -2809,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" s="8">
         <v>30</v>
@@ -2842,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E12" s="8">
         <v>40</v>
@@ -2938,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" s="8">
         <v>30</v>
@@ -2971,7 +2971,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E16" s="8">
         <v>40</v>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J17" s="7">
         <v>1</v>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>79</v>
@@ -3067,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" s="8">
         <v>30</v>
@@ -3082,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>80</v>
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E20" s="8">
         <v>40</v>
@@ -3115,7 +3115,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>81</v>
@@ -3196,7 +3196,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" s="8">
         <v>30</v>
@@ -3229,7 +3229,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E24" s="8">
         <v>40</v>
@@ -3325,7 +3325,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27" s="8">
         <v>30</v>
@@ -3358,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E28" s="8">
         <v>40</v>
@@ -3454,7 +3454,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="8">
         <v>30</v>
@@ -3487,7 +3487,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E32" s="8">
         <v>40</v>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E35" s="8">
         <v>30</v>
@@ -3616,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E36" s="8">
         <v>40</v>
@@ -3712,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="8">
         <v>30</v>
@@ -3745,7 +3745,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E40" s="8">
         <v>40</v>
@@ -3841,7 +3841,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43" s="8">
         <v>30</v>
@@ -3874,7 +3874,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E44" s="8">
         <v>40</v>
@@ -3970,7 +3970,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E47" s="8">
         <v>30</v>
@@ -4003,7 +4003,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E48" s="8">
         <v>40</v>
@@ -4099,7 +4099,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" s="8">
         <v>30</v>
@@ -4132,7 +4132,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E52" s="8">
         <v>40</v>
@@ -4228,7 +4228,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E55" s="8">
         <v>30</v>
@@ -4261,7 +4261,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E56" s="8">
         <v>40</v>
@@ -4357,7 +4357,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" s="8">
         <v>30</v>
@@ -4390,7 +4390,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E60" s="8">
         <v>40</v>
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J61" s="7">
         <v>1</v>
@@ -4468,7 +4468,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>79</v>
@@ -4486,7 +4486,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E63" s="8">
         <v>30</v>
@@ -4501,7 +4501,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>80</v>
@@ -4519,7 +4519,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E64" s="8">
         <v>40</v>
@@ -4534,7 +4534,7 @@
         <v>4</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>81</v>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J65" s="7">
         <v>1</v>
@@ -4594,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>79</v>
@@ -4624,7 +4624,7 @@
         <v>3</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>80</v>
@@ -4654,7 +4654,7 @@
         <v>4</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>81</v>
@@ -4684,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J69" s="7">
         <v>1</v>
@@ -4714,7 +4714,7 @@
         <v>2</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>79</v>
@@ -4744,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>80</v>
@@ -4774,7 +4774,7 @@
         <v>4</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>81</v>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B4702-412A-49BF-903E-1541E225B94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33251ABC-E290-454E-AE5F-522B6B5E6A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="239">
   <si>
     <t>索引</t>
   </si>
@@ -741,43 +741,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加城市内建筑上限,提升兵力上限，增加部队队列数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CityTroop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25000,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AddDescs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>影响标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵力上限,部队队列数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -972,6 +944,30 @@
   </si>
   <si>
     <t>酒馆英雄刷新数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加城市内建筑上限,每日宝箱开启次数，增加部队队列数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日宝箱开启次数,出征部队数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1418,7 +1414,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1454,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>176</v>
@@ -1469,7 +1465,7 @@
         <v>21</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1492,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>56</v>
@@ -1559,16 +1555,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8">
@@ -1604,7 +1600,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>174</v>
@@ -1642,7 +1638,7 @@
         <v>58</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>174</v>
@@ -1680,7 +1676,7 @@
         <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>174</v>
@@ -1718,7 +1714,7 @@
         <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>174</v>
@@ -1756,7 +1752,7 @@
         <v>170</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>174</v>
@@ -1794,7 +1790,7 @@
         <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>174</v>
@@ -1832,7 +1828,7 @@
         <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>175</v>
@@ -1861,16 +1857,16 @@
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>174</v>
@@ -1908,7 +1904,7 @@
         <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>177</v>
@@ -1946,7 +1942,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>177</v>
@@ -1984,7 +1980,7 @@
         <v>85</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>177</v>
@@ -2022,7 +2018,7 @@
         <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>177</v>
@@ -2060,7 +2056,7 @@
         <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>177</v>
@@ -2098,7 +2094,7 @@
         <v>137</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>174</v>
@@ -2136,7 +2132,7 @@
         <v>138</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>174</v>
@@ -2174,7 +2170,7 @@
         <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>174</v>
@@ -2212,7 +2208,7 @@
         <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>178</v>
@@ -2284,7 +2280,7 @@
         <v>151</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>174</v>
@@ -2322,7 +2318,7 @@
         <v>75</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>179</v>
@@ -2345,7 +2341,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2360,7 +2356,7 @@
         <v>119</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>177</v>
@@ -2398,7 +2394,7 @@
         <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
@@ -2459,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:XFD88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2487,7 +2483,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
@@ -2502,7 +2498,7 @@
         <v>53</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>77</v>
@@ -2596,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
@@ -2614,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E5" s="7">
         <v>20</v>
@@ -2629,7 +2625,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>79</v>
@@ -2647,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E6" s="8">
         <v>30</v>
@@ -2662,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>80</v>
@@ -2680,7 +2676,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E7" s="8">
         <v>40</v>
@@ -2695,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>81</v>
@@ -2713,7 +2709,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E8" s="8">
         <v>50</v>
@@ -2728,7 +2724,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>83</v>
@@ -2809,7 +2805,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E11" s="8">
         <v>30</v>
@@ -2842,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E12" s="8">
         <v>40</v>
@@ -2938,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E15" s="8">
         <v>30</v>
@@ -2971,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E16" s="8">
         <v>40</v>
@@ -3016,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="J17" s="7">
         <v>1</v>
@@ -3049,7 +3045,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>79</v>
@@ -3067,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E19" s="8">
         <v>30</v>
@@ -3082,7 +3078,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>80</v>
@@ -3100,7 +3096,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E20" s="8">
         <v>40</v>
@@ -3115,7 +3111,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>81</v>
@@ -3196,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E23" s="8">
         <v>30</v>
@@ -3229,7 +3225,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E24" s="8">
         <v>40</v>
@@ -3325,7 +3321,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E27" s="8">
         <v>30</v>
@@ -3358,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E28" s="8">
         <v>40</v>
@@ -3454,7 +3450,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E31" s="8">
         <v>30</v>
@@ -3487,7 +3483,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E32" s="8">
         <v>40</v>
@@ -3583,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E35" s="8">
         <v>30</v>
@@ -3616,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E36" s="8">
         <v>40</v>
@@ -3712,7 +3708,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E39" s="8">
         <v>30</v>
@@ -3745,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E40" s="8">
         <v>40</v>
@@ -3760,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>81</v>
@@ -3841,7 +3837,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E43" s="8">
         <v>30</v>
@@ -3874,7 +3870,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E44" s="8">
         <v>40</v>
@@ -3970,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E47" s="8">
         <v>30</v>
@@ -4003,7 +3999,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E48" s="8">
         <v>40</v>
@@ -4099,7 +4095,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E51" s="8">
         <v>30</v>
@@ -4132,7 +4128,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E52" s="8">
         <v>40</v>
@@ -4228,7 +4224,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E55" s="8">
         <v>30</v>
@@ -4261,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E56" s="8">
         <v>40</v>
@@ -4357,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E59" s="8">
         <v>30</v>
@@ -4390,7 +4386,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E60" s="8">
         <v>40</v>
@@ -4435,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J61" s="7">
         <v>1</v>
@@ -4468,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>79</v>
@@ -4486,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E63" s="8">
         <v>30</v>
@@ -4501,7 +4497,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>80</v>
@@ -4519,7 +4515,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E64" s="8">
         <v>40</v>
@@ -4534,7 +4530,7 @@
         <v>4</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>81</v>
@@ -4564,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J65" s="7">
         <v>1</v>
@@ -4594,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>79</v>
@@ -4624,7 +4620,7 @@
         <v>3</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>80</v>
@@ -4654,7 +4650,7 @@
         <v>4</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>81</v>
@@ -4684,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="J69" s="7">
         <v>1</v>
@@ -4714,7 +4710,7 @@
         <v>2</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>79</v>
@@ -4744,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>80</v>
@@ -4774,7 +4770,7 @@
         <v>4</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>81</v>
@@ -4804,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="J73" s="7">
         <v>1</v>
@@ -4834,7 +4830,7 @@
         <v>2</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>79</v>
@@ -4864,7 +4860,7 @@
         <v>3</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>80</v>
@@ -4894,7 +4890,7 @@
         <v>4</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>81</v>
@@ -5222,7 +5218,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>80</v>
@@ -5252,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>81</v>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33251ABC-E290-454E-AE5F-522B6B5E6A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9751361-A10A-4072-A300-07309AF6B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2455,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9751361-A10A-4072-A300-07309AF6B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC2CDFC-AC46-4AB8-82E0-11246418E6AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="239">
   <si>
     <t>索引</t>
   </si>
@@ -129,14 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加资源存储上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>采石场</t>
   </si>
   <si>
@@ -153,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Wood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StoreLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HourTax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,18 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gold:2000,10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:4000,20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold:6000,30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gold:8000,40000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,26 +510,6 @@
   </si>
   <si>
     <t>gold:100,stone:100,wood:100,metal:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -757,10 +709,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资源存储上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英雄带兵上限额外增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -838,10 +786,6 @@
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市容量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -968,6 +912,62 @@
   </si>
   <si>
     <t>3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:2000,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:4000,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold:6000,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市面积,可视区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥候营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥候数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可派出斥候探索地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|2,1|2|3,1|3|4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1438,10 +1438,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1450,10 +1450,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>22</v>
@@ -1465,7 +1465,7 @@
         <v>21</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1476,10 +1476,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
@@ -1488,10 +1488,10 @@
         <v>8</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>18</v>
@@ -1503,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1517,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>3</v>
@@ -1526,10 +1526,10 @@
         <v>3</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>4</v>
@@ -1549,22 +1549,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8">
@@ -1585,25 +1585,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="I5" s="8">
         <v>4</v>
@@ -1623,25 +1623,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I6" s="8">
         <v>4</v>
@@ -1661,25 +1661,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I7" s="8">
         <v>4</v>
@@ -1699,25 +1699,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I8" s="8">
         <v>4</v>
@@ -1737,25 +1737,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I9" s="8">
         <v>4</v>
@@ -1775,25 +1775,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I10" s="8">
         <v>4</v>
@@ -1813,25 +1813,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="I11" s="8">
         <v>4</v>
@@ -1851,25 +1851,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I12" s="8">
         <v>4</v>
@@ -1889,25 +1889,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I13" s="8">
         <v>4</v>
@@ -1927,25 +1927,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I14" s="8">
         <v>4</v>
@@ -1965,25 +1965,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I15" s="8">
         <v>4</v>
@@ -2003,25 +2003,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I16" s="8">
         <v>4</v>
@@ -2041,25 +2041,25 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I17" s="8">
         <v>4</v>
@@ -2079,25 +2079,25 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I18" s="8">
         <v>4</v>
@@ -2117,25 +2117,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I19" s="8">
         <v>4</v>
@@ -2155,25 +2155,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I20" s="8">
         <v>4</v>
@@ -2193,25 +2193,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="I21" s="8">
         <v>4</v>
@@ -2231,21 +2231,21 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I22" s="8">
         <v>1</v>
@@ -2265,25 +2265,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C23" s="7">
         <v>2</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I23" s="8">
         <v>2</v>
@@ -2303,25 +2303,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I24" s="8">
         <v>4</v>
@@ -2341,25 +2341,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I25" s="8">
         <v>4</v>
@@ -2379,22 +2379,22 @@
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="8">
@@ -2415,21 +2415,21 @@
         <v>24</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C27" s="7">
         <v>3</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I27" s="8">
         <v>1</v>
@@ -2455,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2483,25 +2483,25 @@
         <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -2515,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -2524,16 +2524,16 @@
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -2547,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>2</v>
@@ -2556,16 +2556,16 @@
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2586,13 +2586,13 @@
         <v>100</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
@@ -2610,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E5" s="7">
         <v>20</v>
@@ -2619,16 +2619,16 @@
         <v>200</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2643,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E6" s="8">
         <v>30</v>
@@ -2652,16 +2652,16 @@
         <v>300</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H6" s="8">
         <v>3</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2676,7 +2676,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E7" s="8">
         <v>40</v>
@@ -2685,16 +2685,16 @@
         <v>400</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H7" s="8">
         <v>4</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2709,7 +2709,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E8" s="8">
         <v>50</v>
@@ -2718,16 +2718,16 @@
         <v>500</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="H8" s="8">
         <v>5</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2742,19 +2742,19 @@
         <v>1</v>
       </c>
       <c r="E9" s="8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F9" s="7">
         <v>100</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="16">
-        <v>10000</v>
+      <c r="I9" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
@@ -2772,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E10" s="7">
         <v>20</v>
@@ -2781,16 +2781,16 @@
         <v>200</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="I10" s="16">
-        <v>50000</v>
+      <c r="I10" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2805,7 +2805,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E11" s="8">
         <v>30</v>
@@ -2814,16 +2814,16 @@
         <v>300</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H11" s="8">
         <v>3</v>
       </c>
-      <c r="I11" s="16">
-        <v>100000</v>
+      <c r="I11" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2838,7 +2838,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E12" s="8">
         <v>40</v>
@@ -2847,16 +2847,16 @@
         <v>400</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H12" s="8">
         <v>4</v>
       </c>
-      <c r="I12" s="16">
-        <v>200000</v>
+      <c r="I12" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2877,13 +2877,13 @@
         <v>100</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>101</v>
+        <v>225</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
@@ -2901,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" s="7">
         <v>20</v>
@@ -2910,16 +2910,16 @@
         <v>200</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2934,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E15" s="8">
         <v>30</v>
@@ -2943,16 +2943,16 @@
         <v>300</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H15" s="8">
         <v>3</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -2967,7 +2967,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E16" s="8">
         <v>40</v>
@@ -2976,16 +2976,16 @@
         <v>400</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H16" s="8">
         <v>4</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3006,13 +3006,13 @@
         <v>100</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="J17" s="7">
         <v>1</v>
@@ -3030,7 +3030,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E18" s="7">
         <v>20</v>
@@ -3039,16 +3039,16 @@
         <v>200</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3063,7 +3063,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E19" s="8">
         <v>30</v>
@@ -3072,16 +3072,16 @@
         <v>300</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H19" s="8">
         <v>3</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3096,7 +3096,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E20" s="8">
         <v>40</v>
@@ -3105,16 +3105,16 @@
         <v>400</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H20" s="8">
         <v>4</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3135,13 +3135,13 @@
         <v>100</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J21" s="7">
         <v>1</v>
@@ -3159,7 +3159,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E22" s="7">
         <v>20</v>
@@ -3168,16 +3168,16 @@
         <v>200</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3192,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E23" s="8">
         <v>30</v>
@@ -3201,16 +3201,16 @@
         <v>300</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H23" s="8">
         <v>3</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3225,7 +3225,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E24" s="8">
         <v>40</v>
@@ -3234,16 +3234,16 @@
         <v>400</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H24" s="8">
         <v>4</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3264,13 +3264,13 @@
         <v>100</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J25" s="7">
         <v>1</v>
@@ -3288,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E26" s="7">
         <v>20</v>
@@ -3297,16 +3297,16 @@
         <v>200</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3321,7 +3321,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E27" s="8">
         <v>30</v>
@@ -3330,16 +3330,16 @@
         <v>300</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H27" s="8">
         <v>3</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3354,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E28" s="8">
         <v>40</v>
@@ -3363,16 +3363,16 @@
         <v>400</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H28" s="8">
         <v>4</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3393,13 +3393,13 @@
         <v>100</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J29" s="7">
         <v>1</v>
@@ -3417,7 +3417,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E30" s="7">
         <v>20</v>
@@ -3426,16 +3426,16 @@
         <v>200</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3450,7 +3450,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E31" s="8">
         <v>30</v>
@@ -3459,16 +3459,16 @@
         <v>300</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H31" s="8">
         <v>3</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3483,7 +3483,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E32" s="8">
         <v>40</v>
@@ -3492,16 +3492,16 @@
         <v>400</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H32" s="8">
         <v>4</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3522,7 +3522,7 @@
         <v>100</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -3546,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E34" s="7">
         <v>20</v>
@@ -3555,7 +3555,7 @@
         <v>200</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -3564,7 +3564,7 @@
         <v>5000</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3579,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E35" s="8">
         <v>30</v>
@@ -3588,7 +3588,7 @@
         <v>300</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H35" s="8">
         <v>3</v>
@@ -3597,7 +3597,7 @@
         <v>10000</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3612,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E36" s="8">
         <v>40</v>
@@ -3621,7 +3621,7 @@
         <v>400</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H36" s="8">
         <v>4</v>
@@ -3630,7 +3630,7 @@
         <v>20000</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3651,13 +3651,13 @@
         <v>100</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="J37" s="7">
         <v>1</v>
@@ -3675,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E38" s="7">
         <v>20</v>
@@ -3684,16 +3684,16 @@
         <v>200</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3708,7 +3708,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E39" s="8">
         <v>30</v>
@@ -3717,16 +3717,16 @@
         <v>300</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H39" s="8">
         <v>3</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3741,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E40" s="8">
         <v>40</v>
@@ -3750,16 +3750,16 @@
         <v>400</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H40" s="8">
         <v>4</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3780,13 +3780,13 @@
         <v>100</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="J41" s="7">
         <v>1</v>
@@ -3804,7 +3804,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E42" s="7">
         <v>20</v>
@@ -3813,16 +3813,16 @@
         <v>200</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3837,7 +3837,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E43" s="8">
         <v>30</v>
@@ -3846,16 +3846,16 @@
         <v>300</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H43" s="8">
         <v>3</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3870,7 +3870,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E44" s="8">
         <v>40</v>
@@ -3879,16 +3879,16 @@
         <v>400</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H44" s="8">
         <v>4</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3909,7 +3909,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E46" s="7">
         <v>20</v>
@@ -3942,7 +3942,7 @@
         <v>200</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -3951,7 +3951,7 @@
         <v>10</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3966,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E47" s="8">
         <v>30</v>
@@ -3975,7 +3975,7 @@
         <v>300</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H47" s="8">
         <v>3</v>
@@ -3984,7 +3984,7 @@
         <v>15</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -3999,7 +3999,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E48" s="8">
         <v>40</v>
@@ -4008,7 +4008,7 @@
         <v>400</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H48" s="8">
         <v>4</v>
@@ -4017,7 +4017,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4038,13 +4038,13 @@
         <v>100</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J49" s="7">
         <v>1</v>
@@ -4062,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E50" s="7">
         <v>20</v>
@@ -4071,16 +4071,16 @@
         <v>200</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H50" s="7">
         <v>2</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4095,7 +4095,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E51" s="8">
         <v>30</v>
@@ -4104,16 +4104,16 @@
         <v>300</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H51" s="8">
         <v>3</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4128,7 +4128,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E52" s="8">
         <v>40</v>
@@ -4137,16 +4137,16 @@
         <v>400</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H52" s="8">
         <v>4</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4167,13 +4167,13 @@
         <v>100</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J53" s="7">
         <v>1</v>
@@ -4191,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E54" s="7">
         <v>20</v>
@@ -4200,16 +4200,16 @@
         <v>200</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H54" s="7">
         <v>2</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4224,7 +4224,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E55" s="8">
         <v>30</v>
@@ -4233,16 +4233,16 @@
         <v>300</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H55" s="8">
         <v>3</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4257,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E56" s="8">
         <v>40</v>
@@ -4266,16 +4266,16 @@
         <v>400</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H56" s="8">
         <v>4</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4296,13 +4296,13 @@
         <v>100</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H57" s="7">
         <v>1</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J57" s="7">
         <v>1</v>
@@ -4320,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E58" s="7">
         <v>20</v>
@@ -4329,16 +4329,16 @@
         <v>200</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4353,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E59" s="8">
         <v>30</v>
@@ -4362,16 +4362,16 @@
         <v>300</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H59" s="8">
         <v>3</v>
       </c>
       <c r="I59" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4386,7 +4386,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E60" s="8">
         <v>40</v>
@@ -4395,16 +4395,16 @@
         <v>400</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H60" s="8">
         <v>4</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4425,13 +4425,13 @@
         <v>100</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="J61" s="7">
         <v>1</v>
@@ -4449,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E62" s="7">
         <v>20</v>
@@ -4458,16 +4458,16 @@
         <v>200</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H62" s="7">
         <v>2</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4482,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E63" s="8">
         <v>30</v>
@@ -4491,16 +4491,16 @@
         <v>300</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H63" s="8">
         <v>3</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4515,7 +4515,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E64" s="8">
         <v>40</v>
@@ -4524,16 +4524,16 @@
         <v>400</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H64" s="8">
         <v>4</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4554,13 +4554,13 @@
         <v>100</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="J65" s="7">
         <v>1</v>
@@ -4584,16 +4584,16 @@
         <v>200</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4614,16 +4614,16 @@
         <v>300</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H67" s="8">
         <v>3</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4644,16 +4644,16 @@
         <v>400</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H68" s="8">
         <v>4</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4674,13 +4674,13 @@
         <v>100</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="J69" s="7">
         <v>1</v>
@@ -4704,16 +4704,16 @@
         <v>200</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4734,16 +4734,16 @@
         <v>300</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H71" s="8">
         <v>3</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4764,16 +4764,16 @@
         <v>400</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H72" s="8">
         <v>4</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4794,13 +4794,13 @@
         <v>100</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H73" s="7">
         <v>1</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J73" s="7">
         <v>1</v>
@@ -4824,16 +4824,16 @@
         <v>200</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H74" s="7">
         <v>2</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4854,16 +4854,16 @@
         <v>300</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H75" s="8">
         <v>3</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4884,16 +4884,16 @@
         <v>400</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H76" s="8">
         <v>4</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -4914,7 +4914,7 @@
         <v>100</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H77" s="7">
         <v>1</v>
@@ -4942,13 +4942,13 @@
         <v>100</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="J78" s="7">
         <v>1</v>
@@ -4972,16 +4972,16 @@
         <v>200</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H79" s="7">
         <v>2</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5002,16 +5002,16 @@
         <v>300</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H80" s="8">
         <v>3</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5032,7 +5032,7 @@
         <v>100</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H81" s="7">
         <v>1</v>
@@ -5062,7 +5062,7 @@
         <v>200</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H82" s="7">
         <v>2</v>
@@ -5071,7 +5071,7 @@
         <v>2</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5092,7 +5092,7 @@
         <v>300</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H83" s="8">
         <v>3</v>
@@ -5101,7 +5101,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5122,7 +5122,7 @@
         <v>400</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H84" s="8">
         <v>4</v>
@@ -5131,7 +5131,7 @@
         <v>4</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5152,13 +5152,13 @@
         <v>100</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H85" s="7">
         <v>1</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="J85" s="7">
         <v>1</v>
@@ -5182,16 +5182,16 @@
         <v>200</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H86" s="7">
         <v>2</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5212,16 +5212,16 @@
         <v>300</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H87" s="8">
         <v>3</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5242,16 +5242,16 @@
         <v>400</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H88" s="8">
         <v>4</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5272,13 +5272,13 @@
         <v>100</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H89" s="7">
         <v>1</v>
       </c>
       <c r="I89" s="15" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="J89" s="7">
         <v>1</v>
@@ -5302,16 +5302,16 @@
         <v>200</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H90" s="7">
         <v>2</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5332,16 +5332,16 @@
         <v>300</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H91" s="8">
         <v>3</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5362,16 +5362,16 @@
         <v>400</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H92" s="8">
         <v>4</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5392,16 +5392,16 @@
         <v>500</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H93" s="8">
         <v>5</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -5422,16 +5422,14 @@
         <v>100</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H94" s="8">
         <v>1</v>
       </c>
-      <c r="I94" s="15" t="s">
-        <v>136</v>
-      </c>
+      <c r="I94" s="15"/>
       <c r="J94" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC2CDFC-AC46-4AB8-82E0-11246418E6AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B9C801-5889-4605-A62F-17B5C195BE93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2456,7 +2456,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F9" s="7">
         <v>100</v>
@@ -3129,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="8">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F21" s="7">
         <v>100</v>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B9C801-5889-4605-A62F-17B5C195BE93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B784F48-33B6-4A22-98F1-BEF3336C7935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="240">
   <si>
     <t>索引</t>
   </si>
@@ -968,6 +968,10 @@
   </si>
   <si>
     <t>1|1|2,1|2|3,1|3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1414,7 +1418,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2455,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5158,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J85" s="7">
         <v>1</v>
@@ -5188,7 +5192,7 @@
         <v>2</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="J86" s="7" t="s">
         <v>75</v>
@@ -5218,7 +5222,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>76</v>
@@ -5248,7 +5252,7 @@
         <v>4</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>77</v>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B784F48-33B6-4A22-98F1-BEF3336C7935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA20CFD-C73B-4188-9D42-449E4A80B81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43335" yWindow="5385" windowWidth="28710" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -2459,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA20CFD-C73B-4188-9D42-449E4A80B81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADB75F4-167D-4054-BA54-572E4C3AFED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43335" yWindow="5385" windowWidth="28710" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7335" yWindow="2865" windowWidth="28710" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="A18" sqref="A18:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2459,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="B61" sqref="A61:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/Building.xlsx
+++ b/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADB75F4-167D-4054-BA54-572E4C3AFED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7B854E-4C3F-4FEB-92DA-A6954D25DD49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="2865" windowWidth="28710" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38505" yWindow="1890" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="245">
   <si>
     <t>索引</t>
   </si>
@@ -972,6 +972,26 @@
   </si>
   <si>
     <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroopSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升部队出征行军速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军速度提升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1415,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2448,6 +2468,44 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="8">
+        <v>4</v>
+      </c>
+      <c r="J28" s="8">
+        <v>2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>2</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2457,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="B61" sqref="A61:XFD68"/>
+    <sheetView topLeftCell="E67" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5436,6 +5494,126 @@
         <v>123</v>
       </c>
     </row>
+    <row r="95" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A95" s="8">
+        <f>B95*100+C95</f>
+        <v>2501</v>
+      </c>
+      <c r="B95" s="8">
+        <v>25</v>
+      </c>
+      <c r="C95" s="8">
+        <v>1</v>
+      </c>
+      <c r="E95" s="8">
+        <v>10</v>
+      </c>
+      <c r="F95" s="7">
+        <v>100</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H95" s="7">
+        <v>1</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A96" s="8">
+        <f t="shared" ref="A96:A98" si="24">B96*100+C96</f>
+        <v>2502</v>
+      </c>
+      <c r="B96" s="8">
+        <v>25</v>
+      </c>
+      <c r="C96" s="8">
+        <v>2</v>
+      </c>
+      <c r="E96" s="7">
+        <v>20</v>
+      </c>
+      <c r="F96" s="7">
+        <v>200</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H96" s="7">
+        <v>2</v>
+      </c>
+      <c r="I96" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A97" s="8">
+        <f t="shared" si="24"/>
+        <v>2503</v>
+      </c>
+      <c r="B97" s="8">
+        <v>25</v>
+      </c>
+      <c r="C97" s="8">
+        <v>3</v>
+      </c>
+      <c r="E97" s="8">
+        <v>30</v>
+      </c>
+      <c r="F97" s="8">
+        <v>300</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H97" s="8">
+        <v>3</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="8">
+        <f t="shared" si="24"/>
+        <v>2504</v>
+      </c>
+      <c r="B98" s="8">
+        <v>25</v>
+      </c>
+      <c r="C98" s="8">
+        <v>4</v>
+      </c>
+      <c r="E98" s="8">
+        <v>40</v>
+      </c>
+      <c r="F98" s="8">
+        <v>400</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H98" s="8">
+        <v>4</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
